--- a/docs/Examples/Example1a_Gas_Cell_Calibration/Weak_Diads.xlsx
+++ b/docs/Examples/Example1a_Gas_Cell_Calibration/Weak_Diads.xlsx
@@ -723,79 +723,79 @@
         <v>36</v>
       </c>
       <c r="C2">
-        <v>102.8055153685998</v>
+        <v>102.8055331800176</v>
       </c>
       <c r="D2">
-        <v>1286.62112561949</v>
+        <v>1286.621107666303</v>
       </c>
       <c r="E2">
-        <v>224.8699792538317</v>
+        <v>224.8701118841905</v>
       </c>
       <c r="F2">
-        <v>1286.62117562199</v>
+        <v>1286.621157668803</v>
       </c>
       <c r="G2">
-        <v>337.9744221053846</v>
+        <v>337.9744468236931</v>
       </c>
       <c r="H2">
-        <v>0.6329371946296867</v>
+        <v>0.6329361108109817</v>
       </c>
       <c r="I2">
-        <v>1.712222575131729</v>
+        <v>1.712239719201624</v>
       </c>
       <c r="J2">
-        <v>0.3211264831715998</v>
+        <v>0.3211298083355313</v>
       </c>
       <c r="K2">
-        <v>1.265874389259373</v>
+        <v>1.265872221621963</v>
       </c>
       <c r="L2" t="s">
         <v>75</v>
       </c>
       <c r="M2">
-        <v>1389.42669099059</v>
+        <v>1389.426690848821</v>
       </c>
       <c r="N2">
-        <v>333.7037025759775</v>
+        <v>333.7043092728055</v>
       </c>
       <c r="O2">
-        <v>1389.42669099059</v>
+        <v>1389.426690848821</v>
       </c>
       <c r="P2">
-        <v>457.6453506019556</v>
+        <v>457.6480600262801</v>
       </c>
       <c r="Q2">
-        <v>0.6087078350713047</v>
+        <v>0.608706028687932</v>
       </c>
       <c r="S2">
-        <v>1.985439053405572</v>
+        <v>1.985449547361211</v>
       </c>
       <c r="T2">
-        <v>0.1708216737030562</v>
+        <v>0.1708423988399728</v>
       </c>
       <c r="U2">
-        <v>1.217415670142609</v>
+        <v>1.217412057375864</v>
       </c>
       <c r="V2" t="s">
         <v>75</v>
       </c>
       <c r="W2">
-        <v>1266.278287224663</v>
+        <v>1266.278287231848</v>
       </c>
       <c r="X2">
-        <v>31.917010024409</v>
+        <v>31.91698303257662</v>
       </c>
       <c r="Y2">
-        <v>0.5816846785610099</v>
+        <v>0.5816847818851196</v>
       </c>
       <c r="Z2">
-        <v>1410.606548793483</v>
+        <v>1410.606548816173</v>
       </c>
       <c r="AA2">
-        <v>25.878256201734</v>
+        <v>25.87824447869929</v>
       </c>
       <c r="AB2">
-        <v>0.5920903813247913</v>
+        <v>0.5920901732449652</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -806,79 +806,79 @@
         <v>37</v>
       </c>
       <c r="C3">
-        <v>102.7595123022015</v>
+        <v>102.7595112576632</v>
       </c>
       <c r="D3">
         <v>1286.620737777116</v>
       </c>
       <c r="E3">
-        <v>207.8817213379269</v>
+        <v>207.8817150287213</v>
       </c>
       <c r="F3">
         <v>1286.620787779616</v>
       </c>
       <c r="G3">
-        <v>295.2299525223052</v>
+        <v>295.2298130823945</v>
       </c>
       <c r="H3">
-        <v>0.6427503180037304</v>
+        <v>0.642750326525372</v>
       </c>
       <c r="I3">
-        <v>2.221886813156611</v>
+        <v>2.22187407473194</v>
       </c>
       <c r="J3">
-        <v>0.1132358010042538</v>
+        <v>0.1132345752646602</v>
       </c>
       <c r="K3">
-        <v>1.285500636007461</v>
+        <v>1.285500653050744</v>
       </c>
       <c r="L3" t="s">
         <v>75</v>
       </c>
       <c r="M3">
-        <v>1389.380300081818</v>
+        <v>1389.380299037279</v>
       </c>
       <c r="N3">
-        <v>322.5666328983395</v>
+        <v>322.5635426539636</v>
       </c>
       <c r="O3">
-        <v>1389.380300081818</v>
+        <v>1389.380299037279</v>
       </c>
       <c r="P3">
-        <v>429.3562961882853</v>
+        <v>429.3443700663958</v>
       </c>
       <c r="Q3">
-        <v>0.5958709074382218</v>
+        <v>0.5958804789563636</v>
       </c>
       <c r="S3">
-        <v>2.612715139152381</v>
+        <v>2.612727720135787</v>
       </c>
       <c r="T3">
-        <v>0.1456518904844851</v>
+        <v>0.1455505936715763</v>
       </c>
       <c r="U3">
-        <v>1.191741814876444</v>
+        <v>1.191760957912727</v>
       </c>
       <c r="V3" t="s">
         <v>75</v>
       </c>
       <c r="W3">
-        <v>1266.367560353047</v>
+        <v>1266.367738556908</v>
       </c>
       <c r="X3">
-        <v>34.25109077049164</v>
+        <v>34.25348108110231</v>
       </c>
       <c r="Y3">
-        <v>1.001023929738878</v>
+        <v>1.000919876660045</v>
       </c>
       <c r="Z3">
-        <v>1410.654919000704</v>
+        <v>1410.654918889258</v>
       </c>
       <c r="AA3">
-        <v>33.18606235689882</v>
+        <v>33.18613930430666</v>
       </c>
       <c r="AB3">
-        <v>0.615225057399115</v>
+        <v>0.6152257048342524</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -889,79 +889,79 @@
         <v>38</v>
       </c>
       <c r="C4">
-        <v>102.9773763059106</v>
+        <v>102.9773819305599</v>
       </c>
       <c r="D4">
-        <v>1286.142245699882</v>
+        <v>1286.142244887784</v>
       </c>
       <c r="E4">
-        <v>917.3594081365783</v>
+        <v>917.3595322839628</v>
       </c>
       <c r="F4">
-        <v>1286.142295702382</v>
+        <v>1286.142294890285</v>
       </c>
       <c r="G4">
-        <v>1677.688283257231</v>
+        <v>1677.688547522885</v>
       </c>
       <c r="H4">
-        <v>0.7227764807803613</v>
+        <v>0.7227762633804311</v>
       </c>
       <c r="I4">
-        <v>2.472196242527063</v>
+        <v>2.472210714964435</v>
       </c>
       <c r="J4">
-        <v>0.4923355741126655</v>
+        <v>0.4923364307808873</v>
       </c>
       <c r="K4">
-        <v>1.445552961560723</v>
+        <v>1.445552526760862</v>
       </c>
       <c r="L4" t="s">
         <v>75</v>
       </c>
       <c r="M4">
-        <v>1389.119722010793</v>
+        <v>1389.119726823345</v>
       </c>
       <c r="N4">
-        <v>1506.495631113912</v>
+        <v>1506.495548183273</v>
       </c>
       <c r="O4">
-        <v>1389.119672008293</v>
+        <v>1389.119676820844</v>
       </c>
       <c r="P4">
-        <v>2430.792023332041</v>
+        <v>2430.791938771175</v>
       </c>
       <c r="Q4">
-        <v>0.6616899723163355</v>
+        <v>0.6616900514172239</v>
       </c>
       <c r="S4">
-        <v>2.750016600539981</v>
+        <v>2.750080486909611</v>
       </c>
       <c r="T4">
-        <v>0.3939475930486522</v>
+        <v>0.3939473256131026</v>
       </c>
       <c r="U4">
-        <v>1.323379944632671</v>
+        <v>1.323380102834448</v>
       </c>
       <c r="V4" t="s">
         <v>75</v>
       </c>
       <c r="W4">
-        <v>1265.963500884853</v>
+        <v>1265.963487740704</v>
       </c>
       <c r="X4">
-        <v>154.9577410879307</v>
+        <v>154.9591418303077</v>
       </c>
       <c r="Y4">
-        <v>0.8572097259881816</v>
+        <v>0.8571700193054939</v>
       </c>
       <c r="Z4">
-        <v>1410.405014543838</v>
+        <v>1410.40501954348</v>
       </c>
       <c r="AA4">
-        <v>198.169741166801</v>
+        <v>198.1698126041071</v>
       </c>
       <c r="AB4">
-        <v>0.8589110189794424</v>
+        <v>0.8589059033304578</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -972,7 +972,7 @@
         <v>39</v>
       </c>
       <c r="C5">
-        <v>102.9411744872452</v>
+        <v>102.9411697997289</v>
       </c>
       <c r="D5">
         <v>1286.176075535397</v>
@@ -1002,28 +1002,28 @@
         <v>75</v>
       </c>
       <c r="M5">
-        <v>1389.117350027643</v>
+        <v>1389.117345340126</v>
       </c>
       <c r="N5">
-        <v>1891.094592570812</v>
+        <v>1891.09477060415</v>
       </c>
       <c r="O5">
-        <v>1389.117300025143</v>
+        <v>1389.117295337626</v>
       </c>
       <c r="P5">
-        <v>2977.71987463466</v>
+        <v>2977.720031426777</v>
       </c>
       <c r="Q5">
-        <v>0.6441972777587152</v>
+        <v>0.6441971480666493</v>
       </c>
       <c r="S5">
-        <v>3.877138528829796</v>
+        <v>3.877060188493495</v>
       </c>
       <c r="T5">
-        <v>0.4003095251472715</v>
+        <v>0.4003099569264424</v>
       </c>
       <c r="U5">
-        <v>1.28839455551743</v>
+        <v>1.288394296133299</v>
       </c>
       <c r="V5" t="s">
         <v>75</v>
@@ -1038,13 +1038,13 @@
         <v>0.8165024057532598</v>
       </c>
       <c r="Z5">
-        <v>1410.407435042715</v>
+        <v>1410.407435026403</v>
       </c>
       <c r="AA5">
-        <v>259.8492440193546</v>
+        <v>259.8492170854001</v>
       </c>
       <c r="AB5">
-        <v>0.7470581191086467</v>
+        <v>0.7470581292538814</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -1055,58 +1055,58 @@
         <v>40</v>
       </c>
       <c r="C6">
-        <v>102.7355556291607</v>
+        <v>102.7355560566261</v>
       </c>
       <c r="D6">
-        <v>1286.70013838618</v>
+        <v>1286.700137764308</v>
       </c>
       <c r="E6">
-        <v>45.64277477757228</v>
+        <v>45.64278114632084</v>
       </c>
       <c r="F6">
-        <v>1286.70013838618</v>
+        <v>1286.700137764308</v>
       </c>
       <c r="G6">
-        <v>69.6341551832532</v>
+        <v>69.63414474232241</v>
       </c>
       <c r="H6">
-        <v>0.7153559476429557</v>
+        <v>0.7153557417307868</v>
       </c>
       <c r="I6">
-        <v>1.68510628177071</v>
+        <v>1.685106267044463</v>
       </c>
       <c r="J6">
-        <v>2.374417329420453E-11</v>
+        <v>8.742617740864489E-12</v>
       </c>
       <c r="K6">
-        <v>1.430711895285911</v>
+        <v>1.430711483461574</v>
       </c>
       <c r="L6" t="s">
         <v>75</v>
       </c>
       <c r="M6">
-        <v>1389.435694015341</v>
+        <v>1389.435693820934</v>
       </c>
       <c r="N6">
-        <v>84.35591227037479</v>
+        <v>84.35591324771192</v>
       </c>
       <c r="O6">
-        <v>1389.435694015341</v>
+        <v>1389.435693820934</v>
       </c>
       <c r="P6">
-        <v>111.8631227516313</v>
+        <v>111.8631242918901</v>
       </c>
       <c r="Q6">
-        <v>0.565008670768442</v>
+        <v>0.5650086617092998</v>
       </c>
       <c r="S6">
-        <v>1.582586983492386</v>
+        <v>1.582586971903599</v>
       </c>
       <c r="T6">
-        <v>0.275158938463247</v>
+        <v>0.2751589902821302</v>
       </c>
       <c r="U6">
-        <v>1.130017341536884</v>
+        <v>1.1300173234186</v>
       </c>
       <c r="V6" t="s">
         <v>75</v>
@@ -1120,79 +1120,79 @@
         <v>41</v>
       </c>
       <c r="C7">
-        <v>102.6855305035967</v>
+        <v>102.685535487497</v>
       </c>
       <c r="D7">
         <v>1286.70418509143</v>
       </c>
       <c r="E7">
-        <v>62.6941056964332</v>
+        <v>62.69462529704098</v>
       </c>
       <c r="F7">
         <v>1286.70423509393</v>
       </c>
       <c r="G7">
-        <v>85.94671542850986</v>
+        <v>85.94671224395715</v>
       </c>
       <c r="H7">
-        <v>0.6439884862722499</v>
+        <v>0.6439922966793143</v>
       </c>
       <c r="I7">
-        <v>1.916522228288932</v>
+        <v>1.916490675472879</v>
       </c>
       <c r="J7">
-        <v>4.916126229603801E-05</v>
+        <v>4.723426093367067E-06</v>
       </c>
       <c r="K7">
-        <v>1.2879769725445</v>
+        <v>1.287984593358629</v>
       </c>
       <c r="L7" t="s">
         <v>75</v>
       </c>
       <c r="M7">
-        <v>1389.389815600027</v>
+        <v>1389.389770581427</v>
       </c>
       <c r="N7">
-        <v>96.67245382210307</v>
+        <v>96.67239031523354</v>
       </c>
       <c r="O7">
-        <v>1389.389765597527</v>
+        <v>1389.389770581427</v>
       </c>
       <c r="P7">
-        <v>126.5953999079988</v>
+        <v>126.5951568950913</v>
       </c>
       <c r="Q7">
-        <v>0.615108553876341</v>
+        <v>0.6151094381861656</v>
       </c>
       <c r="S7">
-        <v>3.106863167179763</v>
+        <v>3.106911195559162</v>
       </c>
       <c r="T7">
-        <v>8.632822753706915E-06</v>
+        <v>2.545029010314614E-07</v>
       </c>
       <c r="U7">
-        <v>1.230217107752682</v>
+        <v>1.230218876372331</v>
       </c>
       <c r="V7" t="s">
         <v>75</v>
       </c>
       <c r="W7">
-        <v>1266.03239246957</v>
+        <v>1266.032361564247</v>
       </c>
       <c r="X7">
-        <v>16.33201035347824</v>
+        <v>16.32710300375221</v>
       </c>
       <c r="Y7">
-        <v>0.5297898733834973</v>
+        <v>0.5295284499624745</v>
       </c>
       <c r="Z7">
-        <v>1410.688592798415</v>
+        <v>1410.690947639897</v>
       </c>
       <c r="AA7">
-        <v>5.495748459345133</v>
+        <v>5.50670673306846</v>
       </c>
       <c r="AB7">
-        <v>0.3395773296524447</v>
+        <v>0.3433725350241335</v>
       </c>
     </row>
     <row r="8" spans="1:37">
@@ -1203,70 +1203,70 @@
         <v>42</v>
       </c>
       <c r="C8">
-        <v>102.7989411772494</v>
+        <v>102.7989322676801</v>
       </c>
       <c r="D8">
-        <v>1286.534957215419</v>
+        <v>1286.53495739762</v>
       </c>
       <c r="E8">
-        <v>219.0904981651044</v>
+        <v>219.0904950097182</v>
       </c>
       <c r="F8">
-        <v>1286.534957215419</v>
+        <v>1286.53495739762</v>
       </c>
       <c r="G8">
-        <v>331.3308547987886</v>
+        <v>331.3308541882216</v>
       </c>
       <c r="H8">
-        <v>0.6563681234308554</v>
+        <v>0.6563681447346723</v>
       </c>
       <c r="I8">
-        <v>1.897216558498942</v>
+        <v>1.897216993505334</v>
       </c>
       <c r="J8">
-        <v>0.2382096989371344</v>
+        <v>0.2382096431780673</v>
       </c>
       <c r="K8">
-        <v>1.312736246861711</v>
+        <v>1.312736289469345</v>
       </c>
       <c r="L8" t="s">
         <v>75</v>
       </c>
       <c r="M8">
-        <v>1389.333948395168</v>
+        <v>1389.3339396678</v>
       </c>
       <c r="N8">
-        <v>320.9075934659407</v>
+        <v>320.9043084309716</v>
       </c>
       <c r="O8">
-        <v>1389.333898392668</v>
+        <v>1389.3338896653</v>
       </c>
       <c r="P8">
-        <v>455.4696614904674</v>
+        <v>455.4569587776521</v>
       </c>
       <c r="Q8">
-        <v>0.6156895563069489</v>
+        <v>0.6157002720428926</v>
       </c>
       <c r="S8">
-        <v>3.096214638240027</v>
+        <v>3.096113051749628</v>
       </c>
       <c r="T8">
-        <v>0.2374268741646016</v>
+        <v>0.2373263584251302</v>
       </c>
       <c r="U8">
-        <v>1.231379112613898</v>
+        <v>1.231400544085785</v>
       </c>
       <c r="V8" t="s">
         <v>75</v>
       </c>
       <c r="Z8">
-        <v>1410.623612295368</v>
+        <v>1410.623650676152</v>
       </c>
       <c r="AA8">
-        <v>46.34941515864171</v>
+        <v>46.3414372506488</v>
       </c>
       <c r="AB8">
-        <v>0.5152460366516455</v>
+        <v>0.5150340015149916</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -1277,7 +1277,7 @@
         <v>43</v>
       </c>
       <c r="C9">
-        <v>102.782511982499</v>
+        <v>102.7824991235916</v>
       </c>
       <c r="D9">
         <v>1286.576616114922</v>
@@ -1307,28 +1307,28 @@
         <v>75</v>
       </c>
       <c r="M9">
-        <v>1389.359178099921</v>
+        <v>1389.359165241014</v>
       </c>
       <c r="N9">
-        <v>325.1557821369101</v>
+        <v>325.1536977428301</v>
       </c>
       <c r="O9">
-        <v>1389.359178099921</v>
+        <v>1389.359165241014</v>
       </c>
       <c r="P9">
-        <v>433.7445526309125</v>
+        <v>433.7355858794637</v>
       </c>
       <c r="Q9">
-        <v>0.5987218806020598</v>
+        <v>0.5987281916723407</v>
       </c>
       <c r="S9">
-        <v>1.96553065656402</v>
+        <v>1.965539956156226</v>
       </c>
       <c r="T9">
-        <v>0.1379571071935031</v>
+        <v>0.13788357972524</v>
       </c>
       <c r="U9">
-        <v>1.19744376120412</v>
+        <v>1.197456383344681</v>
       </c>
       <c r="V9" t="s">
         <v>75</v>
@@ -1343,13 +1343,13 @@
         <v>0.6247004172709424</v>
       </c>
       <c r="Z9">
-        <v>1410.582920339686</v>
+        <v>1410.582920333737</v>
       </c>
       <c r="AA9">
-        <v>40.29198946978335</v>
+        <v>40.29203647600121</v>
       </c>
       <c r="AB9">
-        <v>0.6150414397750836</v>
+        <v>0.6150419336410204</v>
       </c>
     </row>
     <row r="10" spans="1:37">
@@ -1360,7 +1360,7 @@
         <v>44</v>
       </c>
       <c r="C10">
-        <v>102.9755248752044</v>
+        <v>102.9755248928134</v>
       </c>
       <c r="D10">
         <v>1286.103201711938</v>
@@ -1390,28 +1390,28 @@
         <v>75</v>
       </c>
       <c r="M10">
-        <v>1389.078826592143</v>
+        <v>1389.078826609752</v>
       </c>
       <c r="N10">
-        <v>1458.63022563066</v>
+        <v>1458.630210213251</v>
       </c>
       <c r="O10">
-        <v>1389.078776589643</v>
+        <v>1389.078776607251</v>
       </c>
       <c r="P10">
-        <v>2389.728936990567</v>
+        <v>2389.728814793304</v>
       </c>
       <c r="Q10">
-        <v>0.6626527552395255</v>
+        <v>0.6626527674116161</v>
       </c>
       <c r="S10">
-        <v>2.563694116461604</v>
+        <v>2.563694669205405</v>
       </c>
       <c r="T10">
-        <v>0.4310921634931242</v>
+        <v>0.4310920193389967</v>
       </c>
       <c r="U10">
-        <v>1.325305510479051</v>
+        <v>1.325305534823232</v>
       </c>
       <c r="V10" t="s">
         <v>75</v>
@@ -1426,13 +1426,13 @@
         <v>0.8514218655297242</v>
       </c>
       <c r="Z10">
-        <v>1410.363572727269</v>
+        <v>1410.363574736344</v>
       </c>
       <c r="AA10">
-        <v>205.0147031282203</v>
+        <v>205.0172154265896</v>
       </c>
       <c r="AB10">
-        <v>0.7869941390924958</v>
+        <v>0.7869682669262956</v>
       </c>
     </row>
     <row r="11" spans="1:37">
@@ -1443,7 +1443,7 @@
         <v>45</v>
       </c>
       <c r="C11">
-        <v>102.9471211917717</v>
+        <v>102.9471220513017</v>
       </c>
       <c r="D11">
         <v>1286.145915720854</v>
@@ -1473,28 +1473,28 @@
         <v>75</v>
       </c>
       <c r="M11">
-        <v>1389.093136917625</v>
+        <v>1389.093087774655</v>
       </c>
       <c r="N11">
-        <v>878.2268313448468</v>
+        <v>878.2267655684983</v>
       </c>
       <c r="O11">
-        <v>1389.093086915125</v>
+        <v>1389.093087774655</v>
       </c>
       <c r="P11">
-        <v>1384.96974145334</v>
+        <v>1384.96961837058</v>
       </c>
       <c r="Q11">
-        <v>0.6450101722653963</v>
+        <v>0.6450102698809901</v>
       </c>
       <c r="S11">
-        <v>2.495161496144585</v>
+        <v>2.495165830469127</v>
       </c>
       <c r="T11">
-        <v>0.4009644572798871</v>
+        <v>0.4009640106621378</v>
       </c>
       <c r="U11">
-        <v>1.290020344530793</v>
+        <v>1.29002053976198</v>
       </c>
       <c r="V11" t="s">
         <v>75</v>
@@ -1509,13 +1509,13 @@
         <v>0.7050061609279521</v>
       </c>
       <c r="Z11">
-        <v>1410.415977065308</v>
+        <v>1410.415976854245</v>
       </c>
       <c r="AA11">
-        <v>100.7206245461838</v>
+        <v>100.720648639559</v>
       </c>
       <c r="AB11">
-        <v>0.7483528823682739</v>
+        <v>0.7483521829133987</v>
       </c>
     </row>
     <row r="12" spans="1:37">
@@ -1526,70 +1526,70 @@
         <v>46</v>
       </c>
       <c r="C12">
-        <v>102.8160607084301</v>
+        <v>102.8160454224949</v>
       </c>
       <c r="D12">
-        <v>1286.343441281018</v>
+        <v>1286.343440491473</v>
       </c>
       <c r="E12">
-        <v>241.9548967284532</v>
+        <v>241.9547364001946</v>
       </c>
       <c r="F12">
-        <v>1286.343441281018</v>
+        <v>1286.343440491473</v>
       </c>
       <c r="G12">
-        <v>373.8150912671353</v>
+        <v>373.814715916965</v>
       </c>
       <c r="H12">
-        <v>0.6847551349324904</v>
+        <v>0.6847560811201115</v>
       </c>
       <c r="I12">
-        <v>2.279877923422402</v>
+        <v>2.279877813027911</v>
       </c>
       <c r="J12">
-        <v>0.1765132513866913</v>
+        <v>0.1765082372487364</v>
       </c>
       <c r="K12">
-        <v>1.369510269864981</v>
+        <v>1.369512162240223</v>
       </c>
       <c r="L12" t="s">
         <v>75</v>
       </c>
       <c r="M12">
-        <v>1389.159501989448</v>
+        <v>1389.159485913968</v>
       </c>
       <c r="N12">
-        <v>368.3655301998449</v>
+        <v>368.3646368223384</v>
       </c>
       <c r="O12">
-        <v>1389.159501989448</v>
+        <v>1389.159485913968</v>
       </c>
       <c r="P12">
-        <v>527.8979749029871</v>
+        <v>527.8920416005807</v>
       </c>
       <c r="Q12">
-        <v>0.6178627579201561</v>
+        <v>0.6178651384614899</v>
       </c>
       <c r="S12">
-        <v>1.932662218861336</v>
+        <v>1.932598584047296</v>
       </c>
       <c r="T12">
-        <v>0.2547802975462462</v>
+        <v>0.2547442270666604</v>
       </c>
       <c r="U12">
-        <v>1.235725515840312</v>
+        <v>1.23573027692298</v>
       </c>
       <c r="V12" t="s">
         <v>75</v>
       </c>
       <c r="Z12">
-        <v>1410.385093457566</v>
+        <v>1410.385093433796</v>
       </c>
       <c r="AA12">
-        <v>34.70822495304924</v>
+        <v>34.70826716241099</v>
       </c>
       <c r="AB12">
-        <v>0.6754823094544806</v>
+        <v>0.6754828167829995</v>
       </c>
     </row>
     <row r="13" spans="1:37">
@@ -1600,79 +1600,79 @@
         <v>47</v>
       </c>
       <c r="C13">
-        <v>102.8254154633746</v>
+        <v>102.8254041861246</v>
       </c>
       <c r="D13">
-        <v>1286.497233726971</v>
+        <v>1286.497244744747</v>
       </c>
       <c r="E13">
-        <v>443.9272284304219</v>
+        <v>443.9271098930445</v>
       </c>
       <c r="F13">
-        <v>1286.497283729471</v>
+        <v>1286.497294747247</v>
       </c>
       <c r="G13">
-        <v>683.2155559399258</v>
+        <v>683.2156987280641</v>
       </c>
       <c r="H13">
-        <v>0.6645882365575757</v>
+        <v>0.6645886559319919</v>
       </c>
       <c r="I13">
-        <v>3.016619788683445</v>
+        <v>3.016675737059699</v>
       </c>
       <c r="J13">
-        <v>0.2504116522473223</v>
+        <v>0.2504112113661003</v>
       </c>
       <c r="K13">
-        <v>1.329176473115151</v>
+        <v>1.329177311863984</v>
       </c>
       <c r="L13" t="s">
         <v>75</v>
       </c>
       <c r="M13">
-        <v>1389.322699192846</v>
+        <v>1389.322698933372</v>
       </c>
       <c r="N13">
-        <v>680.2681554922744</v>
+        <v>680.2673311122459</v>
       </c>
       <c r="O13">
-        <v>1389.322699192846</v>
+        <v>1389.322698933372</v>
       </c>
       <c r="P13">
-        <v>972.8387062286057</v>
+        <v>972.8354119470036</v>
       </c>
       <c r="Q13">
-        <v>0.6177822662698913</v>
+        <v>0.6177835164007971</v>
       </c>
       <c r="S13">
-        <v>3.030997887880419</v>
+        <v>3.030998345731823</v>
       </c>
       <c r="T13">
-        <v>0.2491771325756686</v>
+        <v>0.2491651550700712</v>
       </c>
       <c r="U13">
-        <v>1.235564532539783</v>
+        <v>1.235567032801594</v>
       </c>
       <c r="V13" t="s">
         <v>75</v>
       </c>
       <c r="W13">
-        <v>1266.261735297152</v>
+        <v>1266.261735352703</v>
       </c>
       <c r="X13">
-        <v>67.31814546760738</v>
+        <v>67.31824132987266</v>
       </c>
       <c r="Y13">
-        <v>0.7218810099397397</v>
+        <v>0.7218802878328058</v>
       </c>
       <c r="Z13">
-        <v>1410.525042872334</v>
+        <v>1410.525043252837</v>
       </c>
       <c r="AA13">
-        <v>73.93549731526726</v>
+        <v>73.93658411719512</v>
       </c>
       <c r="AB13">
-        <v>0.6230963650928625</v>
+        <v>0.6231021790078429</v>
       </c>
     </row>
     <row r="14" spans="1:37">
@@ -1683,79 +1683,79 @@
         <v>48</v>
       </c>
       <c r="C14">
-        <v>102.8837263946893</v>
+        <v>102.8837235288479</v>
       </c>
       <c r="D14">
-        <v>1286.21214867222</v>
+        <v>1286.212148933776</v>
       </c>
       <c r="E14">
-        <v>667.1551170247636</v>
+        <v>667.1551568403938</v>
       </c>
       <c r="F14">
-        <v>1286.21219867472</v>
+        <v>1286.212198936276</v>
       </c>
       <c r="G14">
-        <v>1093.247869384328</v>
+        <v>1093.248150095291</v>
       </c>
       <c r="H14">
-        <v>0.6740131527747047</v>
+        <v>0.6740130846893216</v>
       </c>
       <c r="I14">
-        <v>2.503997378078163</v>
+        <v>2.503970549106446</v>
       </c>
       <c r="J14">
-        <v>0.385900277100594</v>
+        <v>0.385901026225672</v>
       </c>
       <c r="K14">
-        <v>1.348026305549409</v>
+        <v>1.348026169378643</v>
       </c>
       <c r="L14" t="s">
         <v>75</v>
       </c>
       <c r="M14">
-        <v>1389.09597507191</v>
+        <v>1389.095972467624</v>
       </c>
       <c r="N14">
-        <v>1051.969678334737</v>
+        <v>1051.969825840657</v>
       </c>
       <c r="O14">
-        <v>1389.09592506941</v>
+        <v>1389.095922465124</v>
       </c>
       <c r="P14">
-        <v>1587.503911730585</v>
+        <v>1587.504245610538</v>
       </c>
       <c r="Q14">
-        <v>0.6297802652464155</v>
+        <v>0.629780091303932</v>
       </c>
       <c r="S14">
-        <v>2.701517514991548</v>
+        <v>2.701481657787221</v>
       </c>
       <c r="T14">
-        <v>0.3460828010139901</v>
+        <v>0.3460837330363492</v>
       </c>
       <c r="U14">
-        <v>1.259560530492831</v>
+        <v>1.259560182607864</v>
       </c>
       <c r="V14" t="s">
         <v>75</v>
       </c>
       <c r="W14">
-        <v>1266.00303542923</v>
+        <v>1266.003000251626</v>
       </c>
       <c r="X14">
-        <v>95.59364722020476</v>
+        <v>95.58877918720688</v>
       </c>
       <c r="Y14">
-        <v>0.8058381634104416</v>
+        <v>0.805954603722835</v>
       </c>
       <c r="Z14">
-        <v>1410.374815916078</v>
+        <v>1410.374817400936</v>
       </c>
       <c r="AA14">
-        <v>123.7572193040794</v>
+        <v>123.7539823156556</v>
       </c>
       <c r="AB14">
-        <v>0.7078154447886175</v>
+        <v>0.7078531416292786</v>
       </c>
     </row>
     <row r="15" spans="1:37">
@@ -1766,79 +1766,79 @@
         <v>49</v>
       </c>
       <c r="C15">
-        <v>102.8792768581175</v>
+        <v>102.8792768522746</v>
       </c>
       <c r="D15">
-        <v>1286.385102175479</v>
+        <v>1286.385102578389</v>
       </c>
       <c r="E15">
-        <v>695.4981094791141</v>
+        <v>695.4978355759808</v>
       </c>
       <c r="F15">
-        <v>1286.385152177979</v>
+        <v>1286.385152580889</v>
       </c>
       <c r="G15">
-        <v>1111.228527002927</v>
+        <v>1111.22833909462</v>
       </c>
       <c r="H15">
-        <v>0.6745455654391715</v>
+        <v>0.6745461247664841</v>
       </c>
       <c r="I15">
-        <v>3.4800737167713</v>
+        <v>3.480064368889782</v>
       </c>
       <c r="J15">
-        <v>0.3140711781848068</v>
+        <v>0.3140694714245899</v>
       </c>
       <c r="K15">
-        <v>1.349091130878343</v>
+        <v>1.349092249532968</v>
       </c>
       <c r="L15" t="s">
         <v>75</v>
       </c>
       <c r="M15">
-        <v>1389.264479038597</v>
+        <v>1389.264429433163</v>
       </c>
       <c r="N15">
-        <v>1082.490952242722</v>
+        <v>1082.490923672474</v>
       </c>
       <c r="O15">
-        <v>1389.264429036097</v>
+        <v>1389.264429433163</v>
       </c>
       <c r="P15">
-        <v>1592.913488867831</v>
+        <v>1592.913463956337</v>
       </c>
       <c r="Q15">
-        <v>0.6248979022520386</v>
+        <v>0.6248979398628001</v>
       </c>
       <c r="S15">
-        <v>4.170658944932719</v>
+        <v>4.170662969760933</v>
       </c>
       <c r="T15">
-        <v>0.2975973008035104</v>
+        <v>0.2975971619934803</v>
       </c>
       <c r="U15">
-        <v>1.249795804504077</v>
+        <v>1.2497958797256</v>
       </c>
       <c r="V15" t="s">
         <v>75</v>
       </c>
       <c r="W15">
-        <v>1266.162490668703</v>
+        <v>1266.162490450471</v>
       </c>
       <c r="X15">
-        <v>110.4463831742524</v>
+        <v>110.4444267749937</v>
       </c>
       <c r="Y15">
-        <v>0.8055080547490885</v>
+        <v>0.8055266646355386</v>
       </c>
       <c r="Z15">
-        <v>1410.54264734633</v>
+        <v>1410.542645840241</v>
       </c>
       <c r="AA15">
-        <v>123.928081854273</v>
+        <v>123.9285662412722</v>
       </c>
       <c r="AB15">
-        <v>0.6955577344784901</v>
+        <v>0.6955630069312687</v>
       </c>
     </row>
     <row r="16" spans="1:37">
@@ -1849,58 +1849,58 @@
         <v>50</v>
       </c>
       <c r="C16">
-        <v>103.2068088974647</v>
+        <v>103.2068099331432</v>
       </c>
       <c r="D16">
-        <v>1285.207333206182</v>
+        <v>1285.207324707705</v>
       </c>
       <c r="E16">
-        <v>40.96546882551799</v>
+        <v>40.96457471827495</v>
       </c>
       <c r="F16">
-        <v>1285.207333206182</v>
+        <v>1285.207324707705</v>
       </c>
       <c r="G16">
-        <v>113.3237251742463</v>
+        <v>113.3228993682596</v>
       </c>
       <c r="H16">
-        <v>0.9398631373887505</v>
+        <v>0.9399111899632019</v>
       </c>
       <c r="I16">
-        <v>1.393695866547371</v>
+        <v>1.393692146830395</v>
       </c>
       <c r="J16">
-        <v>0.8646112415584327</v>
+        <v>0.8645297597062459</v>
       </c>
       <c r="K16">
-        <v>1.879726274777501</v>
+        <v>1.879822379926404</v>
       </c>
       <c r="L16" t="s">
         <v>75</v>
       </c>
       <c r="M16">
-        <v>1388.414142103647</v>
+        <v>1388.414134640848</v>
       </c>
       <c r="N16">
-        <v>70.14253631426969</v>
+        <v>70.14306121343596</v>
       </c>
       <c r="O16">
-        <v>1388.414142103647</v>
+        <v>1388.414134640848</v>
       </c>
       <c r="P16">
-        <v>163.1207456007267</v>
+        <v>163.121549662743</v>
       </c>
       <c r="Q16">
-        <v>0.9312578844071974</v>
+        <v>0.9312431715822378</v>
       </c>
       <c r="S16">
-        <v>1.479037702707318</v>
+        <v>1.479037864204162</v>
       </c>
       <c r="T16">
-        <v>0.4534476692334495</v>
+        <v>0.4534826149762121</v>
       </c>
       <c r="U16">
-        <v>1.862515768814395</v>
+        <v>1.862486343164476</v>
       </c>
       <c r="V16" t="s">
         <v>75</v>
@@ -1914,79 +1914,79 @@
         <v>51</v>
       </c>
       <c r="C17">
-        <v>103.4177296957571</v>
+        <v>103.4177358269687</v>
       </c>
       <c r="D17">
-        <v>1284.884120693094</v>
+        <v>1284.884116247626</v>
       </c>
       <c r="E17">
-        <v>546.7853029842556</v>
+        <v>546.7850864906596</v>
       </c>
       <c r="F17">
-        <v>1284.884170695594</v>
+        <v>1284.884166250126</v>
       </c>
       <c r="G17">
-        <v>1548.317199048171</v>
+        <v>1548.315168357634</v>
       </c>
       <c r="H17">
-        <v>1.081176161204648</v>
+        <v>1.081176908148375</v>
       </c>
       <c r="I17">
-        <v>2.737616335946941</v>
+        <v>2.737637610571036</v>
       </c>
       <c r="J17">
-        <v>0.5815786924309293</v>
+        <v>0.5815748354791896</v>
       </c>
       <c r="K17">
-        <v>2.162352322409296</v>
+        <v>2.16235381629675</v>
       </c>
       <c r="L17" t="s">
         <v>75</v>
       </c>
       <c r="M17">
-        <v>1388.301950393851</v>
+        <v>1388.301952079595</v>
       </c>
       <c r="N17">
-        <v>1105.920631318029</v>
+        <v>1105.92061342358</v>
       </c>
       <c r="O17">
-        <v>1388.301900391351</v>
+        <v>1388.301902077095</v>
       </c>
       <c r="P17">
-        <v>2468.308696645893</v>
+        <v>2468.308717230456</v>
       </c>
       <c r="Q17">
-        <v>0.8464672661513467</v>
+        <v>0.8464672962362567</v>
       </c>
       <c r="S17">
-        <v>2.993390308845284</v>
+        <v>2.993371973096293</v>
       </c>
       <c r="T17">
-        <v>0.5978548898296867</v>
+        <v>0.597854862112163</v>
       </c>
       <c r="U17">
-        <v>1.692934532302693</v>
+        <v>1.692934592472513</v>
       </c>
       <c r="V17" t="s">
         <v>75</v>
       </c>
       <c r="W17">
-        <v>1264.795561990953</v>
+        <v>1264.795519564318</v>
       </c>
       <c r="X17">
-        <v>180.831660425189</v>
+        <v>180.8448113995997</v>
       </c>
       <c r="Y17">
-        <v>1.543085066370834</v>
+        <v>1.543275177073053</v>
       </c>
       <c r="Z17">
-        <v>1409.713989456894</v>
+        <v>1409.713989423239</v>
       </c>
       <c r="AA17">
-        <v>233.5385584329723</v>
+        <v>233.5385484292283</v>
       </c>
       <c r="AB17">
-        <v>1.179979155995477</v>
+        <v>1.179980236318136</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -1997,79 +1997,79 @@
         <v>52</v>
       </c>
       <c r="C18">
-        <v>103.4262766200752</v>
+        <v>103.4263137890487</v>
       </c>
       <c r="D18">
-        <v>1284.979678938513</v>
+        <v>1284.979641062243</v>
       </c>
       <c r="E18">
-        <v>2297.717676448373</v>
+        <v>2297.712954719944</v>
       </c>
       <c r="F18">
-        <v>1284.979728941013</v>
+        <v>1284.979691064743</v>
       </c>
       <c r="G18">
-        <v>6270.839677879015</v>
+        <v>6270.830608057526</v>
       </c>
       <c r="H18">
-        <v>1.035883915481607</v>
+        <v>1.035888601835432</v>
       </c>
       <c r="I18">
-        <v>6.716816830308018</v>
+        <v>6.716134383948738</v>
       </c>
       <c r="J18">
-        <v>0.5963661565279069</v>
+        <v>0.5963563598233619</v>
       </c>
       <c r="K18">
-        <v>2.071767830963213</v>
+        <v>2.071777203670864</v>
       </c>
       <c r="L18" t="s">
         <v>75</v>
       </c>
       <c r="M18">
-        <v>1388.406055563589</v>
+        <v>1388.406054856292</v>
       </c>
       <c r="N18">
-        <v>4440.067959746521</v>
+        <v>4440.068224575219</v>
       </c>
       <c r="O18">
-        <v>1388.406005561089</v>
+        <v>1388.406004853792</v>
       </c>
       <c r="P18">
-        <v>9840.210229185574</v>
+        <v>9840.210389509328</v>
       </c>
       <c r="Q18">
-        <v>0.8368572986046779</v>
+        <v>0.8368571950455088</v>
       </c>
       <c r="S18">
-        <v>9.093110680943541</v>
+        <v>9.093140722590674</v>
       </c>
       <c r="T18">
-        <v>0.6088734656908471</v>
+        <v>0.6088736661172743</v>
       </c>
       <c r="U18">
-        <v>1.673714597209356</v>
+        <v>1.673714390091018</v>
       </c>
       <c r="V18" t="s">
         <v>75</v>
       </c>
       <c r="W18">
-        <v>1264.828418560129</v>
+        <v>1264.828413024429</v>
       </c>
       <c r="X18">
-        <v>703.7949589878774</v>
+        <v>703.7973182950556</v>
       </c>
       <c r="Y18">
-        <v>1.521048375809261</v>
+        <v>1.521060674096819</v>
       </c>
       <c r="Z18">
-        <v>1409.785776053227</v>
+        <v>1409.78577603406</v>
       </c>
       <c r="AA18">
-        <v>1036.059562470629</v>
+        <v>1036.059570938648</v>
       </c>
       <c r="AB18">
-        <v>1.212981363472004</v>
+        <v>1.212981416472894</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2080,70 +2080,70 @@
         <v>53</v>
       </c>
       <c r="C19">
-        <v>102.7519547489835</v>
+        <v>102.7519535447236</v>
       </c>
       <c r="D19">
-        <v>1286.640249459552</v>
+        <v>1286.640251975105</v>
       </c>
       <c r="E19">
-        <v>751.1712012509067</v>
+        <v>751.1707591411327</v>
       </c>
       <c r="F19">
-        <v>1286.640299462052</v>
+        <v>1286.640301977605</v>
       </c>
       <c r="G19">
-        <v>1063.823909888745</v>
+        <v>1063.823346278426</v>
       </c>
       <c r="H19">
-        <v>0.6156391774485854</v>
+        <v>0.6156399326237527</v>
       </c>
       <c r="I19">
-        <v>3.068714848321926</v>
+        <v>3.068704173857702</v>
       </c>
       <c r="J19">
-        <v>0.2312955971150803</v>
+        <v>0.2312922433783399</v>
       </c>
       <c r="K19">
-        <v>1.231278354897171</v>
+        <v>1.231279865247505</v>
       </c>
       <c r="L19" t="s">
         <v>75</v>
       </c>
       <c r="M19">
-        <v>1389.392254211036</v>
+        <v>1389.392255522329</v>
       </c>
       <c r="N19">
-        <v>1181.135345770139</v>
+        <v>1181.134358091416</v>
       </c>
       <c r="O19">
-        <v>1389.392254211036</v>
+        <v>1389.392255522329</v>
       </c>
       <c r="P19">
-        <v>1584.770072863592</v>
+        <v>1584.768709363897</v>
       </c>
       <c r="Q19">
-        <v>0.5888374884484987</v>
+        <v>0.5888384440376585</v>
       </c>
       <c r="S19">
-        <v>4.710191755403165</v>
+        <v>4.710178239045852</v>
       </c>
       <c r="T19">
-        <v>0.2053689460488974</v>
+        <v>0.2053641970697782</v>
       </c>
       <c r="U19">
-        <v>1.177674976896997</v>
+        <v>1.177676888075317</v>
       </c>
       <c r="V19" t="s">
         <v>75</v>
       </c>
       <c r="W19">
-        <v>1266.296024564392</v>
+        <v>1266.296026264695</v>
       </c>
       <c r="X19">
-        <v>95.67198247718271</v>
+        <v>95.67197009425603</v>
       </c>
       <c r="Y19">
-        <v>0.6556322728385605</v>
+        <v>0.6556341106263451</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2154,79 +2154,79 @@
         <v>54</v>
       </c>
       <c r="C20">
-        <v>102.7539869089544</v>
+        <v>102.7540006133393</v>
       </c>
       <c r="D20">
         <v>1286.643904557229</v>
       </c>
       <c r="E20">
-        <v>643.4721001218878</v>
+        <v>643.4703690574919</v>
       </c>
       <c r="F20">
         <v>1286.643904557229</v>
       </c>
       <c r="G20">
-        <v>897.1698084955443</v>
+        <v>897.163044280091</v>
       </c>
       <c r="H20">
-        <v>0.6174518838380347</v>
+        <v>0.6174547684095326</v>
       </c>
       <c r="I20">
-        <v>2.615535897895797</v>
+        <v>2.61549491121884</v>
       </c>
       <c r="J20">
-        <v>0.1774472363328775</v>
+        <v>0.1774193882980452</v>
       </c>
       <c r="K20">
-        <v>1.234903767676069</v>
+        <v>1.234909536819065</v>
       </c>
       <c r="L20" t="s">
         <v>75</v>
       </c>
       <c r="M20">
-        <v>1389.397941468684</v>
+        <v>1389.397955173069</v>
       </c>
       <c r="N20">
-        <v>1010.468257874564</v>
+        <v>1010.466691748405</v>
       </c>
       <c r="O20">
-        <v>1389.397891466184</v>
+        <v>1389.397905170568</v>
       </c>
       <c r="P20">
-        <v>1344.804834741918</v>
+        <v>1344.802248626578</v>
       </c>
       <c r="Q20">
-        <v>0.5872270970014211</v>
+        <v>0.5872288184963677</v>
       </c>
       <c r="S20">
-        <v>2.289603282756384</v>
+        <v>2.289558245323061</v>
       </c>
       <c r="T20">
-        <v>0.1881628463112566</v>
+        <v>0.1881532121232854</v>
       </c>
       <c r="U20">
-        <v>1.174454194002842</v>
+        <v>1.174457636992735</v>
       </c>
       <c r="V20" t="s">
         <v>75</v>
       </c>
       <c r="W20">
-        <v>1266.358766311006</v>
+        <v>1266.358766403015</v>
       </c>
       <c r="X20">
-        <v>72.16305169514789</v>
+        <v>72.16311912889179</v>
       </c>
       <c r="Y20">
-        <v>0.6882911928230835</v>
+        <v>0.6882916974876415</v>
       </c>
       <c r="Z20">
-        <v>1410.614600478672</v>
+        <v>1410.61460419834</v>
       </c>
       <c r="AA20">
-        <v>123.6473170346436</v>
+        <v>123.6466725095817</v>
       </c>
       <c r="AB20">
-        <v>0.6115761268770387</v>
+        <v>0.611580416927006</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -2237,79 +2237,79 @@
         <v>55</v>
       </c>
       <c r="C21">
-        <v>102.7589496626842</v>
+        <v>102.7589471928943</v>
       </c>
       <c r="D21">
-        <v>1286.652523583595</v>
+        <v>1286.65252571241</v>
       </c>
       <c r="E21">
-        <v>515.9235368735787</v>
+        <v>515.9232006367403</v>
       </c>
       <c r="F21">
-        <v>1286.652573586095</v>
+        <v>1286.65257571491</v>
       </c>
       <c r="G21">
-        <v>705.2727051732163</v>
+        <v>705.2723201235701</v>
       </c>
       <c r="H21">
-        <v>0.6026770287970085</v>
+        <v>0.6026778425525467</v>
       </c>
       <c r="I21">
-        <v>2.165698167018896</v>
+        <v>2.165691735144414</v>
       </c>
       <c r="J21">
-        <v>0.1905499831669704</v>
+        <v>0.1905463598056509</v>
       </c>
       <c r="K21">
-        <v>1.205354057594017</v>
+        <v>1.205355685105093</v>
       </c>
       <c r="L21" t="s">
         <v>75</v>
       </c>
       <c r="M21">
-        <v>1389.41157325128</v>
+        <v>1389.411572910304</v>
       </c>
       <c r="N21">
-        <v>791.0423471121459</v>
+        <v>791.0422466251488</v>
       </c>
       <c r="O21">
-        <v>1389.41152324878</v>
+        <v>1389.411522907804</v>
       </c>
       <c r="P21">
-        <v>1043.674269782279</v>
+        <v>1043.67414729164</v>
       </c>
       <c r="Q21">
-        <v>0.5878641799978014</v>
+        <v>0.5878643270596706</v>
       </c>
       <c r="S21">
-        <v>2.121381707262755</v>
+        <v>2.121381147069133</v>
       </c>
       <c r="T21">
-        <v>0.1595378367287257</v>
+        <v>0.1595371270167866</v>
       </c>
       <c r="U21">
-        <v>1.175728359995603</v>
+        <v>1.175728654119341</v>
       </c>
       <c r="V21" t="s">
         <v>75</v>
       </c>
       <c r="W21">
-        <v>1266.369864364148</v>
+        <v>1266.369864383345</v>
       </c>
       <c r="X21">
-        <v>54.75060828187376</v>
+        <v>54.75063607489577</v>
       </c>
       <c r="Y21">
-        <v>0.6502839606538815</v>
+        <v>0.6502838785452981</v>
       </c>
       <c r="Z21">
-        <v>1410.642532368473</v>
+        <v>1410.642531606632</v>
       </c>
       <c r="AA21">
-        <v>93.68600745444576</v>
+        <v>93.68572877520526</v>
       </c>
       <c r="AB21">
-        <v>0.5910532892351286</v>
+        <v>0.5910552101859203</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -2320,79 +2320,79 @@
         <v>56</v>
       </c>
       <c r="C22">
-        <v>102.7471549958348</v>
+        <v>102.7471533361427</v>
       </c>
       <c r="D22">
-        <v>1286.664009674761</v>
+        <v>1286.664011426977</v>
       </c>
       <c r="E22">
-        <v>370.5210662250418</v>
+        <v>370.5187160540588</v>
       </c>
       <c r="F22">
-        <v>1286.664009674761</v>
+        <v>1286.664011426977</v>
       </c>
       <c r="G22">
-        <v>494.9973435024224</v>
+        <v>494.9874090517463</v>
       </c>
       <c r="H22">
-        <v>0.6104305606396574</v>
+        <v>0.6104373446200457</v>
       </c>
       <c r="I22">
-        <v>2.00290333963851</v>
+        <v>2.002857911528912</v>
       </c>
       <c r="J22">
-        <v>0.08448772160913709</v>
+        <v>0.08441275654103436</v>
       </c>
       <c r="K22">
-        <v>1.220861121279315</v>
+        <v>1.220874689240091</v>
       </c>
       <c r="L22" t="s">
         <v>75</v>
       </c>
       <c r="M22">
-        <v>1389.411214673096</v>
+        <v>1389.41121476562</v>
       </c>
       <c r="N22">
-        <v>578.0382266876351</v>
+        <v>578.038282337921</v>
       </c>
       <c r="O22">
-        <v>1389.411164670596</v>
+        <v>1389.41116476312</v>
       </c>
       <c r="P22">
-        <v>758.3829482030379</v>
+        <v>758.3829953346878</v>
       </c>
       <c r="Q22">
-        <v>0.5826426402205878</v>
+        <v>0.5826425272756157</v>
       </c>
       <c r="S22">
-        <v>2.125189050854129</v>
+        <v>2.1251852009083</v>
       </c>
       <c r="T22">
-        <v>0.1692828774520459</v>
+        <v>0.1692833590284398</v>
       </c>
       <c r="U22">
-        <v>1.165285280441176</v>
+        <v>1.165285054551231</v>
       </c>
       <c r="V22" t="s">
         <v>75</v>
       </c>
       <c r="W22">
-        <v>1266.349924728095</v>
+        <v>1266.349924456122</v>
       </c>
       <c r="X22">
-        <v>33.24020243481209</v>
+        <v>33.24029808316414</v>
       </c>
       <c r="Y22">
-        <v>0.5821967458371813</v>
+        <v>0.5821976282023593</v>
       </c>
       <c r="Z22">
-        <v>1410.638414438197</v>
+        <v>1410.638434309666</v>
       </c>
       <c r="AA22">
-        <v>67.70436122787888</v>
+        <v>67.70561412244538</v>
       </c>
       <c r="AB22">
-        <v>0.5954861680194304</v>
+        <v>0.595470906098191</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2403,58 +2403,58 @@
         <v>57</v>
       </c>
       <c r="C23">
-        <v>102.7259527783895</v>
+        <v>102.7259512377518</v>
       </c>
       <c r="D23">
-        <v>1286.691103044615</v>
+        <v>1286.691104073706</v>
       </c>
       <c r="E23">
-        <v>259.4842842733445</v>
+        <v>259.4844014352994</v>
       </c>
       <c r="F23">
-        <v>1286.691103044615</v>
+        <v>1286.691104073706</v>
       </c>
       <c r="G23">
-        <v>351.666984018784</v>
+        <v>351.6671824057291</v>
       </c>
       <c r="H23">
-        <v>0.5973628446102073</v>
+        <v>0.5973623521227008</v>
       </c>
       <c r="I23">
-        <v>2.297960270231521</v>
+        <v>2.297964301701753</v>
       </c>
       <c r="J23">
-        <v>0.1914260206853494</v>
+        <v>0.1914287388645612</v>
       </c>
       <c r="K23">
-        <v>1.194725689220415</v>
+        <v>1.194724704245402</v>
       </c>
       <c r="L23" t="s">
         <v>75</v>
       </c>
       <c r="M23">
-        <v>1389.417055823004</v>
+        <v>1389.417055311458</v>
       </c>
       <c r="N23">
-        <v>403.8490535494657</v>
+        <v>403.8490878016088</v>
       </c>
       <c r="O23">
-        <v>1389.417055823004</v>
+        <v>1389.417055311458</v>
       </c>
       <c r="P23">
-        <v>522.7376798395259</v>
+        <v>522.7377481317022</v>
       </c>
       <c r="Q23">
-        <v>0.5793565847892417</v>
+        <v>0.579356494893243</v>
       </c>
       <c r="S23">
-        <v>2.411084531485796</v>
+        <v>2.41108497420294</v>
       </c>
       <c r="T23">
-        <v>0.1471760646873876</v>
+        <v>0.1471766533471078</v>
       </c>
       <c r="U23">
-        <v>1.158713169578483</v>
+        <v>1.158712989786486</v>
       </c>
       <c r="V23" t="s">
         <v>75</v>
@@ -2468,79 +2468,79 @@
         <v>58</v>
       </c>
       <c r="C24">
-        <v>102.7262849743549</v>
+        <v>102.7262848697721</v>
       </c>
       <c r="D24">
         <v>1286.691036768748</v>
       </c>
       <c r="E24">
-        <v>254.5817757240008</v>
+        <v>254.5757492929226</v>
       </c>
       <c r="F24">
         <v>1286.691036768748</v>
       </c>
       <c r="G24">
-        <v>330.2502297000115</v>
+        <v>330.2235317377406</v>
       </c>
       <c r="H24">
-        <v>0.606244907272107</v>
+        <v>0.6062707188820282</v>
       </c>
       <c r="I24">
-        <v>2.253946828037554</v>
+        <v>2.253770408669546</v>
       </c>
       <c r="J24">
-        <v>0.01571478349868555</v>
+        <v>0.01540688524507527</v>
       </c>
       <c r="K24">
-        <v>1.212489814544214</v>
+        <v>1.212541437764056</v>
       </c>
       <c r="L24" t="s">
         <v>75</v>
       </c>
       <c r="M24">
-        <v>1389.417321743103</v>
+        <v>1389.41732163852</v>
       </c>
       <c r="N24">
-        <v>402.0599120909443</v>
+        <v>402.0598689786789</v>
       </c>
       <c r="O24">
-        <v>1389.417321743103</v>
+        <v>1389.41732163852</v>
       </c>
       <c r="P24">
-        <v>515.6746703367132</v>
+        <v>515.674605154957</v>
       </c>
       <c r="Q24">
-        <v>0.581315661316212</v>
+        <v>0.5813157820434314</v>
       </c>
       <c r="S24">
-        <v>1.920415220420139</v>
+        <v>1.920414812466291</v>
       </c>
       <c r="T24">
-        <v>0.1088439342970421</v>
+        <v>0.1088432552214134</v>
       </c>
       <c r="U24">
-        <v>1.162631322632424</v>
+        <v>1.162631564086863</v>
       </c>
       <c r="V24" t="s">
         <v>75</v>
       </c>
       <c r="W24">
-        <v>1266.361556631636</v>
+        <v>1266.361556573201</v>
       </c>
       <c r="X24">
-        <v>27.45907334799979</v>
+        <v>27.45924289485018</v>
       </c>
       <c r="Y24">
-        <v>0.6474500454387444</v>
+        <v>0.6474524143067963</v>
       </c>
       <c r="Z24">
-        <v>1410.682797188216</v>
+        <v>1410.682797182803</v>
       </c>
       <c r="AA24">
-        <v>47.11542503403953</v>
+        <v>47.11542542334965</v>
       </c>
       <c r="AB24">
-        <v>0.5891155892062048</v>
+        <v>0.5891155935033024</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2551,58 +2551,58 @@
         <v>59</v>
       </c>
       <c r="C25">
-        <v>102.7406819330581</v>
+        <v>102.7406839732384</v>
       </c>
       <c r="D25">
-        <v>1286.696299402276</v>
+        <v>1286.69629998768</v>
       </c>
       <c r="E25">
-        <v>185.2176379247869</v>
+        <v>185.2176880018679</v>
       </c>
       <c r="F25">
-        <v>1286.696299402276</v>
+        <v>1286.69629998768</v>
       </c>
       <c r="G25">
-        <v>259.4350214658248</v>
+        <v>259.4351030869899</v>
       </c>
       <c r="H25">
-        <v>0.6007423344932654</v>
+        <v>0.6007420229394617</v>
       </c>
       <c r="I25">
-        <v>2.509022596714813</v>
+        <v>2.509022640181477</v>
       </c>
       <c r="J25">
-        <v>0.2681352078343062</v>
+        <v>0.2681367967533614</v>
       </c>
       <c r="K25">
-        <v>1.201484668986531</v>
+        <v>1.201484045878923</v>
       </c>
       <c r="L25" t="s">
         <v>75</v>
       </c>
       <c r="M25">
-        <v>1389.436981335334</v>
+        <v>1389.436983960918</v>
       </c>
       <c r="N25">
-        <v>291.5908389496166</v>
+        <v>291.5909922913244</v>
       </c>
       <c r="O25">
-        <v>1389.436981335334</v>
+        <v>1389.436983960918</v>
       </c>
       <c r="P25">
-        <v>384.8847588651357</v>
+        <v>384.8850388897326</v>
       </c>
       <c r="Q25">
-        <v>0.5797241407796998</v>
+        <v>0.5797235497403017</v>
       </c>
       <c r="S25">
-        <v>2.577522578094699</v>
+        <v>2.577525624517811</v>
       </c>
       <c r="T25">
-        <v>0.2013912849867782</v>
+        <v>0.2013948149723581</v>
       </c>
       <c r="U25">
-        <v>1.1594482815594</v>
+        <v>1.159447099480603</v>
       </c>
       <c r="V25" t="s">
         <v>75</v>
@@ -2616,79 +2616,79 @@
         <v>60</v>
       </c>
       <c r="C26">
-        <v>102.740276408028</v>
+        <v>102.7402778513824</v>
       </c>
       <c r="D26">
-        <v>1286.697280208701</v>
+        <v>1286.697274173467</v>
       </c>
       <c r="E26">
-        <v>179.7542214272628</v>
+        <v>179.7540794196114</v>
       </c>
       <c r="F26">
-        <v>1286.697280208701</v>
+        <v>1286.697274173467</v>
       </c>
       <c r="G26">
-        <v>235.0851424140647</v>
+        <v>235.0841867243988</v>
       </c>
       <c r="H26">
-        <v>0.6143015382961168</v>
+        <v>0.614302320334537</v>
       </c>
       <c r="I26">
-        <v>3.138013921946621</v>
+        <v>3.138007490468031</v>
       </c>
       <c r="J26">
-        <v>1.623818348944761E-05</v>
+        <v>2.127805063312227E-06</v>
       </c>
       <c r="K26">
-        <v>1.228603076592234</v>
+        <v>1.228604640669074</v>
       </c>
       <c r="L26" t="s">
         <v>75</v>
       </c>
       <c r="M26">
-        <v>1389.437556616729</v>
+        <v>1389.437552024849</v>
       </c>
       <c r="N26">
-        <v>289.4268158140032</v>
+        <v>289.4262322154909</v>
       </c>
       <c r="O26">
-        <v>1389.437556616729</v>
+        <v>1389.437552024849</v>
       </c>
       <c r="P26">
-        <v>375.4225954333854</v>
+        <v>375.4201731519564</v>
       </c>
       <c r="Q26">
-        <v>0.5832405692947725</v>
+        <v>0.5832425505893042</v>
       </c>
       <c r="S26">
-        <v>2.388125704627161</v>
+        <v>2.388112299835463</v>
       </c>
       <c r="T26">
-        <v>0.1326042991333223</v>
+        <v>0.1325810378107699</v>
       </c>
       <c r="U26">
-        <v>1.166481138589545</v>
+        <v>1.166485101178608</v>
       </c>
       <c r="V26" t="s">
         <v>75</v>
       </c>
       <c r="W26">
-        <v>1266.35425601918</v>
+        <v>1266.354323541357</v>
       </c>
       <c r="X26">
-        <v>15.73253090509425</v>
+        <v>15.73268874711433</v>
       </c>
       <c r="Y26">
-        <v>0.4902694768720508</v>
+        <v>0.4902759742056056</v>
       </c>
       <c r="Z26">
-        <v>1410.66256558848</v>
+        <v>1410.662565520595</v>
       </c>
       <c r="AA26">
-        <v>27.73679130366358</v>
+        <v>27.73680093993475</v>
       </c>
       <c r="AB26">
-        <v>0.5231155121398733</v>
+        <v>0.5231156898000645</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -2699,58 +2699,58 @@
         <v>61</v>
       </c>
       <c r="C27">
-        <v>102.7366238419224</v>
+        <v>102.7366562272668</v>
       </c>
       <c r="D27">
-        <v>1286.687148262489</v>
+        <v>1286.687115345803</v>
       </c>
       <c r="E27">
-        <v>254.3428406815216</v>
+        <v>254.347546726625</v>
       </c>
       <c r="F27">
-        <v>1286.687148262489</v>
+        <v>1286.687115345803</v>
       </c>
       <c r="G27">
-        <v>347.3038390270223</v>
+        <v>347.3112112425646</v>
       </c>
       <c r="H27">
-        <v>0.579053487666078</v>
+        <v>0.5790325729157231</v>
       </c>
       <c r="I27">
-        <v>3.115322614542273</v>
+        <v>3.115344214079568</v>
       </c>
       <c r="J27">
-        <v>0.3019932788242776</v>
+        <v>0.3021015849354557</v>
       </c>
       <c r="K27">
-        <v>1.158106975332156</v>
+        <v>1.158065145831446</v>
       </c>
       <c r="L27" t="s">
         <v>75</v>
       </c>
       <c r="M27">
-        <v>1389.423772104412</v>
+        <v>1389.42377157307</v>
       </c>
       <c r="N27">
-        <v>387.2679227699637</v>
+        <v>387.2681606135197</v>
       </c>
       <c r="O27">
-        <v>1389.423772104412</v>
+        <v>1389.42377157307</v>
       </c>
       <c r="P27">
-        <v>499.6360382708007</v>
+        <v>499.6363415002388</v>
       </c>
       <c r="Q27">
-        <v>0.5833825274731443</v>
+        <v>0.5833818504256598</v>
       </c>
       <c r="S27">
-        <v>2.997262089017076</v>
+        <v>2.997264187406689</v>
       </c>
       <c r="T27">
-        <v>0.1164581793622932</v>
+        <v>0.1164616093185951</v>
       </c>
       <c r="U27">
-        <v>1.166765054946289</v>
+        <v>1.16676370085132</v>
       </c>
       <c r="V27" t="s">
         <v>75</v>
@@ -2764,79 +2764,79 @@
         <v>62</v>
       </c>
       <c r="C28">
-        <v>102.7344330216745</v>
+        <v>102.7344472376396</v>
       </c>
       <c r="D28">
-        <v>1286.689639274296</v>
+        <v>1286.689630129748</v>
       </c>
       <c r="E28">
-        <v>244.9656159186697</v>
+        <v>244.964996901324</v>
       </c>
       <c r="F28">
-        <v>1286.689639274296</v>
+        <v>1286.689630129748</v>
       </c>
       <c r="G28">
-        <v>309.6725641380852</v>
+        <v>309.6688724444542</v>
       </c>
       <c r="H28">
-        <v>0.593783774923293</v>
+        <v>0.5937861346133859</v>
       </c>
       <c r="I28">
-        <v>3.747526138107466</v>
+        <v>3.747513848693716</v>
       </c>
       <c r="J28">
-        <v>5.047459952400857E-05</v>
+        <v>9.002001134128523E-06</v>
       </c>
       <c r="K28">
-        <v>1.187567549846586</v>
+        <v>1.187572269226772</v>
       </c>
       <c r="L28" t="s">
         <v>75</v>
       </c>
       <c r="M28">
-        <v>1389.42412229847</v>
+        <v>1389.424077367387</v>
       </c>
       <c r="N28">
-        <v>384.6892889928871</v>
+        <v>384.6847166583779</v>
       </c>
       <c r="O28">
-        <v>1389.42407229597</v>
+        <v>1389.424077367387</v>
       </c>
       <c r="P28">
-        <v>488.6076370044171</v>
+        <v>488.5884431549035</v>
       </c>
       <c r="Q28">
-        <v>0.5863280571700812</v>
+        <v>0.5863401712302893</v>
       </c>
       <c r="S28">
-        <v>2.588672699472998</v>
+        <v>2.588588978375748</v>
       </c>
       <c r="T28">
-        <v>0.05344712098631155</v>
+        <v>0.05330059356599748</v>
       </c>
       <c r="U28">
-        <v>1.172656114340162</v>
+        <v>1.172680342460579</v>
       </c>
       <c r="V28" t="s">
         <v>75</v>
       </c>
       <c r="W28">
-        <v>1266.094857725931</v>
+        <v>1266.094857828863</v>
       </c>
       <c r="X28">
-        <v>18.83004430506328</v>
+        <v>18.83008677532348</v>
       </c>
       <c r="Y28">
-        <v>0.6940405575947902</v>
+        <v>0.6940410730061318</v>
       </c>
       <c r="Z28">
-        <v>1410.673869019136</v>
+        <v>1410.673868954506</v>
       </c>
       <c r="AA28">
-        <v>40.13689036829416</v>
+        <v>40.13697209979745</v>
       </c>
       <c r="AB28">
-        <v>0.5632519740578643</v>
+        <v>0.5632526331641895</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -2847,58 +2847,58 @@
         <v>63</v>
       </c>
       <c r="C29">
-        <v>102.7603084095458</v>
+        <v>102.7603127598745</v>
       </c>
       <c r="D29">
-        <v>1286.67518595655</v>
+        <v>1286.675185555382</v>
       </c>
       <c r="E29">
-        <v>223.7098439476711</v>
+        <v>223.7098083557053</v>
       </c>
       <c r="F29">
-        <v>1286.67518595655</v>
+        <v>1286.675185555382</v>
       </c>
       <c r="G29">
-        <v>293.2991031292635</v>
+        <v>293.2990275567923</v>
       </c>
       <c r="H29">
-        <v>0.6014432449751086</v>
+        <v>0.6014434095576109</v>
       </c>
       <c r="I29">
-        <v>3.205208179944595</v>
+        <v>3.205208026759609</v>
       </c>
       <c r="J29">
-        <v>0.09727554172153424</v>
+        <v>0.09727441672088849</v>
       </c>
       <c r="K29">
-        <v>1.202886489950217</v>
+        <v>1.202886819115222</v>
       </c>
       <c r="L29" t="s">
         <v>75</v>
       </c>
       <c r="M29">
-        <v>1389.435494366096</v>
+        <v>1389.435498315257</v>
       </c>
       <c r="N29">
-        <v>352.3205598967206</v>
+        <v>352.3204437008776</v>
       </c>
       <c r="O29">
-        <v>1389.435494366096</v>
+        <v>1389.435498315257</v>
       </c>
       <c r="P29">
-        <v>456.985670354223</v>
+        <v>456.9856043079415</v>
       </c>
       <c r="Q29">
-        <v>0.5796967354934039</v>
+        <v>0.5796971161832367</v>
       </c>
       <c r="S29">
-        <v>3.161226221523987</v>
+        <v>3.161224426817955</v>
       </c>
       <c r="T29">
-        <v>0.151094500176192</v>
+        <v>0.1510931100495483</v>
       </c>
       <c r="U29">
-        <v>1.159393470986808</v>
+        <v>1.159394232366473</v>
       </c>
       <c r="V29" t="s">
         <v>75</v>
@@ -2912,79 +2912,79 @@
         <v>64</v>
       </c>
       <c r="C30">
-        <v>102.760788558561</v>
+        <v>102.7607913420632</v>
       </c>
       <c r="D30">
-        <v>1286.675320712291</v>
+        <v>1286.675368588396</v>
       </c>
       <c r="E30">
-        <v>219.5954656999658</v>
+        <v>219.4757606636685</v>
       </c>
       <c r="F30">
-        <v>1286.675370714791</v>
+        <v>1286.675368588396</v>
       </c>
       <c r="G30">
-        <v>283.0292159326088</v>
+        <v>282.4863225613788</v>
       </c>
       <c r="H30">
-        <v>0.6036477869156609</v>
+        <v>0.6042300686127148</v>
       </c>
       <c r="I30">
-        <v>2.948990584458398</v>
+        <v>2.948837224164839</v>
       </c>
       <c r="J30">
-        <v>0.009002398428168579</v>
+        <v>0.001759058414274484</v>
       </c>
       <c r="K30">
-        <v>1.207295573831322</v>
+        <v>1.20846013722543</v>
       </c>
       <c r="L30" t="s">
         <v>75</v>
       </c>
       <c r="M30">
-        <v>1389.436159273352</v>
+        <v>1389.43615993046</v>
       </c>
       <c r="N30">
-        <v>347.8915503404345</v>
+        <v>347.8869357802482</v>
       </c>
       <c r="O30">
-        <v>1389.436159273352</v>
+        <v>1389.43615993046</v>
       </c>
       <c r="P30">
-        <v>437.7522854242722</v>
+        <v>437.7317952475836</v>
       </c>
       <c r="Q30">
-        <v>0.5849101268963841</v>
+        <v>0.5849238343457048</v>
       </c>
       <c r="S30">
-        <v>2.908520013610325</v>
+        <v>2.908546863769949</v>
       </c>
       <c r="T30">
-        <v>0.03221380806714347</v>
+        <v>0.0320388707902341</v>
       </c>
       <c r="U30">
-        <v>1.169820253792768</v>
+        <v>1.16984766869141</v>
       </c>
       <c r="V30" t="s">
         <v>75</v>
       </c>
       <c r="W30">
-        <v>1266.533725801777</v>
+        <v>1266.533832897406</v>
       </c>
       <c r="X30">
-        <v>17.07491638109117</v>
+        <v>17.07527918433357</v>
       </c>
       <c r="Y30">
-        <v>0.3741289298447878</v>
+        <v>0.3739593144290449</v>
       </c>
       <c r="Z30">
-        <v>1410.54617059619</v>
+        <v>1410.546170633783</v>
       </c>
       <c r="AA30">
-        <v>35.32930386984697</v>
+        <v>35.32940379969832</v>
       </c>
       <c r="AB30">
-        <v>0.4978462865896865</v>
+        <v>0.4978470579897863</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -2995,58 +2995,58 @@
         <v>65</v>
       </c>
       <c r="C31">
-        <v>102.7587316640256</v>
+        <v>102.7587429630278</v>
       </c>
       <c r="D31">
-        <v>1286.683805716073</v>
+        <v>1286.683799000203</v>
       </c>
       <c r="E31">
-        <v>190.1163115133039</v>
+        <v>190.1164972268138</v>
       </c>
       <c r="F31">
-        <v>1286.683805716073</v>
+        <v>1286.683799000203</v>
       </c>
       <c r="G31">
-        <v>270.5239175946973</v>
+        <v>270.5240671338609</v>
       </c>
       <c r="H31">
-        <v>0.6081708525655138</v>
+        <v>0.6081696431509349</v>
       </c>
       <c r="I31">
-        <v>2.532876468945307</v>
+        <v>2.53287743864516</v>
       </c>
       <c r="J31">
-        <v>0.2806463553587518</v>
+        <v>0.2806507560001087</v>
       </c>
       <c r="K31">
-        <v>1.216341705131028</v>
+        <v>1.21633928630187</v>
       </c>
       <c r="L31" t="s">
         <v>75</v>
       </c>
       <c r="M31">
-        <v>1389.442537380098</v>
+        <v>1389.442541963231</v>
       </c>
       <c r="N31">
-        <v>306.1420714643974</v>
+        <v>306.1422157167584</v>
       </c>
       <c r="O31">
-        <v>1389.442537380098</v>
+        <v>1389.442541963231</v>
       </c>
       <c r="P31">
-        <v>391.5477491226392</v>
+        <v>391.5479281873145</v>
       </c>
       <c r="Q31">
-        <v>0.5789752754344444</v>
+        <v>0.5789747592744617</v>
       </c>
       <c r="S31">
-        <v>3.305151460594516</v>
+        <v>3.305150753547382</v>
       </c>
       <c r="T31">
-        <v>0.1130706245545068</v>
+        <v>0.1130732337305623</v>
       </c>
       <c r="U31">
-        <v>1.157950550868889</v>
+        <v>1.157949518548923</v>
       </c>
       <c r="V31" t="s">
         <v>75</v>
@@ -3060,70 +3060,70 @@
         <v>66</v>
       </c>
       <c r="C32">
-        <v>102.759378631742</v>
+        <v>102.7593919325075</v>
       </c>
       <c r="D32">
-        <v>1286.683821266551</v>
+        <v>1286.683807838049</v>
       </c>
       <c r="E32">
-        <v>183.434307261406</v>
+        <v>183.4343683988935</v>
       </c>
       <c r="F32">
-        <v>1286.683821266551</v>
+        <v>1286.683807838049</v>
       </c>
       <c r="G32">
-        <v>239.8639920711001</v>
+        <v>239.8637327835566</v>
       </c>
       <c r="H32">
-        <v>0.6142170570675107</v>
+        <v>0.6142165843307549</v>
       </c>
       <c r="I32">
-        <v>3.215823634098109</v>
+        <v>3.215831333924672</v>
       </c>
       <c r="J32">
-        <v>2.948876107689014E-06</v>
+        <v>9.490767582942539E-07</v>
       </c>
       <c r="K32">
-        <v>1.228434114135021</v>
+        <v>1.22843316866151</v>
       </c>
       <c r="L32" t="s">
         <v>75</v>
       </c>
       <c r="M32">
-        <v>1389.443199898293</v>
+        <v>1389.443199770557</v>
       </c>
       <c r="N32">
-        <v>302.0056941339688</v>
+        <v>302.0058421576257</v>
       </c>
       <c r="O32">
-        <v>1389.443199898293</v>
+        <v>1389.443199770557</v>
       </c>
       <c r="P32">
-        <v>375.3382834883801</v>
+        <v>375.3383229589052</v>
       </c>
       <c r="Q32">
-        <v>0.5829446293538488</v>
+        <v>0.5829445006894172</v>
       </c>
       <c r="S32">
-        <v>3.463255012516905</v>
+        <v>3.463254647803566</v>
       </c>
       <c r="T32">
-        <v>5.098845621831494E-07</v>
+        <v>1.320669129611929E-10</v>
       </c>
       <c r="U32">
-        <v>1.165889258707698</v>
+        <v>1.165889001378834</v>
       </c>
       <c r="V32" t="s">
         <v>75</v>
       </c>
       <c r="W32">
-        <v>1266.376654605925</v>
+        <v>1266.376653240564</v>
       </c>
       <c r="X32">
-        <v>18.428648419868</v>
+        <v>18.42875130572491</v>
       </c>
       <c r="Y32">
-        <v>0.5585635589113647</v>
+        <v>0.5585666162748851</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -3134,58 +3134,58 @@
         <v>67</v>
       </c>
       <c r="C33">
-        <v>102.7277462526908</v>
+        <v>102.7277604475257</v>
       </c>
       <c r="D33">
-        <v>1286.707530712014</v>
+        <v>1286.707532331757</v>
       </c>
       <c r="E33">
-        <v>159.8271195719855</v>
+        <v>159.82720525383</v>
       </c>
       <c r="F33">
-        <v>1286.707530712014</v>
+        <v>1286.707532331757</v>
       </c>
       <c r="G33">
-        <v>222.7454773158687</v>
+        <v>222.7456447916861</v>
       </c>
       <c r="H33">
-        <v>0.6300271516464419</v>
+        <v>0.6300264989344819</v>
       </c>
       <c r="I33">
-        <v>2.620204016715137</v>
+        <v>2.620205662951519</v>
       </c>
       <c r="J33">
-        <v>0.1149653195602952</v>
+        <v>0.1149690428258446</v>
       </c>
       <c r="K33">
-        <v>1.260054303292884</v>
+        <v>1.260052997868964</v>
       </c>
       <c r="L33" t="s">
         <v>75</v>
       </c>
       <c r="M33">
-        <v>1389.435276964704</v>
+        <v>1389.435292779283</v>
       </c>
       <c r="N33">
-        <v>266.7658443637341</v>
+        <v>266.7651109346377</v>
       </c>
       <c r="O33">
-        <v>1389.435276964704</v>
+        <v>1389.435292779283</v>
       </c>
       <c r="P33">
-        <v>332.7705591660604</v>
+        <v>332.7691971341546</v>
       </c>
       <c r="Q33">
-        <v>0.569904042598829</v>
+        <v>0.5699069076246122</v>
       </c>
       <c r="S33">
-        <v>2.776481904451632</v>
+        <v>2.776475627691496</v>
       </c>
       <c r="T33">
-        <v>0.08453819277805619</v>
+        <v>0.08451904791911607</v>
       </c>
       <c r="U33">
-        <v>1.139808085197658</v>
+        <v>1.139813815249224</v>
       </c>
       <c r="V33" t="s">
         <v>75</v>
@@ -3199,70 +3199,70 @@
         <v>68</v>
       </c>
       <c r="C34">
-        <v>102.7277284994282</v>
+        <v>102.7277322585248</v>
       </c>
       <c r="D34">
-        <v>1286.707652537856</v>
+        <v>1286.707651044004</v>
       </c>
       <c r="E34">
-        <v>156.0746938684411</v>
+        <v>156.0745667829117</v>
       </c>
       <c r="F34">
-        <v>1286.707652537856</v>
+        <v>1286.707651044004</v>
       </c>
       <c r="G34">
-        <v>208.5873413253267</v>
+        <v>208.5879769477324</v>
       </c>
       <c r="H34">
-        <v>0.6245112392011267</v>
+        <v>0.624513625130941</v>
       </c>
       <c r="I34">
-        <v>3.075347883604775</v>
+        <v>3.07534438925607</v>
       </c>
       <c r="J34">
-        <v>2.863385084594938E-10</v>
+        <v>1.750595557403756E-09</v>
       </c>
       <c r="K34">
-        <v>1.249022478402253</v>
+        <v>1.249027250261882</v>
       </c>
       <c r="L34" t="s">
         <v>75</v>
       </c>
       <c r="M34">
-        <v>1389.435431039784</v>
+        <v>1389.435433305029</v>
       </c>
       <c r="N34">
-        <v>263.9659460085023</v>
+        <v>263.9659051950933</v>
       </c>
       <c r="O34">
-        <v>1389.435381037284</v>
+        <v>1389.435383302529</v>
       </c>
       <c r="P34">
-        <v>320.7282986118468</v>
+        <v>320.7283195916062</v>
       </c>
       <c r="Q34">
-        <v>0.5707345935583775</v>
+        <v>0.5707347358666286</v>
       </c>
       <c r="S34">
-        <v>2.917979134012724</v>
+        <v>2.918006636003391</v>
       </c>
       <c r="T34">
-        <v>3.700268580431043E-08</v>
+        <v>1.833679919016618E-08</v>
       </c>
       <c r="U34">
-        <v>1.141469187116755</v>
+        <v>1.141469471733257</v>
       </c>
       <c r="V34" t="s">
         <v>75</v>
       </c>
       <c r="Z34">
-        <v>1410.641591417197</v>
+        <v>1410.641652374549</v>
       </c>
       <c r="AA34">
-        <v>24.90065763910691</v>
+        <v>24.89402402550979</v>
       </c>
       <c r="AB34">
-        <v>0.2425400039884434</v>
+        <v>0.2429552162664346</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -3273,58 +3273,58 @@
         <v>69</v>
       </c>
       <c r="C35">
-        <v>102.7279618714883</v>
+        <v>102.7279620308318</v>
       </c>
       <c r="D35">
-        <v>1286.714472017189</v>
+        <v>1286.714472168951</v>
       </c>
       <c r="E35">
-        <v>133.0424339732548</v>
+        <v>133.0435485643278</v>
       </c>
       <c r="F35">
-        <v>1286.714472017189</v>
+        <v>1286.714472168951</v>
       </c>
       <c r="G35">
-        <v>177.1361038788572</v>
+        <v>177.1385648522574</v>
       </c>
       <c r="H35">
-        <v>0.6281168570581369</v>
+        <v>0.6281202069102793</v>
       </c>
       <c r="I35">
-        <v>2.591408326956898</v>
+        <v>2.591403153468113</v>
       </c>
       <c r="J35">
-        <v>1.053528864147779E-07</v>
+        <v>1.490522816283146E-09</v>
       </c>
       <c r="K35">
-        <v>1.256233714116274</v>
+        <v>1.256240413820559</v>
       </c>
       <c r="L35" t="s">
         <v>75</v>
       </c>
       <c r="M35">
-        <v>1389.442433888678</v>
+        <v>1389.442434199783</v>
       </c>
       <c r="N35">
-        <v>239.2275843295054</v>
+        <v>239.2275716810329</v>
       </c>
       <c r="O35">
-        <v>1389.442433888678</v>
+        <v>1389.442434199783</v>
       </c>
       <c r="P35">
-        <v>302.9373449077883</v>
+        <v>302.9373307331132</v>
       </c>
       <c r="Q35">
-        <v>0.5076565555970747</v>
+        <v>0.507656595983717</v>
       </c>
       <c r="S35">
-        <v>2.563203897996335</v>
+        <v>2.563203388381588</v>
       </c>
       <c r="T35">
-        <v>0.4525761798706721</v>
+        <v>0.4525759880749643</v>
       </c>
       <c r="U35">
-        <v>1.015313111194149</v>
+        <v>1.015313191967434</v>
       </c>
       <c r="V35" t="s">
         <v>75</v>
@@ -3338,79 +3338,79 @@
         <v>70</v>
       </c>
       <c r="C36">
-        <v>102.7297600582879</v>
+        <v>102.7297592615646</v>
       </c>
       <c r="D36">
         <v>1286.713951483544</v>
       </c>
       <c r="E36">
-        <v>131.1319103138115</v>
+        <v>131.1314095055234</v>
       </c>
       <c r="F36">
         <v>1286.714001486044</v>
       </c>
       <c r="G36">
-        <v>171.7996527030858</v>
+        <v>171.806605609724</v>
       </c>
       <c r="H36">
-        <v>0.6153917664848096</v>
+        <v>0.6154190263759947</v>
       </c>
       <c r="I36">
-        <v>3.031680002230994</v>
+        <v>3.031611608656438</v>
       </c>
       <c r="J36">
-        <v>3.112718327535902E-08</v>
+        <v>1.091369694616873E-08</v>
       </c>
       <c r="K36">
-        <v>1.230783532969619</v>
+        <v>1.230838052751989</v>
       </c>
       <c r="L36" t="s">
         <v>75</v>
       </c>
       <c r="M36">
-        <v>1389.443761544332</v>
+        <v>1389.443760747609</v>
       </c>
       <c r="N36">
-        <v>235.11589256626</v>
+        <v>235.0972760810931</v>
       </c>
       <c r="O36">
-        <v>1389.443761544332</v>
+        <v>1389.443760747609</v>
       </c>
       <c r="P36">
-        <v>289.8561417851655</v>
+        <v>289.8132622207957</v>
       </c>
       <c r="Q36">
-        <v>0.5164625535588356</v>
+        <v>0.5165305778835625</v>
       </c>
       <c r="S36">
-        <v>2.608072332473038</v>
+        <v>2.608094739299872</v>
       </c>
       <c r="T36">
-        <v>0.3354605896983628</v>
+        <v>0.3349058751396503</v>
       </c>
       <c r="U36">
-        <v>1.032925107117671</v>
+        <v>1.033061155767125</v>
       </c>
       <c r="V36" t="s">
         <v>75</v>
       </c>
       <c r="W36">
-        <v>1266.456268218036</v>
+        <v>1266.455041502268</v>
       </c>
       <c r="X36">
-        <v>12.53182370980283</v>
+        <v>12.55039022048928</v>
       </c>
       <c r="Y36">
-        <v>0.444652849299435</v>
+        <v>0.4455621158264897</v>
       </c>
       <c r="Z36">
-        <v>1410.669144409741</v>
+        <v>1410.669144015835</v>
       </c>
       <c r="AA36">
-        <v>23.11230866466558</v>
+        <v>23.11250393556261</v>
       </c>
       <c r="AB36">
-        <v>0.53967252025697</v>
+        <v>0.5396761370170836</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -3421,58 +3421,58 @@
         <v>71</v>
       </c>
       <c r="C37">
-        <v>102.7589453680246</v>
+        <v>102.758933785648</v>
       </c>
       <c r="D37">
-        <v>1286.68787220267</v>
+        <v>1286.687883816287</v>
       </c>
       <c r="E37">
-        <v>129.6902417946832</v>
+        <v>129.6904096298718</v>
       </c>
       <c r="F37">
-        <v>1286.68787220267</v>
+        <v>1286.687883816287</v>
       </c>
       <c r="G37">
-        <v>172.1608609450515</v>
+        <v>172.1611439545466</v>
       </c>
       <c r="H37">
-        <v>0.5977136899478392</v>
+        <v>0.5977122294186727</v>
       </c>
       <c r="I37">
-        <v>2.071221261555484</v>
+        <v>2.071219660622668</v>
       </c>
       <c r="J37">
-        <v>0.1280074979452731</v>
+        <v>0.1280157657638787</v>
       </c>
       <c r="K37">
-        <v>1.195427379895678</v>
+        <v>1.195424458837345</v>
       </c>
       <c r="L37" t="s">
         <v>75</v>
       </c>
       <c r="M37">
-        <v>1389.446817570695</v>
+        <v>1389.446817601935</v>
       </c>
       <c r="N37">
-        <v>211.3187846485023</v>
+        <v>211.3186829040918</v>
       </c>
       <c r="O37">
-        <v>1389.446817570695</v>
+        <v>1389.446817601935</v>
       </c>
       <c r="P37">
-        <v>257.2467638383698</v>
+        <v>257.2462971660821</v>
       </c>
       <c r="Q37">
-        <v>0.5703953703388432</v>
+        <v>0.5703958603178153</v>
       </c>
       <c r="S37">
-        <v>6.036621646755712</v>
+        <v>6.036622685072657</v>
       </c>
       <c r="T37">
-        <v>0.02801355581460013</v>
+        <v>0.02800686008868386</v>
       </c>
       <c r="U37">
-        <v>1.140790740677686</v>
+        <v>1.140791720635631</v>
       </c>
       <c r="V37" t="s">
         <v>75</v>
@@ -3486,79 +3486,79 @@
         <v>72</v>
       </c>
       <c r="C38">
-        <v>102.7571410822409</v>
+        <v>102.7581911572004</v>
       </c>
       <c r="D38">
-        <v>1286.687356149787</v>
+        <v>1286.687406029727</v>
       </c>
       <c r="E38">
-        <v>126.4544828447947</v>
+        <v>126.4544349040295</v>
       </c>
       <c r="F38">
-        <v>1286.687406152287</v>
+        <v>1286.687406029727</v>
       </c>
       <c r="G38">
-        <v>158.1417725505837</v>
+        <v>158.1416550902593</v>
       </c>
       <c r="H38">
-        <v>0.587421939264713</v>
+        <v>0.5874217277858855</v>
       </c>
       <c r="I38">
-        <v>2.955452649659161</v>
+        <v>2.955466318389158</v>
       </c>
       <c r="J38">
-        <v>1.311983616192336E-08</v>
+        <v>1.79349901596737E-09</v>
       </c>
       <c r="K38">
-        <v>1.174843878529426</v>
+        <v>1.174843455571771</v>
       </c>
       <c r="L38" t="s">
         <v>75</v>
       </c>
       <c r="M38">
-        <v>1389.444597237028</v>
+        <v>1389.445647189428</v>
       </c>
       <c r="N38">
-        <v>213.9321181937923</v>
+        <v>191.316820114309</v>
       </c>
       <c r="O38">
-        <v>1389.444547234528</v>
+        <v>1389.445597186927</v>
       </c>
       <c r="P38">
-        <v>274.3736457633365</v>
+        <v>295.467957675059</v>
       </c>
       <c r="Q38">
-        <v>0.5596001658864298</v>
+        <v>0.6087072233367032</v>
       </c>
       <c r="S38">
-        <v>2.44050237796547</v>
+        <v>5.681869435078506</v>
       </c>
       <c r="T38">
-        <v>0.2206721207684967</v>
+        <v>0.5</v>
       </c>
       <c r="U38">
-        <v>1.11920033177286</v>
+        <v>1.217414446673406</v>
       </c>
       <c r="V38" t="s">
         <v>75</v>
       </c>
       <c r="W38">
-        <v>1266.481547219522</v>
+        <v>1266.481566733066</v>
       </c>
       <c r="X38">
-        <v>10.61966058393229</v>
+        <v>10.61586113318448</v>
       </c>
       <c r="Y38">
-        <v>0.5448681835058078</v>
+        <v>0.5445648957697167</v>
       </c>
       <c r="Z38">
-        <v>1409.418474082183</v>
+        <v>1409.300074</v>
       </c>
       <c r="AA38">
-        <v>250.6740032226962</v>
+        <v>268.9562394064044</v>
       </c>
       <c r="AB38">
-        <v>0.2514901718185379</v>
+        <v>0.5653898704576151</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -3569,58 +3569,58 @@
         <v>73</v>
       </c>
       <c r="C39">
-        <v>102.7266230471266</v>
+        <v>102.7265817350922</v>
       </c>
       <c r="D39">
-        <v>1286.718302725035</v>
+        <v>1286.718305570206</v>
       </c>
       <c r="E39">
-        <v>122.53213809492</v>
+        <v>122.532107287775</v>
       </c>
       <c r="F39">
-        <v>1286.718302725035</v>
+        <v>1286.718305570206</v>
       </c>
       <c r="G39">
-        <v>168.0095310900822</v>
+        <v>168.0096162172445</v>
       </c>
       <c r="H39">
-        <v>0.6069218864202721</v>
+        <v>0.6069221913931546</v>
       </c>
       <c r="I39">
-        <v>1.846188865050529</v>
+        <v>1.846193305307244</v>
       </c>
       <c r="J39">
-        <v>0.1772675223840239</v>
+        <v>0.1772682571530497</v>
       </c>
       <c r="K39">
-        <v>1.213843772840544</v>
+        <v>1.213844382786309</v>
       </c>
       <c r="L39" t="s">
         <v>75</v>
       </c>
       <c r="M39">
-        <v>1389.444925772161</v>
+        <v>1389.444887305299</v>
       </c>
       <c r="N39">
-        <v>197.037553724474</v>
+        <v>197.0392301206958</v>
       </c>
       <c r="O39">
-        <v>1389.444925772161</v>
+        <v>1389.444887305299</v>
       </c>
       <c r="P39">
-        <v>249.6551857105823</v>
+        <v>249.6585536779646</v>
       </c>
       <c r="Q39">
-        <v>0.5639158611523324</v>
+        <v>0.5639072094229649</v>
       </c>
       <c r="S39">
-        <v>2.030618643664515</v>
+        <v>2.030625190151611</v>
       </c>
       <c r="T39">
-        <v>0.1622762312622634</v>
+        <v>0.1623357082519193</v>
       </c>
       <c r="U39">
-        <v>1.127831722304665</v>
+        <v>1.12781441884593</v>
       </c>
       <c r="V39" t="s">
         <v>75</v>
@@ -3634,70 +3634,70 @@
         <v>74</v>
       </c>
       <c r="C40">
-        <v>102.7275715634187</v>
+        <v>102.7275737553803</v>
       </c>
       <c r="D40">
-        <v>1286.718187678102</v>
+        <v>1286.718135595258</v>
       </c>
       <c r="E40">
-        <v>118.6411758077975</v>
+        <v>118.6411351331058</v>
       </c>
       <c r="F40">
-        <v>1286.718187678102</v>
+        <v>1286.718185597758</v>
       </c>
       <c r="G40">
-        <v>150.6536036517748</v>
+        <v>150.6534454454277</v>
       </c>
       <c r="H40">
-        <v>0.5964601398626764</v>
+        <v>0.5964602698614276</v>
       </c>
       <c r="I40">
-        <v>2.920537659283923</v>
+        <v>2.920532293043383</v>
       </c>
       <c r="J40">
-        <v>3.202942363222938E-06</v>
+        <v>3.325490277594767E-07</v>
       </c>
       <c r="K40">
-        <v>1.192920279725353</v>
+        <v>1.192920539722855</v>
       </c>
       <c r="L40" t="s">
         <v>75</v>
       </c>
       <c r="M40">
-        <v>1389.445759241521</v>
+        <v>1389.445759353138</v>
       </c>
       <c r="N40">
-        <v>194.7497781023694</v>
+        <v>194.7497626712612</v>
       </c>
       <c r="O40">
-        <v>1389.445759241521</v>
+        <v>1389.445759353138</v>
       </c>
       <c r="P40">
-        <v>240.7649247946079</v>
+        <v>240.7648990587464</v>
       </c>
       <c r="Q40">
-        <v>0.5678421359958108</v>
+        <v>0.5678422202179106</v>
       </c>
       <c r="S40">
-        <v>2.139305186423339</v>
+        <v>2.139305117267952</v>
       </c>
       <c r="T40">
-        <v>0.06464459449213872</v>
+        <v>0.06464406123448901</v>
       </c>
       <c r="U40">
-        <v>1.135684271991622</v>
+        <v>1.135684440435821</v>
       </c>
       <c r="V40" t="s">
         <v>75</v>
       </c>
       <c r="W40">
-        <v>1266.48353088915</v>
+        <v>1266.483529582703</v>
       </c>
       <c r="X40">
-        <v>8.161097331185479</v>
+        <v>8.161162997945677</v>
       </c>
       <c r="Y40">
-        <v>0.4554467044612961</v>
+        <v>0.4554497648535878</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Examples/Example1a_Gas_Cell_Calibration/Weak_Diads.xlsx
+++ b/docs/Examples/Example1a_Gas_Cell_Calibration/Weak_Diads.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
   <si>
     <t>filename</t>
   </si>
@@ -124,13 +124,46 @@
     <t>Diad1_Gauss_Sigma</t>
   </si>
   <si>
+    <t>Cap19-05X2_CRR_DiadFit</t>
+  </si>
+  <si>
     <t>Cap19-07X1</t>
   </si>
   <si>
+    <t>Cap19-07X2_CRR_DiadFit</t>
+  </si>
+  <si>
     <t>FG04_31_MI</t>
   </si>
   <si>
+    <t>POC51_CRR_DiadFit</t>
+  </si>
+  <si>
+    <t>POC52_CRR_DiadFit</t>
+  </si>
+  <si>
+    <t>POC53_CRR_DiadFit</t>
+  </si>
+  <si>
+    <t>POC54_CRR_DiadFit</t>
+  </si>
+  <si>
+    <t>POC55</t>
+  </si>
+  <si>
+    <t>POC56_CRR_DiadFit</t>
+  </si>
+  <si>
+    <t>POC57-0.04</t>
+  </si>
+  <si>
+    <t>POC58_CRR_DiadFit</t>
+  </si>
+  <si>
     <t>Flagged Warnings:</t>
+  </si>
+  <si>
+    <t>Flagged Warnings: HB1_LowSigma HB1_HighAmp</t>
   </si>
 </sst>
 </file>
@@ -488,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK3"/>
+  <dimension ref="A1:AK13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,61 +645,79 @@
         <v>36</v>
       </c>
       <c r="C2">
-        <v>102.7355557956182</v>
+        <v>102.7595064799552</v>
       </c>
       <c r="D2">
-        <v>1286.70013801444</v>
+        <v>1286.620739983665</v>
       </c>
       <c r="E2">
-        <v>45.64279962384578</v>
+        <v>207.8815149938454</v>
       </c>
       <c r="F2">
-        <v>1286.70013801444</v>
+        <v>1286.620789986165</v>
       </c>
       <c r="G2">
-        <v>69.63397812220778</v>
+        <v>295.229436305043</v>
       </c>
       <c r="H2">
-        <v>0.7153537671932022</v>
+        <v>0.6427515648382314</v>
       </c>
       <c r="I2">
-        <v>1.68510637082011</v>
+        <v>2.221861560437203</v>
       </c>
       <c r="J2">
-        <v>6.067985003355147E-10</v>
+        <v>0.1132279899181334</v>
       </c>
       <c r="K2">
-        <v>1.430707534386404</v>
+        <v>1.285503129676463</v>
       </c>
       <c r="L2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="M2">
-        <v>1389.435693810058</v>
+        <v>1389.38034646862</v>
       </c>
       <c r="N2">
-        <v>84.35591877913241</v>
+        <v>322.5618412765834</v>
       </c>
       <c r="O2">
-        <v>1389.435693810058</v>
+        <v>1389.38029646612</v>
       </c>
       <c r="P2">
-        <v>111.8631310352013</v>
+        <v>429.3379521823654</v>
       </c>
       <c r="Q2">
-        <v>0.5650085910456871</v>
+        <v>0.5958857051046043</v>
       </c>
       <c r="S2">
-        <v>1.582586961167282</v>
+        <v>2.61272581092278</v>
       </c>
       <c r="T2">
-        <v>0.2751593283317207</v>
+        <v>0.1454960582685527</v>
       </c>
       <c r="U2">
-        <v>1.130017182091374</v>
+        <v>1.191771410209209</v>
       </c>
       <c r="V2" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="W2">
+        <v>1266.367742656751</v>
+      </c>
+      <c r="X2">
+        <v>34.2555065431064</v>
+      </c>
+      <c r="Y2">
+        <v>1.000838216259518</v>
+      </c>
+      <c r="Z2">
+        <v>1410.654918809482</v>
+      </c>
+      <c r="AA2">
+        <v>33.18617041246237</v>
+      </c>
+      <c r="AB2">
+        <v>0.6152260959703135</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -677,61 +728,864 @@
         <v>37</v>
       </c>
       <c r="C3">
-        <v>103.2068116572987</v>
+        <v>102.7355543349495</v>
       </c>
       <c r="D3">
-        <v>1285.20732967508</v>
+        <v>1286.70013928469</v>
       </c>
       <c r="E3">
-        <v>40.96462109468963</v>
+        <v>45.64282731137449</v>
       </c>
       <c r="F3">
-        <v>1285.20732967508</v>
+        <v>1286.70013928469</v>
       </c>
       <c r="G3">
-        <v>113.3229303297709</v>
+        <v>69.63416177621244</v>
       </c>
       <c r="H3">
-        <v>0.9399086971106785</v>
+        <v>0.7153551886783678</v>
       </c>
       <c r="I3">
-        <v>1.393692415497117</v>
+        <v>1.685106278989279</v>
       </c>
       <c r="J3">
-        <v>0.864533756897865</v>
+        <v>5.907659139658961E-09</v>
       </c>
       <c r="K3">
-        <v>1.879817394221357</v>
+        <v>1.430710377356736</v>
       </c>
       <c r="L3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3">
+        <v>1389.435693619639</v>
+      </c>
+      <c r="N3">
+        <v>84.35584956854268</v>
+      </c>
+      <c r="O3">
+        <v>1389.435693619639</v>
+      </c>
+      <c r="P3">
+        <v>111.8630268407451</v>
+      </c>
+      <c r="Q3">
+        <v>0.565009485443473</v>
+      </c>
+      <c r="S3">
+        <v>1.582587129801899</v>
+      </c>
+      <c r="T3">
+        <v>0.2751545480119943</v>
+      </c>
+      <c r="U3">
+        <v>1.130018970886946</v>
+      </c>
+      <c r="V3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="M3">
-        <v>1388.414141332379</v>
-      </c>
-      <c r="N3">
-        <v>70.14297904586</v>
-      </c>
-      <c r="O3">
-        <v>1388.414141332379</v>
-      </c>
-      <c r="P3">
-        <v>163.1213835687714</v>
-      </c>
-      <c r="Q3">
-        <v>0.9312454801642167</v>
-      </c>
-      <c r="S3">
-        <v>1.479035421274046</v>
-      </c>
-      <c r="T3">
-        <v>0.4534764837469576</v>
-      </c>
-      <c r="U3">
-        <v>1.862490960328433</v>
-      </c>
-      <c r="V3" t="s">
-        <v>38</v>
+      <c r="C4">
+        <v>102.6856375266293</v>
+      </c>
+      <c r="D4">
+        <v>1286.704087509378</v>
+      </c>
+      <c r="E4">
+        <v>62.56100972948032</v>
+      </c>
+      <c r="F4">
+        <v>1286.704137511879</v>
+      </c>
+      <c r="G4">
+        <v>85.41033215625001</v>
+      </c>
+      <c r="H4">
+        <v>0.6413272127140621</v>
+      </c>
+      <c r="I4">
+        <v>1.956683030044026</v>
+      </c>
+      <c r="J4">
+        <v>6.562317911296134E-10</v>
+      </c>
+      <c r="K4">
+        <v>1.282654425428124</v>
+      </c>
+      <c r="L4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4">
+        <v>1389.389775038508</v>
+      </c>
+      <c r="N4">
+        <v>96.67238542431501</v>
+      </c>
+      <c r="O4">
+        <v>1389.389775038508</v>
+      </c>
+      <c r="P4">
+        <v>126.5951559636456</v>
+      </c>
+      <c r="Q4">
+        <v>0.6151095152371998</v>
+      </c>
+      <c r="S4">
+        <v>2.194370051978048</v>
+      </c>
+      <c r="T4">
+        <v>5.551115123125783E-17</v>
+      </c>
+      <c r="U4">
+        <v>1.2302190304744</v>
+      </c>
+      <c r="V4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W4">
+        <v>1266.029829567195</v>
+      </c>
+      <c r="X4">
+        <v>14.88961595104924</v>
+      </c>
+      <c r="Y4">
+        <v>0.4576837146567259</v>
+      </c>
+      <c r="Z4">
+        <v>1410.697950960046</v>
+      </c>
+      <c r="AA4">
+        <v>5.535565812578843</v>
+      </c>
+      <c r="AB4">
+        <v>0.3531056316494244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>103.2068099979476</v>
+      </c>
+      <c r="D5">
+        <v>1285.207323938716</v>
+      </c>
+      <c r="E5">
+        <v>40.9645851865542</v>
+      </c>
+      <c r="F5">
+        <v>1285.207323938716</v>
+      </c>
+      <c r="G5">
+        <v>113.3229136877293</v>
+      </c>
+      <c r="H5">
+        <v>0.9399106238147177</v>
+      </c>
+      <c r="I5">
+        <v>1.393692169961967</v>
+      </c>
+      <c r="J5">
+        <v>0.8645308140604342</v>
+      </c>
+      <c r="K5">
+        <v>1.879821247629435</v>
+      </c>
+      <c r="L5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5">
+        <v>1388.414133936664</v>
+      </c>
+      <c r="N5">
+        <v>70.14307655438097</v>
+      </c>
+      <c r="O5">
+        <v>1388.414133936664</v>
+      </c>
+      <c r="P5">
+        <v>163.121580037642</v>
+      </c>
+      <c r="Q5">
+        <v>0.9312427405528417</v>
+      </c>
+      <c r="S5">
+        <v>1.479038071413782</v>
+      </c>
+      <c r="T5">
+        <v>0.4534837476137904</v>
+      </c>
+      <c r="U5">
+        <v>1.862485481105683</v>
+      </c>
+      <c r="V5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>102.7402810126489</v>
+      </c>
+      <c r="D6">
+        <v>1286.697274131534</v>
+      </c>
+      <c r="E6">
+        <v>179.7541053896191</v>
+      </c>
+      <c r="F6">
+        <v>1286.697274131534</v>
+      </c>
+      <c r="G6">
+        <v>235.0842964080052</v>
+      </c>
+      <c r="H6">
+        <v>0.6143021627638188</v>
+      </c>
+      <c r="I6">
+        <v>3.138012607689802</v>
+      </c>
+      <c r="J6">
+        <v>3.922805856926281E-06</v>
+      </c>
+      <c r="K6">
+        <v>1.228604325527638</v>
+      </c>
+      <c r="L6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6">
+        <v>1389.437605146683</v>
+      </c>
+      <c r="N6">
+        <v>289.4253150688157</v>
+      </c>
+      <c r="O6">
+        <v>1389.437555144183</v>
+      </c>
+      <c r="P6">
+        <v>375.4168516286392</v>
+      </c>
+      <c r="Q6">
+        <v>0.5832455966884921</v>
+      </c>
+      <c r="S6">
+        <v>2.388095190335898</v>
+      </c>
+      <c r="T6">
+        <v>0.1325486634374346</v>
+      </c>
+      <c r="U6">
+        <v>1.166491193376984</v>
+      </c>
+      <c r="V6" t="s">
+        <v>48</v>
+      </c>
+      <c r="W6">
+        <v>1266.354250394098</v>
+      </c>
+      <c r="X6">
+        <v>15.73253972767692</v>
+      </c>
+      <c r="Y6">
+        <v>0.4902690806448255</v>
+      </c>
+      <c r="Z6">
+        <v>1410.66256548023</v>
+      </c>
+      <c r="AA6">
+        <v>27.73681185648204</v>
+      </c>
+      <c r="AB6">
+        <v>0.523115893237507</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7">
+        <v>102.7342436274687</v>
+      </c>
+      <c r="D7">
+        <v>1286.689828123543</v>
+      </c>
+      <c r="E7">
+        <v>244.7409991310795</v>
+      </c>
+      <c r="F7">
+        <v>1286.689828123543</v>
+      </c>
+      <c r="G7">
+        <v>311.3186897614474</v>
+      </c>
+      <c r="H7">
+        <v>0.596053027992719</v>
+      </c>
+      <c r="I7">
+        <v>3.751447625275959</v>
+      </c>
+      <c r="J7">
+        <v>3.042522472851417E-08</v>
+      </c>
+      <c r="K7">
+        <v>1.192106055985438</v>
+      </c>
+      <c r="L7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7">
+        <v>1389.424071751012</v>
+      </c>
+      <c r="N7">
+        <v>384.6853075842572</v>
+      </c>
+      <c r="O7">
+        <v>1389.424071751012</v>
+      </c>
+      <c r="P7">
+        <v>488.5904799753348</v>
+      </c>
+      <c r="Q7">
+        <v>0.5863384414163184</v>
+      </c>
+      <c r="S7">
+        <v>2.588602450702043</v>
+      </c>
+      <c r="T7">
+        <v>0.05331761571145771</v>
+      </c>
+      <c r="U7">
+        <v>1.172676882832637</v>
+      </c>
+      <c r="V7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z7">
+        <v>1410.673868960864</v>
+      </c>
+      <c r="AA7">
+        <v>40.13696588130696</v>
+      </c>
+      <c r="AB7">
+        <v>0.5632525618408243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8">
+        <v>102.7607949734311</v>
+      </c>
+      <c r="D8">
+        <v>1286.675369053052</v>
+      </c>
+      <c r="E8">
+        <v>219.4475586629692</v>
+      </c>
+      <c r="F8">
+        <v>1286.675369053052</v>
+      </c>
+      <c r="G8">
+        <v>282.3572163671747</v>
+      </c>
+      <c r="H8">
+        <v>0.6043684410303278</v>
+      </c>
+      <c r="I8">
+        <v>2.948801587236107</v>
+      </c>
+      <c r="J8">
+        <v>2.965838902874163E-05</v>
+      </c>
+      <c r="K8">
+        <v>1.208736882060656</v>
+      </c>
+      <c r="L8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8">
+        <v>1389.436164026483</v>
+      </c>
+      <c r="N8">
+        <v>347.8882401220964</v>
+      </c>
+      <c r="O8">
+        <v>1389.436164026483</v>
+      </c>
+      <c r="P8">
+        <v>437.7380965737977</v>
+      </c>
+      <c r="Q8">
+        <v>0.5849199068857931</v>
+      </c>
+      <c r="S8">
+        <v>2.908561215347174</v>
+      </c>
+      <c r="T8">
+        <v>0.03209217192196823</v>
+      </c>
+      <c r="U8">
+        <v>1.169839813771586</v>
+      </c>
+      <c r="V8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W8">
+        <v>1266.533833931009</v>
+      </c>
+      <c r="X8">
+        <v>17.07576773082874</v>
+      </c>
+      <c r="Y8">
+        <v>0.3739634920505246</v>
+      </c>
+      <c r="Z8">
+        <v>1410.546170622774</v>
+      </c>
+      <c r="AA8">
+        <v>35.32938069338835</v>
+      </c>
+      <c r="AB8">
+        <v>0.4978468201046486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9">
+        <v>102.7593286123042</v>
+      </c>
+      <c r="D9">
+        <v>1286.683796692701</v>
+      </c>
+      <c r="E9">
+        <v>183.6175203623492</v>
+      </c>
+      <c r="F9">
+        <v>1286.683846695201</v>
+      </c>
+      <c r="G9">
+        <v>240.5991343065851</v>
+      </c>
+      <c r="H9">
+        <v>0.615497152489644</v>
+      </c>
+      <c r="I9">
+        <v>3.126455451941498</v>
+      </c>
+      <c r="J9">
+        <v>7.831360560039968E-10</v>
+      </c>
+      <c r="K9">
+        <v>1.230994304979288</v>
+      </c>
+      <c r="L9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9">
+        <v>1389.443175307505</v>
+      </c>
+      <c r="N9">
+        <v>302.1488015620029</v>
+      </c>
+      <c r="O9">
+        <v>1389.443175307505</v>
+      </c>
+      <c r="P9">
+        <v>374.1898848161321</v>
+      </c>
+      <c r="Q9">
+        <v>0.5817131914125226</v>
+      </c>
+      <c r="S9">
+        <v>3.118937624336634</v>
+      </c>
+      <c r="T9">
+        <v>3.356439974289138E-07</v>
+      </c>
+      <c r="U9">
+        <v>1.163426382825045</v>
+      </c>
+      <c r="V9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W9">
+        <v>1266.530870466901</v>
+      </c>
+      <c r="X9">
+        <v>21.7718878744565</v>
+      </c>
+      <c r="Y9">
+        <v>0.2060166642225044</v>
+      </c>
+      <c r="Z9">
+        <v>1410.651513792762</v>
+      </c>
+      <c r="AA9">
+        <v>34.29488865421251</v>
+      </c>
+      <c r="AB9">
+        <v>0.5690234686596679</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10">
+        <v>102.7274229591042</v>
+      </c>
+      <c r="D10">
+        <v>1286.707960505638</v>
+      </c>
+      <c r="E10">
+        <v>156.3398592462521</v>
+      </c>
+      <c r="F10">
+        <v>1286.707960505638</v>
+      </c>
+      <c r="G10">
+        <v>206.2754417557291</v>
+      </c>
+      <c r="H10">
+        <v>0.6197485119756212</v>
+      </c>
+      <c r="I10">
+        <v>3.2573269580191</v>
+      </c>
+      <c r="J10">
+        <v>7.769381344946424E-07</v>
+      </c>
+      <c r="K10">
+        <v>1.239497023951242</v>
+      </c>
+      <c r="L10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10">
+        <v>1389.435383464742</v>
+      </c>
+      <c r="N10">
+        <v>263.964468417115</v>
+      </c>
+      <c r="O10">
+        <v>1389.435383464742</v>
+      </c>
+      <c r="P10">
+        <v>320.7396726978305</v>
+      </c>
+      <c r="Q10">
+        <v>0.5707485973036259</v>
+      </c>
+      <c r="S10">
+        <v>2.859713266440016</v>
+      </c>
+      <c r="T10">
+        <v>1.065765987517953E-06</v>
+      </c>
+      <c r="U10">
+        <v>1.141497194607252</v>
+      </c>
+      <c r="V10" t="s">
+        <v>48</v>
+      </c>
+      <c r="W10">
+        <v>1266.549600043454</v>
+      </c>
+      <c r="X10">
+        <v>11.73728325728288</v>
+      </c>
+      <c r="Y10">
+        <v>0.5453672363626716</v>
+      </c>
+      <c r="Z10">
+        <v>1410.700525422512</v>
+      </c>
+      <c r="AA10">
+        <v>22.17094733826169</v>
+      </c>
+      <c r="AB10">
+        <v>0.6027038545418163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11">
+        <v>102.7298203489831</v>
+      </c>
+      <c r="D11">
+        <v>1286.713944028731</v>
+      </c>
+      <c r="E11">
+        <v>131.0455692328856</v>
+      </c>
+      <c r="F11">
+        <v>1286.713994031231</v>
+      </c>
+      <c r="G11">
+        <v>171.4691387958712</v>
+      </c>
+      <c r="H11">
+        <v>0.6146205149568768</v>
+      </c>
+      <c r="I11">
+        <v>3.118193858551845</v>
+      </c>
+      <c r="J11">
+        <v>5.085037946273019E-10</v>
+      </c>
+      <c r="K11">
+        <v>1.229241029913754</v>
+      </c>
+      <c r="L11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11">
+        <v>1389.443864382715</v>
+      </c>
+      <c r="N11">
+        <v>235.0861591634649</v>
+      </c>
+      <c r="O11">
+        <v>1389.443814380214</v>
+      </c>
+      <c r="P11">
+        <v>289.7773252609957</v>
+      </c>
+      <c r="Q11">
+        <v>0.5165663777290347</v>
+      </c>
+      <c r="S11">
+        <v>2.658621376584734</v>
+      </c>
+      <c r="T11">
+        <v>0.3345381434362975</v>
+      </c>
+      <c r="U11">
+        <v>1.033132755458069</v>
+      </c>
+      <c r="V11" t="s">
+        <v>48</v>
+      </c>
+      <c r="W11">
+        <v>1266.55204368266</v>
+      </c>
+      <c r="X11">
+        <v>69.9769075580766</v>
+      </c>
+      <c r="Y11">
+        <v>0.03103087241229526</v>
+      </c>
+      <c r="Z11">
+        <v>1410.631491110385</v>
+      </c>
+      <c r="AA11">
+        <v>39.64166191285292</v>
+      </c>
+      <c r="AB11">
+        <v>0.1100342522913852</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12">
+        <v>102.7581881287265</v>
+      </c>
+      <c r="D12">
+        <v>1286.687409246633</v>
+      </c>
+      <c r="E12">
+        <v>126.454481675824</v>
+      </c>
+      <c r="F12">
+        <v>1286.687409246633</v>
+      </c>
+      <c r="G12">
+        <v>158.1418695331345</v>
+      </c>
+      <c r="H12">
+        <v>0.5874221741511862</v>
+      </c>
+      <c r="I12">
+        <v>2.955459610024593</v>
+      </c>
+      <c r="J12">
+        <v>7.037692997258205E-07</v>
+      </c>
+      <c r="K12">
+        <v>1.174844348302372</v>
+      </c>
+      <c r="L12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12">
+        <v>1389.44564737786</v>
+      </c>
+      <c r="N12">
+        <v>204.8660735824206</v>
+      </c>
+      <c r="O12">
+        <v>1389.44559737536</v>
+      </c>
+      <c r="P12">
+        <v>309.7340318589112</v>
+      </c>
+      <c r="Q12">
+        <v>0.5958824012058026</v>
+      </c>
+      <c r="S12">
+        <v>5.561000219322413</v>
+      </c>
+      <c r="T12">
+        <v>0.5</v>
+      </c>
+      <c r="U12">
+        <v>1.191764802411605</v>
+      </c>
+      <c r="V12" t="s">
+        <v>48</v>
+      </c>
+      <c r="W12">
+        <v>1266.481495871456</v>
+      </c>
+      <c r="X12">
+        <v>10.61903896297515</v>
+      </c>
+      <c r="Y12">
+        <v>0.5447740965601342</v>
+      </c>
+      <c r="Z12">
+        <v>1409.325224823968</v>
+      </c>
+      <c r="AA12">
+        <v>268.9568747265521</v>
+      </c>
+      <c r="AB12">
+        <v>0.5653880285285884</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13">
+        <v>102.7278403043522</v>
+      </c>
+      <c r="D13">
+        <v>1286.718186965116</v>
+      </c>
+      <c r="E13">
+        <v>118.6411360232597</v>
+      </c>
+      <c r="F13">
+        <v>1286.718186965116</v>
+      </c>
+      <c r="G13">
+        <v>150.6534583416708</v>
+      </c>
+      <c r="H13">
+        <v>0.5964602686475035</v>
+      </c>
+      <c r="I13">
+        <v>2.920534536588851</v>
+      </c>
+      <c r="J13">
+        <v>5.811495231711206E-07</v>
+      </c>
+      <c r="K13">
+        <v>1.192920537295007</v>
+      </c>
+      <c r="L13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13">
+        <v>1389.446027269468</v>
+      </c>
+      <c r="N13">
+        <v>194.3186097687841</v>
+      </c>
+      <c r="O13">
+        <v>1389.446027269468</v>
+      </c>
+      <c r="P13">
+        <v>237.7380541005352</v>
+      </c>
+      <c r="Q13">
+        <v>0.5694452418518905</v>
+      </c>
+      <c r="S13">
+        <v>1.948394928771467</v>
+      </c>
+      <c r="T13">
+        <v>0.02823084850397373</v>
+      </c>
+      <c r="U13">
+        <v>1.138890483703781</v>
+      </c>
+      <c r="V13" t="s">
+        <v>48</v>
+      </c>
+      <c r="W13">
+        <v>1266.483529551993</v>
+      </c>
+      <c r="X13">
+        <v>8.16117460168021</v>
+      </c>
+      <c r="Y13">
+        <v>0.4554502180271676</v>
+      </c>
+      <c r="Z13">
+        <v>1410.62509852826</v>
+      </c>
+      <c r="AA13">
+        <v>17.47312992006512</v>
+      </c>
+      <c r="AB13">
+        <v>0.4267434662970797</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Examples/Example1a_Gas_Cell_Calibration/Weak_Diads.xlsx
+++ b/docs/Examples/Example1a_Gas_Cell_Calibration/Weak_Diads.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
   <si>
     <t>filename</t>
   </si>
@@ -22,9 +22,18 @@
     <t>Splitting</t>
   </si>
   <si>
+    <t>Split_err_abs</t>
+  </si>
+  <si>
+    <t>Split_err_quadrature</t>
+  </si>
+  <si>
     <t>Diad1_Combofit_Cent</t>
   </si>
   <si>
+    <t>Diad1_cent_err</t>
+  </si>
+  <si>
     <t>Diad1_Combofit_Height</t>
   </si>
   <si>
@@ -50,6 +59,9 @@
   </si>
   <si>
     <t>Diad2_Combofit_Cent</t>
+  </si>
+  <si>
+    <t>Diad2_cent_err</t>
   </si>
   <si>
     <t>Diad2_Combofit_Height</t>
@@ -521,13 +533,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK13"/>
+  <dimension ref="A1:AO13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:41">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,956 +648,998 @@
       <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:41">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C2">
-        <v>102.7595064799552</v>
-      </c>
-      <c r="D2">
-        <v>1286.620739983665</v>
-      </c>
-      <c r="E2">
-        <v>207.8815149938454</v>
+        <v>102.7595141461004</v>
       </c>
       <c r="F2">
-        <v>1286.620789986165</v>
-      </c>
-      <c r="G2">
-        <v>295.229436305043</v>
+        <v>1286.620735923774</v>
       </c>
       <c r="H2">
-        <v>0.6427515648382314</v>
+        <v>207.8817561817705</v>
       </c>
       <c r="I2">
-        <v>2.221861560437203</v>
+        <v>1286.620785926274</v>
       </c>
       <c r="J2">
-        <v>0.1132279899181334</v>
+        <v>295.2300157264214</v>
       </c>
       <c r="K2">
-        <v>1.285503129676463</v>
-      </c>
-      <c r="L2" t="s">
-        <v>48</v>
+        <v>0.6427501022317911</v>
+      </c>
+      <c r="L2">
+        <v>2.221893459812241</v>
       </c>
       <c r="M2">
-        <v>1389.38034646862</v>
+        <v>0.1132368970417175</v>
       </c>
       <c r="N2">
-        <v>322.5618412765834</v>
-      </c>
-      <c r="O2">
-        <v>1389.38029646612</v>
+        <v>1.285500204463582</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
       </c>
       <c r="P2">
-        <v>429.3379521823654</v>
-      </c>
-      <c r="Q2">
-        <v>0.5958857051046043</v>
+        <v>1389.380300072374</v>
+      </c>
+      <c r="R2">
+        <v>322.5632845200791</v>
       </c>
       <c r="S2">
-        <v>2.61272581092278</v>
+        <v>1389.380300072374</v>
       </c>
       <c r="T2">
-        <v>0.1454960582685527</v>
+        <v>429.343581767434</v>
       </c>
       <c r="U2">
-        <v>1.191771410209209</v>
-      </c>
-      <c r="V2" t="s">
-        <v>48</v>
+        <v>0.5958811837336644</v>
       </c>
       <c r="W2">
-        <v>1266.367742656751</v>
+        <v>2.612733502198658</v>
       </c>
       <c r="X2">
-        <v>34.2555065431064</v>
+        <v>0.1455440339258295</v>
       </c>
       <c r="Y2">
-        <v>1.000838216259518</v>
-      </c>
-      <c r="Z2">
-        <v>1410.654918809482</v>
+        <v>1.191762367467329</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>52</v>
       </c>
       <c r="AA2">
-        <v>33.18617041246237</v>
+        <v>1266.367676241016</v>
       </c>
       <c r="AB2">
-        <v>0.6152260959703135</v>
+        <v>34.25027853170108</v>
+      </c>
+      <c r="AC2">
+        <v>1.001057989667587</v>
+      </c>
+      <c r="AD2">
+        <v>1410.654918872986</v>
+      </c>
+      <c r="AE2">
+        <v>33.1861440443496</v>
+      </c>
+      <c r="AF2">
+        <v>0.6152257595700976</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:41">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C3">
-        <v>102.7355543349495</v>
+        <v>102.7355534085696</v>
       </c>
       <c r="D3">
-        <v>1286.70013928469</v>
+        <v>0.0402</v>
       </c>
       <c r="E3">
-        <v>45.64282731137449</v>
+        <v>0.03000833217624731</v>
       </c>
       <c r="F3">
-        <v>1286.70013928469</v>
+        <v>1286.70014027917</v>
       </c>
       <c r="G3">
-        <v>69.63416177621244</v>
+        <v>0.0269</v>
       </c>
       <c r="H3">
-        <v>0.7153551886783678</v>
+        <v>45.64282527467124</v>
       </c>
       <c r="I3">
-        <v>1.685106278989279</v>
+        <v>1286.70014027917</v>
       </c>
       <c r="J3">
-        <v>5.907659139658961E-09</v>
+        <v>69.63416425627916</v>
       </c>
       <c r="K3">
-        <v>1.430710377356736</v>
-      </c>
-      <c r="L3" t="s">
-        <v>48</v>
+        <v>0.7153552459279789</v>
+      </c>
+      <c r="L3">
+        <v>1.685106305891223</v>
       </c>
       <c r="M3">
-        <v>1389.435693619639</v>
+        <v>6.065908997321401E-09</v>
       </c>
       <c r="N3">
-        <v>84.35584956854268</v>
-      </c>
-      <c r="O3">
-        <v>1389.435693619639</v>
+        <v>1.430710491855958</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
       </c>
       <c r="P3">
-        <v>111.8630268407451</v>
+        <v>1389.435693687739</v>
       </c>
       <c r="Q3">
-        <v>0.565009485443473</v>
+        <v>0.0133</v>
+      </c>
+      <c r="R3">
+        <v>84.35585002081419</v>
       </c>
       <c r="S3">
-        <v>1.582587129801899</v>
+        <v>1389.435693687739</v>
       </c>
       <c r="T3">
-        <v>0.2751545480119943</v>
+        <v>111.8630278614423</v>
       </c>
       <c r="U3">
-        <v>1.130018970886946</v>
-      </c>
-      <c r="V3" t="s">
-        <v>48</v>
+        <v>0.5650094785283319</v>
+      </c>
+      <c r="W3">
+        <v>1.582587130533001</v>
+      </c>
+      <c r="X3">
+        <v>0.2751545929675683</v>
+      </c>
+      <c r="Y3">
+        <v>1.130018957056664</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:41">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C4">
-        <v>102.6856375266293</v>
-      </c>
-      <c r="D4">
-        <v>1286.704087509378</v>
-      </c>
-      <c r="E4">
-        <v>62.56100972948032</v>
+        <v>102.6856286361515</v>
       </c>
       <c r="F4">
-        <v>1286.704137511879</v>
-      </c>
-      <c r="G4">
-        <v>85.41033215625001</v>
+        <v>1286.704093144254</v>
       </c>
       <c r="H4">
-        <v>0.6413272127140621</v>
+        <v>62.56099390287866</v>
       </c>
       <c r="I4">
-        <v>1.956683030044026</v>
+        <v>1286.704143146754</v>
       </c>
       <c r="J4">
-        <v>6.562317911296134E-10</v>
+        <v>85.41035396615013</v>
       </c>
       <c r="K4">
-        <v>1.282654425428124</v>
-      </c>
-      <c r="L4" t="s">
-        <v>48</v>
+        <v>0.6413275387094464</v>
+      </c>
+      <c r="L4">
+        <v>1.956682642541721</v>
       </c>
       <c r="M4">
-        <v>1389.389775038508</v>
+        <v>6.541435726425959E-10</v>
       </c>
       <c r="N4">
-        <v>96.67238542431501</v>
-      </c>
-      <c r="O4">
-        <v>1389.389775038508</v>
+        <v>1.282655077418893</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
       </c>
       <c r="P4">
-        <v>126.5951559636456</v>
-      </c>
-      <c r="Q4">
-        <v>0.6151095152371998</v>
+        <v>1389.389771782906</v>
+      </c>
+      <c r="R4">
+        <v>96.67238875335973</v>
       </c>
       <c r="S4">
-        <v>2.194370051978048</v>
+        <v>1389.389771782906</v>
       </c>
       <c r="T4">
+        <v>126.5951517486812</v>
+      </c>
+      <c r="U4">
+        <v>0.615109473575003</v>
+      </c>
+      <c r="W4">
+        <v>2.194363076838713</v>
+      </c>
+      <c r="X4">
         <v>5.551115123125783E-17</v>
       </c>
-      <c r="U4">
-        <v>1.2302190304744</v>
-      </c>
-      <c r="V4" t="s">
-        <v>48</v>
-      </c>
-      <c r="W4">
-        <v>1266.029829567195</v>
-      </c>
-      <c r="X4">
-        <v>14.88961595104924</v>
-      </c>
       <c r="Y4">
-        <v>0.4576837146567259</v>
-      </c>
-      <c r="Z4">
-        <v>1410.697950960046</v>
+        <v>1.230218947150006</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>52</v>
       </c>
       <c r="AA4">
-        <v>5.535565812578843</v>
+        <v>1266.029829580686</v>
       </c>
       <c r="AB4">
-        <v>0.3531056316494244</v>
+        <v>14.88961620602245</v>
+      </c>
+      <c r="AC4">
+        <v>0.4576837260658406</v>
+      </c>
+      <c r="AD4">
+        <v>1410.697708843437</v>
+      </c>
+      <c r="AE4">
+        <v>5.534593809250081</v>
+      </c>
+      <c r="AF4">
+        <v>0.3527967635212193</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:41">
       <c r="A5" s="1">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C5">
-        <v>103.2068099979476</v>
+        <v>103.2068067198957</v>
       </c>
       <c r="D5">
-        <v>1285.207323938716</v>
+        <v>0.0471</v>
       </c>
       <c r="E5">
-        <v>40.9645851865542</v>
+        <v>0.03460708020044453</v>
       </c>
       <c r="F5">
-        <v>1285.207323938716</v>
+        <v>1285.207326904356</v>
       </c>
       <c r="G5">
-        <v>113.3229136877293</v>
+        <v>0.0302</v>
       </c>
       <c r="H5">
-        <v>0.9399106238147177</v>
+        <v>40.96460178716413</v>
       </c>
       <c r="I5">
-        <v>1.393692169961967</v>
+        <v>1285.207326904356</v>
       </c>
       <c r="J5">
-        <v>0.8645308140604342</v>
+        <v>113.3229090986502</v>
       </c>
       <c r="K5">
-        <v>1.879821247629435</v>
-      </c>
-      <c r="L5" t="s">
-        <v>48</v>
+        <v>0.9399097522081808</v>
+      </c>
+      <c r="L5">
+        <v>1.39369230088992</v>
       </c>
       <c r="M5">
-        <v>1388.414133936664</v>
+        <v>0.8645318907246595</v>
       </c>
       <c r="N5">
-        <v>70.14307655438097</v>
-      </c>
-      <c r="O5">
-        <v>1388.414133936664</v>
+        <v>1.879819504416362</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
       </c>
       <c r="P5">
-        <v>163.121580037642</v>
+        <v>1388.414133624252</v>
       </c>
       <c r="Q5">
-        <v>0.9312427405528417</v>
+        <v>0.0169</v>
+      </c>
+      <c r="R5">
+        <v>70.14301415317594</v>
       </c>
       <c r="S5">
-        <v>1.479038071413782</v>
+        <v>1388.414133624252</v>
       </c>
       <c r="T5">
-        <v>0.4534837476137904</v>
+        <v>163.1214871150182</v>
       </c>
       <c r="U5">
-        <v>1.862485481105683</v>
-      </c>
-      <c r="V5" t="s">
-        <v>48</v>
+        <v>0.9312444907298774</v>
+      </c>
+      <c r="W5">
+        <v>1.479038575760676</v>
+      </c>
+      <c r="X5">
+        <v>0.4534796327869497</v>
+      </c>
+      <c r="Y5">
+        <v>1.862488981459755</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:41">
       <c r="A6" s="1">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C6">
-        <v>102.7402810126489</v>
-      </c>
-      <c r="D6">
-        <v>1286.697274131534</v>
-      </c>
-      <c r="E6">
-        <v>179.7541053896191</v>
+        <v>102.740284421692</v>
       </c>
       <c r="F6">
-        <v>1286.697274131534</v>
-      </c>
-      <c r="G6">
-        <v>235.0842964080052</v>
+        <v>1286.697273112134</v>
       </c>
       <c r="H6">
-        <v>0.6143021627638188</v>
+        <v>179.754188568489</v>
       </c>
       <c r="I6">
-        <v>3.138012607689802</v>
+        <v>1286.697273112134</v>
       </c>
       <c r="J6">
-        <v>3.922805856926281E-06</v>
+        <v>235.0845925216459</v>
       </c>
       <c r="K6">
-        <v>1.228604325527638</v>
-      </c>
-      <c r="L6" t="s">
-        <v>48</v>
+        <v>0.6143016564530625</v>
+      </c>
+      <c r="L6">
+        <v>3.138013454892257</v>
       </c>
       <c r="M6">
-        <v>1389.437605146683</v>
+        <v>8.951887184804885E-06</v>
       </c>
       <c r="N6">
-        <v>289.4253150688157</v>
-      </c>
-      <c r="O6">
-        <v>1389.437555144183</v>
+        <v>1.228603312906125</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
       </c>
       <c r="P6">
-        <v>375.4168516286392</v>
-      </c>
-      <c r="Q6">
-        <v>0.5832455966884921</v>
+        <v>1389.437557533826</v>
+      </c>
+      <c r="R6">
+        <v>289.4251769806399</v>
       </c>
       <c r="S6">
-        <v>2.388095190335898</v>
+        <v>1389.437557533826</v>
       </c>
       <c r="T6">
-        <v>0.1325486634374346</v>
+        <v>375.4165140204407</v>
       </c>
       <c r="U6">
-        <v>1.166491193376984</v>
-      </c>
-      <c r="V6" t="s">
-        <v>48</v>
+        <v>0.5832461042094386</v>
       </c>
       <c r="W6">
-        <v>1266.354250394098</v>
+        <v>2.388093324401749</v>
       </c>
       <c r="X6">
-        <v>15.73253972767692</v>
+        <v>0.1325448254668954</v>
       </c>
       <c r="Y6">
-        <v>0.4902690806448255</v>
-      </c>
-      <c r="Z6">
-        <v>1410.66256548023</v>
+        <v>1.166492208418877</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>52</v>
       </c>
       <c r="AA6">
-        <v>27.73681185648204</v>
+        <v>1266.354250386164</v>
       </c>
       <c r="AB6">
-        <v>0.523115893237507</v>
+        <v>15.73253893340295</v>
+      </c>
+      <c r="AC6">
+        <v>0.4902690424853654</v>
+      </c>
+      <c r="AD6">
+        <v>1410.662565477064</v>
+      </c>
+      <c r="AE6">
+        <v>27.73681343823626</v>
+      </c>
+      <c r="AF6">
+        <v>0.5231159107151119</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:41">
       <c r="A7" s="1">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C7">
-        <v>102.7342436274687</v>
-      </c>
-      <c r="D7">
-        <v>1286.689828123543</v>
-      </c>
-      <c r="E7">
-        <v>244.7409991310795</v>
+        <v>102.7344287471324</v>
       </c>
       <c r="F7">
-        <v>1286.689828123543</v>
-      </c>
-      <c r="G7">
-        <v>311.3186897614474</v>
+        <v>1286.689647749082</v>
       </c>
       <c r="H7">
-        <v>0.596053027992719</v>
+        <v>244.7454716961821</v>
       </c>
       <c r="I7">
-        <v>3.751447625275959</v>
+        <v>1286.689647749082</v>
       </c>
       <c r="J7">
-        <v>3.042522472851417E-08</v>
+        <v>311.3122487805269</v>
       </c>
       <c r="K7">
-        <v>1.192106055985438</v>
-      </c>
-      <c r="L7" t="s">
-        <v>48</v>
+        <v>0.5960299288057617</v>
+      </c>
+      <c r="L7">
+        <v>3.751437437923479</v>
       </c>
       <c r="M7">
-        <v>1389.424071751012</v>
+        <v>1.231682311697568E-09</v>
       </c>
       <c r="N7">
-        <v>384.6853075842572</v>
-      </c>
-      <c r="O7">
-        <v>1389.424071751012</v>
+        <v>1.192059857611523</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
       </c>
       <c r="P7">
-        <v>488.5904799753348</v>
-      </c>
-      <c r="Q7">
-        <v>0.5863384414163184</v>
+        <v>1389.424076496214</v>
+      </c>
+      <c r="R7">
+        <v>384.6837429745495</v>
       </c>
       <c r="S7">
-        <v>2.588602450702043</v>
+        <v>1389.424076496214</v>
       </c>
       <c r="T7">
-        <v>0.05331761571145771</v>
+        <v>488.5841710592585</v>
       </c>
       <c r="U7">
-        <v>1.172676882832637</v>
-      </c>
-      <c r="V7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z7">
-        <v>1410.673868960864</v>
-      </c>
-      <c r="AA7">
-        <v>40.13696588130696</v>
-      </c>
-      <c r="AB7">
-        <v>0.5632525618408243</v>
+        <v>0.5863426376693459</v>
+      </c>
+      <c r="W7">
+        <v>2.588572311517293</v>
+      </c>
+      <c r="X7">
+        <v>0.05326882518181963</v>
+      </c>
+      <c r="Y7">
+        <v>1.172685275338692</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD7">
+        <v>1410.673868939362</v>
+      </c>
+      <c r="AE7">
+        <v>40.13698995293061</v>
+      </c>
+      <c r="AF7">
+        <v>0.5632527775292433</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:41">
       <c r="A8" s="1">
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C8">
-        <v>102.7607949734311</v>
-      </c>
-      <c r="D8">
-        <v>1286.675369053052</v>
-      </c>
-      <c r="E8">
-        <v>219.4475586629692</v>
+        <v>102.7607937223599</v>
       </c>
       <c r="F8">
-        <v>1286.675369053052</v>
-      </c>
-      <c r="G8">
-        <v>282.3572163671747</v>
+        <v>1286.675368720068</v>
       </c>
       <c r="H8">
-        <v>0.6043684410303278</v>
+        <v>219.4473792660038</v>
       </c>
       <c r="I8">
-        <v>2.948801587236107</v>
+        <v>1286.675368720068</v>
       </c>
       <c r="J8">
-        <v>2.965838902874163E-05</v>
+        <v>282.3563841015391</v>
       </c>
       <c r="K8">
-        <v>1.208736882060656</v>
-      </c>
-      <c r="L8" t="s">
-        <v>48</v>
+        <v>0.6043693188480909</v>
+      </c>
+      <c r="L8">
+        <v>2.948801548404793</v>
       </c>
       <c r="M8">
-        <v>1389.436164026483</v>
+        <v>1.854432478515244E-05</v>
       </c>
       <c r="N8">
-        <v>347.8882401220964</v>
-      </c>
-      <c r="O8">
-        <v>1389.436164026483</v>
+        <v>1.208738637696182</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
       </c>
       <c r="P8">
-        <v>437.7380965737977</v>
-      </c>
-      <c r="Q8">
-        <v>0.5849199068857931</v>
+        <v>1389.436162442428</v>
+      </c>
+      <c r="R8">
+        <v>347.8865527040284</v>
       </c>
       <c r="S8">
-        <v>2.908561215347174</v>
+        <v>1389.436162442428</v>
       </c>
       <c r="T8">
-        <v>0.03209217192196823</v>
+        <v>437.7304132177886</v>
       </c>
       <c r="U8">
-        <v>1.169839813771586</v>
-      </c>
-      <c r="V8" t="s">
-        <v>48</v>
+        <v>0.5849249351624721</v>
       </c>
       <c r="W8">
-        <v>1266.533833931009</v>
+        <v>2.908561674730605</v>
       </c>
       <c r="X8">
-        <v>17.07576773082874</v>
+        <v>0.03202677972510692</v>
       </c>
       <c r="Y8">
-        <v>0.3739634920505246</v>
-      </c>
-      <c r="Z8">
-        <v>1410.546170622774</v>
+        <v>1.169849870324944</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>52</v>
       </c>
       <c r="AA8">
-        <v>35.32938069338835</v>
+        <v>1266.533833921617</v>
       </c>
       <c r="AB8">
-        <v>0.4978468201046486</v>
+        <v>17.07577147722694</v>
+      </c>
+      <c r="AC8">
+        <v>0.3739635528525677</v>
+      </c>
+      <c r="AD8">
+        <v>1410.546170643479</v>
+      </c>
+      <c r="AE8">
+        <v>35.32941041232148</v>
+      </c>
+      <c r="AF8">
+        <v>0.4978471266495869</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:41">
       <c r="A9" s="1">
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C9">
-        <v>102.7593286123042</v>
-      </c>
-      <c r="D9">
-        <v>1286.683796692701</v>
-      </c>
-      <c r="E9">
-        <v>183.6175203623492</v>
+        <v>102.7593300316576</v>
       </c>
       <c r="F9">
-        <v>1286.683846695201</v>
-      </c>
-      <c r="G9">
-        <v>240.5991343065851</v>
+        <v>1286.683794865585</v>
       </c>
       <c r="H9">
-        <v>0.615497152489644</v>
+        <v>183.6175335147471</v>
       </c>
       <c r="I9">
-        <v>3.126455451941498</v>
+        <v>1286.683844868085</v>
       </c>
       <c r="J9">
-        <v>7.831360560039968E-10</v>
+        <v>240.5991201772796</v>
       </c>
       <c r="K9">
-        <v>1.230994304979288</v>
-      </c>
-      <c r="L9" t="s">
-        <v>48</v>
+        <v>0.6154970698288795</v>
+      </c>
+      <c r="L9">
+        <v>3.126450881943961</v>
       </c>
       <c r="M9">
-        <v>1389.443175307505</v>
+        <v>4.731992575557342E-12</v>
       </c>
       <c r="N9">
-        <v>302.1488015620029</v>
-      </c>
-      <c r="O9">
-        <v>1389.443175307505</v>
+        <v>1.230994139657759</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
       </c>
       <c r="P9">
-        <v>374.1898848161321</v>
-      </c>
-      <c r="Q9">
-        <v>0.5817131914125226</v>
+        <v>1389.443174899743</v>
+      </c>
+      <c r="R9">
+        <v>302.1488060286507</v>
       </c>
       <c r="S9">
-        <v>3.118937624336634</v>
+        <v>1389.443174899743</v>
       </c>
       <c r="T9">
-        <v>3.356439974289138E-07</v>
+        <v>374.1898765344894</v>
       </c>
       <c r="U9">
-        <v>1.163426382825045</v>
-      </c>
-      <c r="V9" t="s">
-        <v>48</v>
+        <v>0.5817131713922268</v>
       </c>
       <c r="W9">
-        <v>1266.530870466901</v>
+        <v>3.118935640652673</v>
       </c>
       <c r="X9">
-        <v>21.7718878744565</v>
+        <v>3.278903103476338E-07</v>
       </c>
       <c r="Y9">
-        <v>0.2060166642225044</v>
-      </c>
-      <c r="Z9">
-        <v>1410.651513792762</v>
+        <v>1.163426342784454</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>52</v>
       </c>
       <c r="AA9">
-        <v>34.29488865421251</v>
+        <v>1266.530887983882</v>
       </c>
       <c r="AB9">
-        <v>0.5690234686596679</v>
+        <v>21.77399805072411</v>
+      </c>
+      <c r="AC9">
+        <v>0.2059511781645531</v>
+      </c>
+      <c r="AD9">
+        <v>1410.651513452937</v>
+      </c>
+      <c r="AE9">
+        <v>34.29471405931879</v>
+      </c>
+      <c r="AF9">
+        <v>0.5690206626720437</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:41">
       <c r="A10" s="1">
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C10">
-        <v>102.7274229591042</v>
-      </c>
-      <c r="D10">
-        <v>1286.707960505638</v>
-      </c>
-      <c r="E10">
-        <v>156.3398592462521</v>
+        <v>102.7274142184758</v>
       </c>
       <c r="F10">
-        <v>1286.707960505638</v>
-      </c>
-      <c r="G10">
-        <v>206.2754417557291</v>
+        <v>1286.707970378455</v>
       </c>
       <c r="H10">
-        <v>0.6197485119756212</v>
+        <v>156.339980188</v>
       </c>
       <c r="I10">
-        <v>3.2573269580191</v>
+        <v>1286.707970378455</v>
       </c>
       <c r="J10">
-        <v>7.769381344946424E-07</v>
+        <v>206.2752964102588</v>
       </c>
       <c r="K10">
-        <v>1.239497023951242</v>
-      </c>
-      <c r="L10" t="s">
-        <v>48</v>
+        <v>0.6197475637298344</v>
+      </c>
+      <c r="L10">
+        <v>3.257320593953438</v>
       </c>
       <c r="M10">
-        <v>1389.435383464742</v>
+        <v>9.378072665655601E-07</v>
       </c>
       <c r="N10">
-        <v>263.964468417115</v>
-      </c>
-      <c r="O10">
-        <v>1389.435383464742</v>
+        <v>1.239495127459669</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
       </c>
       <c r="P10">
-        <v>320.7396726978305</v>
-      </c>
-      <c r="Q10">
-        <v>0.5707485973036259</v>
+        <v>1389.435384596931</v>
+      </c>
+      <c r="R10">
+        <v>263.9644489345742</v>
       </c>
       <c r="S10">
-        <v>2.859713266440016</v>
+        <v>1389.435384596931</v>
       </c>
       <c r="T10">
-        <v>1.065765987517953E-06</v>
+        <v>320.7396948932011</v>
       </c>
       <c r="U10">
-        <v>1.141497194607252</v>
-      </c>
-      <c r="V10" t="s">
-        <v>48</v>
+        <v>0.5707486785020061</v>
       </c>
       <c r="W10">
-        <v>1266.549600043454</v>
+        <v>2.859712937147247</v>
       </c>
       <c r="X10">
-        <v>11.73728325728288</v>
+        <v>1.068066719733807E-06</v>
       </c>
       <c r="Y10">
-        <v>0.5453672363626716</v>
-      </c>
-      <c r="Z10">
-        <v>1410.700525422512</v>
+        <v>1.141497357004012</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>52</v>
       </c>
       <c r="AA10">
-        <v>22.17094733826169</v>
+        <v>1266.549672229989</v>
       </c>
       <c r="AB10">
-        <v>0.6027038545418163</v>
+        <v>11.73720187126326</v>
+      </c>
+      <c r="AC10">
+        <v>0.5453610476135706</v>
+      </c>
+      <c r="AD10">
+        <v>1410.700525422949</v>
+      </c>
+      <c r="AE10">
+        <v>22.17094726271633</v>
+      </c>
+      <c r="AF10">
+        <v>0.6027038539524981</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:41">
       <c r="A11" s="1">
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C11">
-        <v>102.7298203489831</v>
-      </c>
-      <c r="D11">
-        <v>1286.713944028731</v>
-      </c>
-      <c r="E11">
-        <v>131.0455692328856</v>
+        <v>102.7298247865381</v>
       </c>
       <c r="F11">
-        <v>1286.713994031231</v>
-      </c>
-      <c r="G11">
-        <v>171.4691387958712</v>
+        <v>1286.713940153793</v>
       </c>
       <c r="H11">
-        <v>0.6146205149568768</v>
+        <v>131.0455823627496</v>
       </c>
       <c r="I11">
-        <v>3.118193858551845</v>
+        <v>1286.713990156293</v>
       </c>
       <c r="J11">
-        <v>5.085037946273019E-10</v>
+        <v>171.4691224452636</v>
       </c>
       <c r="K11">
-        <v>1.229241029913754</v>
-      </c>
-      <c r="L11" t="s">
-        <v>49</v>
+        <v>0.6146203943286545</v>
+      </c>
+      <c r="L11">
+        <v>3.11817962546073</v>
       </c>
       <c r="M11">
-        <v>1389.443864382715</v>
+        <v>1.682542993819425E-12</v>
       </c>
       <c r="N11">
-        <v>235.0861591634649</v>
-      </c>
-      <c r="O11">
-        <v>1389.443814380214</v>
+        <v>1.229240788657309</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
       </c>
       <c r="P11">
-        <v>289.7773252609957</v>
+        <v>1389.443864945331</v>
       </c>
       <c r="Q11">
-        <v>0.5165663777290347</v>
+        <v>0.01</v>
+      </c>
+      <c r="R11">
+        <v>235.0861067535096</v>
       </c>
       <c r="S11">
-        <v>2.658621376584734</v>
+        <v>1389.443814942831</v>
       </c>
       <c r="T11">
-        <v>0.3345381434362975</v>
+        <v>289.7772566989986</v>
       </c>
       <c r="U11">
-        <v>1.033132755458069</v>
-      </c>
-      <c r="V11" t="s">
-        <v>48</v>
+        <v>0.5165665719519708</v>
       </c>
       <c r="W11">
-        <v>1266.55204368266</v>
+        <v>2.658620603178648</v>
       </c>
       <c r="X11">
-        <v>69.9769075580766</v>
+        <v>0.3345370648658349</v>
       </c>
       <c r="Y11">
-        <v>0.03103087241229526</v>
-      </c>
-      <c r="Z11">
-        <v>1410.631491110385</v>
+        <v>1.033133143903942</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>52</v>
       </c>
       <c r="AA11">
-        <v>39.64166191285292</v>
+        <v>1266.552050644784</v>
       </c>
       <c r="AB11">
-        <v>0.1100342522913852</v>
+        <v>70.26870997826367</v>
+      </c>
+      <c r="AC11">
+        <v>0.03089988779288692</v>
+      </c>
+      <c r="AD11">
+        <v>1410.631491068112</v>
+      </c>
+      <c r="AE11">
+        <v>39.6424889674876</v>
+      </c>
+      <c r="AF11">
+        <v>0.1100313557434581</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:41">
       <c r="A12" s="1">
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C12">
-        <v>102.7581881287265</v>
-      </c>
-      <c r="D12">
-        <v>1286.687409246633</v>
-      </c>
-      <c r="E12">
-        <v>126.454481675824</v>
+        <v>102.7586842829789</v>
       </c>
       <c r="F12">
-        <v>1286.687409246633</v>
-      </c>
-      <c r="G12">
-        <v>158.1418695331345</v>
+        <v>1286.687413588127</v>
       </c>
       <c r="H12">
-        <v>0.5874221741511862</v>
+        <v>126.4544426487209</v>
       </c>
       <c r="I12">
-        <v>2.955459610024593</v>
+        <v>1286.687413588127</v>
       </c>
       <c r="J12">
-        <v>7.037692997258205E-07</v>
+        <v>158.141908208756</v>
       </c>
       <c r="K12">
-        <v>1.174844348302372</v>
-      </c>
-      <c r="L12" t="s">
-        <v>48</v>
+        <v>0.5874225296167552</v>
+      </c>
+      <c r="L12">
+        <v>2.955459024660582</v>
       </c>
       <c r="M12">
-        <v>1389.44564737786</v>
+        <v>5.426375718764476E-07</v>
       </c>
       <c r="N12">
-        <v>204.8660735824206</v>
-      </c>
-      <c r="O12">
-        <v>1389.44559737536</v>
+        <v>1.17484505923351</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
       </c>
       <c r="P12">
-        <v>309.7340318589112</v>
+        <v>1389.446147873606</v>
       </c>
       <c r="Q12">
-        <v>0.5958824012058026</v>
+        <v>0.00717</v>
+      </c>
+      <c r="R12">
+        <v>211.8210346451874</v>
       </c>
       <c r="S12">
-        <v>5.561000219322413</v>
+        <v>1389.446097871106</v>
       </c>
       <c r="T12">
-        <v>0.5</v>
+        <v>265.3400653540119</v>
       </c>
       <c r="U12">
-        <v>1.191764802411605</v>
-      </c>
-      <c r="V12" t="s">
-        <v>48</v>
+        <v>0.5693032392071073</v>
       </c>
       <c r="W12">
-        <v>1266.481495871456</v>
+        <v>2.335936843272801</v>
       </c>
       <c r="X12">
-        <v>10.61903896297515</v>
+        <v>0.1007603033655847</v>
       </c>
       <c r="Y12">
-        <v>0.5447740965601342</v>
-      </c>
-      <c r="Z12">
-        <v>1409.325224823968</v>
+        <v>1.138606478414215</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>52</v>
       </c>
       <c r="AA12">
-        <v>268.9568747265521</v>
+        <v>1266.481495864615</v>
       </c>
       <c r="AB12">
-        <v>0.5653880285285884</v>
+        <v>10.6190389298984</v>
+      </c>
+      <c r="AC12">
+        <v>0.5447740949038139</v>
+      </c>
+      <c r="AD12">
+        <v>1409.46332494961</v>
+      </c>
+      <c r="AE12">
+        <v>268.9300517096462</v>
+      </c>
+      <c r="AF12">
+        <v>0.210743328147854</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:41">
       <c r="A13" s="1">
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C13">
-        <v>102.7278403043522</v>
-      </c>
-      <c r="D13">
-        <v>1286.718186965116</v>
-      </c>
-      <c r="E13">
-        <v>118.6411360232597</v>
+        <v>102.7278406221137</v>
       </c>
       <c r="F13">
-        <v>1286.718186965116</v>
-      </c>
-      <c r="G13">
-        <v>150.6534583416708</v>
+        <v>1286.718187500889</v>
       </c>
       <c r="H13">
-        <v>0.5964602686475035</v>
+        <v>118.6411321064989</v>
       </c>
       <c r="I13">
-        <v>2.920534536588851</v>
+        <v>1286.718187500889</v>
       </c>
       <c r="J13">
-        <v>5.811495231711206E-07</v>
+        <v>150.6534495046155</v>
       </c>
       <c r="K13">
-        <v>1.192920537295007</v>
-      </c>
-      <c r="L13" t="s">
-        <v>48</v>
+        <v>0.596460294537823</v>
+      </c>
+      <c r="L13">
+        <v>2.920535243513777</v>
       </c>
       <c r="M13">
-        <v>1389.446027269468</v>
+        <v>3.669147141116547E-07</v>
       </c>
       <c r="N13">
-        <v>194.3186097687841</v>
-      </c>
-      <c r="O13">
-        <v>1389.446027269468</v>
+        <v>1.192920589075646</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
       </c>
       <c r="P13">
-        <v>237.7380541005352</v>
-      </c>
-      <c r="Q13">
-        <v>0.5694452418518905</v>
+        <v>1389.446028123003</v>
+      </c>
+      <c r="R13">
+        <v>194.3177296967467</v>
       </c>
       <c r="S13">
-        <v>1.948394928771467</v>
+        <v>1389.446028123003</v>
       </c>
       <c r="T13">
-        <v>0.02823084850397373</v>
+        <v>237.7341668814346</v>
       </c>
       <c r="U13">
-        <v>1.138890483703781</v>
-      </c>
-      <c r="V13" t="s">
-        <v>48</v>
+        <v>0.5694497945062282</v>
       </c>
       <c r="W13">
-        <v>1266.483529551993</v>
+        <v>1.948390380303758</v>
       </c>
       <c r="X13">
-        <v>8.16117460168021</v>
+        <v>0.02816992922487804</v>
       </c>
       <c r="Y13">
-        <v>0.4554502180271676</v>
-      </c>
-      <c r="Z13">
-        <v>1410.62509852826</v>
+        <v>1.138899589012456</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>52</v>
       </c>
       <c r="AA13">
-        <v>17.47312992006512</v>
+        <v>1266.483529549702</v>
       </c>
       <c r="AB13">
-        <v>0.4267434662970797</v>
+        <v>8.161176779257946</v>
+      </c>
+      <c r="AC13">
+        <v>0.4554502645993375</v>
+      </c>
+      <c r="AD13">
+        <v>1410.625098483667</v>
+      </c>
+      <c r="AE13">
+        <v>17.47314026587179</v>
+      </c>
+      <c r="AF13">
+        <v>0.4267438307677288</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Examples/Example1a_Gas_Cell_Calibration/Weak_Diads.xlsx
+++ b/docs/Examples/Example1a_Gas_Cell_Calibration/Weak_Diads.xlsx
@@ -669,79 +669,79 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>102.7595141461004</v>
+        <v>102.7595117983112</v>
       </c>
       <c r="F2">
-        <v>1286.620735923774</v>
+        <v>1286.620737404319</v>
       </c>
       <c r="H2">
-        <v>207.8817561817705</v>
+        <v>207.8817385152531</v>
       </c>
       <c r="I2">
-        <v>1286.620785926274</v>
+        <v>1286.620787406819</v>
       </c>
       <c r="J2">
-        <v>295.2300157264214</v>
+        <v>295.2300073768083</v>
       </c>
       <c r="K2">
-        <v>0.6427501022317911</v>
+        <v>0.6427502192020158</v>
       </c>
       <c r="L2">
-        <v>2.221893459812241</v>
+        <v>2.221891541468306</v>
       </c>
       <c r="M2">
-        <v>0.1132368970417175</v>
+        <v>0.1132365231179749</v>
       </c>
       <c r="N2">
-        <v>1.285500204463582</v>
+        <v>1.285500438404032</v>
       </c>
       <c r="O2" t="s">
         <v>52</v>
       </c>
       <c r="P2">
-        <v>1389.380300072374</v>
+        <v>1389.380299205131</v>
       </c>
       <c r="R2">
-        <v>322.5632845200791</v>
+        <v>322.5641439936211</v>
       </c>
       <c r="S2">
-        <v>1389.380300072374</v>
+        <v>1389.380299205131</v>
       </c>
       <c r="T2">
-        <v>429.343581767434</v>
+        <v>429.3469543589114</v>
       </c>
       <c r="U2">
-        <v>0.5958811837336644</v>
+        <v>0.5958784660681932</v>
       </c>
       <c r="W2">
-        <v>2.612733502198658</v>
+        <v>2.612724748616351</v>
       </c>
       <c r="X2">
-        <v>0.1455440339258295</v>
+        <v>0.1455728666524165</v>
       </c>
       <c r="Y2">
-        <v>1.191762367467329</v>
+        <v>1.191756932136386</v>
       </c>
       <c r="Z2" t="s">
         <v>52</v>
       </c>
       <c r="AA2">
-        <v>1266.367676241016</v>
+        <v>1266.367680039435</v>
       </c>
       <c r="AB2">
-        <v>34.25027853170108</v>
+        <v>34.25027280367511</v>
       </c>
       <c r="AC2">
-        <v>1.001057989667587</v>
+        <v>1.001056463350513</v>
       </c>
       <c r="AD2">
-        <v>1410.654918872986</v>
+        <v>1410.654918898971</v>
       </c>
       <c r="AE2">
-        <v>33.1861440443496</v>
+        <v>33.18612783942956</v>
       </c>
       <c r="AF2">
-        <v>0.6152257595700976</v>
+        <v>0.6152255662060914</v>
       </c>
     </row>
     <row r="3" spans="1:41">
@@ -752,70 +752,70 @@
         <v>41</v>
       </c>
       <c r="C3">
-        <v>102.7355534085696</v>
+        <v>102.7355567507564</v>
       </c>
       <c r="D3">
-        <v>0.0402</v>
+        <v>0.0403</v>
       </c>
       <c r="E3">
-        <v>0.03000833217624731</v>
+        <v>0.03009800657850948</v>
       </c>
       <c r="F3">
-        <v>1286.70014027917</v>
+        <v>1286.700136702308</v>
       </c>
       <c r="G3">
-        <v>0.0269</v>
+        <v>0.027</v>
       </c>
       <c r="H3">
-        <v>45.64282527467124</v>
+        <v>45.64281534333529</v>
       </c>
       <c r="I3">
-        <v>1286.70014027917</v>
+        <v>1286.700136702308</v>
       </c>
       <c r="J3">
-        <v>69.63416425627916</v>
+        <v>69.63412775329844</v>
       </c>
       <c r="K3">
-        <v>0.7153552459279789</v>
+        <v>0.7153550342876247</v>
       </c>
       <c r="L3">
-        <v>1.685106305891223</v>
+        <v>1.685106245352898</v>
       </c>
       <c r="M3">
-        <v>6.065908997321401E-09</v>
+        <v>5.532336089242307E-09</v>
       </c>
       <c r="N3">
-        <v>1.430710491855958</v>
+        <v>1.430710068575249</v>
       </c>
       <c r="O3" t="s">
         <v>52</v>
       </c>
       <c r="P3">
-        <v>1389.435693687739</v>
+        <v>1389.435693453064</v>
       </c>
       <c r="Q3">
         <v>0.0133</v>
       </c>
       <c r="R3">
-        <v>84.35585002081419</v>
+        <v>84.35581996409388</v>
       </c>
       <c r="S3">
-        <v>1389.435693687739</v>
+        <v>1389.435693453064</v>
       </c>
       <c r="T3">
-        <v>111.8630278614423</v>
+        <v>111.8629818339991</v>
       </c>
       <c r="U3">
-        <v>0.5650094785283319</v>
+        <v>0.5650098694787026</v>
       </c>
       <c r="W3">
-        <v>1.582587130533001</v>
+        <v>1.582587198539529</v>
       </c>
       <c r="X3">
-        <v>0.2751545929675683</v>
+        <v>0.2751524849878954</v>
       </c>
       <c r="Y3">
-        <v>1.130018957056664</v>
+        <v>1.130019738957405</v>
       </c>
       <c r="Z3" t="s">
         <v>52</v>
@@ -829,79 +829,79 @@
         <v>42</v>
       </c>
       <c r="C4">
-        <v>102.6856286361515</v>
+        <v>102.6856267687576</v>
       </c>
       <c r="F4">
-        <v>1286.704093144254</v>
+        <v>1286.704097888686</v>
       </c>
       <c r="H4">
-        <v>62.56099390287866</v>
+        <v>62.56098561358269</v>
       </c>
       <c r="I4">
-        <v>1286.704143146754</v>
+        <v>1286.704147891186</v>
       </c>
       <c r="J4">
-        <v>85.41035396615013</v>
+        <v>85.41037465316556</v>
       </c>
       <c r="K4">
-        <v>0.6413275387094464</v>
+        <v>0.6413277855567757</v>
       </c>
       <c r="L4">
-        <v>1.956682642541721</v>
+        <v>1.956687433815756</v>
       </c>
       <c r="M4">
-        <v>6.541435726425959E-10</v>
+        <v>2.098151652418778E-10</v>
       </c>
       <c r="N4">
-        <v>1.282655077418893</v>
+        <v>1.282655571113551</v>
       </c>
       <c r="O4" t="s">
         <v>52</v>
       </c>
       <c r="P4">
-        <v>1389.389771782906</v>
+        <v>1389.389774659943</v>
       </c>
       <c r="R4">
-        <v>96.67238875335973</v>
+        <v>96.67238581219877</v>
       </c>
       <c r="S4">
-        <v>1389.389771782906</v>
+        <v>1389.389774659943</v>
       </c>
       <c r="T4">
-        <v>126.5951517486812</v>
+        <v>126.5951554945817</v>
       </c>
       <c r="U4">
-        <v>0.615109473575003</v>
+        <v>0.6151095104881718</v>
       </c>
       <c r="W4">
-        <v>2.194363076838713</v>
+        <v>2.194409495269464</v>
       </c>
       <c r="X4">
-        <v>5.551115123125783E-17</v>
+        <v>1.281313943835016E-11</v>
       </c>
       <c r="Y4">
-        <v>1.230218947150006</v>
+        <v>1.230219020976344</v>
       </c>
       <c r="Z4" t="s">
         <v>52</v>
       </c>
       <c r="AA4">
-        <v>1266.029829580686</v>
+        <v>1266.029835666482</v>
       </c>
       <c r="AB4">
-        <v>14.88961620602245</v>
+        <v>14.89011088232588</v>
       </c>
       <c r="AC4">
-        <v>0.4576837260658406</v>
+        <v>0.4577251654776854</v>
       </c>
       <c r="AD4">
-        <v>1410.697708843437</v>
+        <v>1410.647184020592</v>
       </c>
       <c r="AE4">
-        <v>5.534593809250081</v>
+        <v>6.588675420074476</v>
       </c>
       <c r="AF4">
-        <v>0.3527967635212193</v>
+        <v>0.2118069405260522</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -912,70 +912,70 @@
         <v>43</v>
       </c>
       <c r="C5">
-        <v>103.2068067198957</v>
+        <v>103.206810658724</v>
       </c>
       <c r="D5">
-        <v>0.0471</v>
+        <v>0.0466</v>
       </c>
       <c r="E5">
-        <v>0.03460708020044453</v>
+        <v>0.03428644046850008</v>
       </c>
       <c r="F5">
-        <v>1285.207326904356</v>
+        <v>1285.207328703511</v>
       </c>
       <c r="G5">
-        <v>0.0302</v>
+        <v>0.03</v>
       </c>
       <c r="H5">
-        <v>40.96460178716413</v>
+        <v>40.96466100919585</v>
       </c>
       <c r="I5">
-        <v>1285.207326904356</v>
+        <v>1285.207328703511</v>
       </c>
       <c r="J5">
-        <v>113.3229090986502</v>
+        <v>113.3229769841325</v>
       </c>
       <c r="K5">
-        <v>0.9399097522081808</v>
+        <v>0.9399065423014198</v>
       </c>
       <c r="L5">
-        <v>1.39369230088992</v>
+        <v>1.393692551179541</v>
       </c>
       <c r="M5">
-        <v>0.8645318907246595</v>
+        <v>0.8645376077129181</v>
       </c>
       <c r="N5">
-        <v>1.879819504416362</v>
+        <v>1.87981308460284</v>
       </c>
       <c r="O5" t="s">
         <v>52</v>
       </c>
       <c r="P5">
-        <v>1388.414133624252</v>
+        <v>1388.414139362235</v>
       </c>
       <c r="Q5">
-        <v>0.0169</v>
+        <v>0.0166</v>
       </c>
       <c r="R5">
-        <v>70.14301415317594</v>
+        <v>70.14314137756756</v>
       </c>
       <c r="S5">
-        <v>1388.414133624252</v>
+        <v>1388.414139362235</v>
       </c>
       <c r="T5">
-        <v>163.1214871150182</v>
+        <v>163.1216465373728</v>
       </c>
       <c r="U5">
-        <v>0.9312444907298774</v>
+        <v>0.9312409235121601</v>
       </c>
       <c r="W5">
-        <v>1.479038575760676</v>
+        <v>1.47903532518715</v>
       </c>
       <c r="X5">
-        <v>0.4534796327869497</v>
+        <v>0.4534875390176374</v>
       </c>
       <c r="Y5">
-        <v>1.862488981459755</v>
+        <v>1.86248184702432</v>
       </c>
       <c r="Z5" t="s">
         <v>52</v>
@@ -989,79 +989,79 @@
         <v>44</v>
       </c>
       <c r="C6">
-        <v>102.740284421692</v>
+        <v>102.74028133866</v>
       </c>
       <c r="F6">
-        <v>1286.697273112134</v>
+        <v>1286.697274484526</v>
       </c>
       <c r="H6">
-        <v>179.754188568489</v>
+        <v>179.7541085179101</v>
       </c>
       <c r="I6">
-        <v>1286.697273112134</v>
+        <v>1286.697274484526</v>
       </c>
       <c r="J6">
-        <v>235.0845925216459</v>
+        <v>235.0843298804039</v>
       </c>
       <c r="K6">
-        <v>0.6143016564530625</v>
+        <v>0.6143021487950119</v>
       </c>
       <c r="L6">
-        <v>3.138013454892257</v>
+        <v>3.138012664994625</v>
       </c>
       <c r="M6">
-        <v>8.951887184804885E-06</v>
+        <v>4.381082892468413E-06</v>
       </c>
       <c r="N6">
-        <v>1.228603312906125</v>
+        <v>1.228604297590024</v>
       </c>
       <c r="O6" t="s">
         <v>52</v>
       </c>
       <c r="P6">
-        <v>1389.437557533826</v>
+        <v>1389.437555823186</v>
       </c>
       <c r="R6">
-        <v>289.4251769806399</v>
+        <v>289.4246075102411</v>
       </c>
       <c r="S6">
-        <v>1389.437557533826</v>
+        <v>1389.437555823186</v>
       </c>
       <c r="T6">
-        <v>375.4165140204407</v>
+        <v>375.413972933329</v>
       </c>
       <c r="U6">
-        <v>0.5832461042094386</v>
+        <v>0.5832480321961968</v>
       </c>
       <c r="W6">
-        <v>2.388093324401749</v>
+        <v>2.388080335394699</v>
       </c>
       <c r="X6">
-        <v>0.1325448254668954</v>
+        <v>0.1325207501273606</v>
       </c>
       <c r="Y6">
-        <v>1.166492208418877</v>
+        <v>1.166496064392394</v>
       </c>
       <c r="Z6" t="s">
         <v>52</v>
       </c>
       <c r="AA6">
-        <v>1266.354250386164</v>
+        <v>1266.354250392434</v>
       </c>
       <c r="AB6">
-        <v>15.73253893340295</v>
+        <v>15.73253961036479</v>
       </c>
       <c r="AC6">
-        <v>0.4902690424853654</v>
+        <v>0.4902690788938933</v>
       </c>
       <c r="AD6">
-        <v>1410.662565477064</v>
+        <v>1410.662565471161</v>
       </c>
       <c r="AE6">
-        <v>27.73681343823626</v>
+        <v>27.73682632238576</v>
       </c>
       <c r="AF6">
-        <v>0.5231159107151119</v>
+        <v>0.5231160349698125</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1072,70 +1072,73 @@
         <v>45</v>
       </c>
       <c r="C7">
-        <v>102.7344287471324</v>
+        <v>102.7342501215824</v>
       </c>
       <c r="F7">
-        <v>1286.689647749082</v>
+        <v>1286.689829391017</v>
+      </c>
+      <c r="G7">
+        <v>0.008800000000000001</v>
       </c>
       <c r="H7">
-        <v>244.7454716961821</v>
+        <v>244.7406157325909</v>
       </c>
       <c r="I7">
-        <v>1286.689647749082</v>
+        <v>1286.689829391017</v>
       </c>
       <c r="J7">
-        <v>311.3122487805269</v>
+        <v>311.318737851742</v>
       </c>
       <c r="K7">
-        <v>0.5960299288057617</v>
+        <v>0.5960540565537429</v>
       </c>
       <c r="L7">
-        <v>3.751437437923479</v>
+        <v>3.751446937461491</v>
       </c>
       <c r="M7">
-        <v>1.231682311697568E-09</v>
+        <v>4.752461202350844E-10</v>
       </c>
       <c r="N7">
-        <v>1.192059857611523</v>
+        <v>1.192108113107486</v>
       </c>
       <c r="O7" t="s">
         <v>52</v>
       </c>
       <c r="P7">
-        <v>1389.424076496214</v>
+        <v>1389.4240795126</v>
       </c>
       <c r="R7">
-        <v>384.6837429745495</v>
+        <v>384.6821077008112</v>
       </c>
       <c r="S7">
-        <v>1389.424076496214</v>
+        <v>1389.4240795126</v>
       </c>
       <c r="T7">
-        <v>488.5841710592585</v>
+        <v>488.5773488707997</v>
       </c>
       <c r="U7">
-        <v>0.5863426376693459</v>
+        <v>0.5863470122268218</v>
       </c>
       <c r="W7">
-        <v>2.588572311517293</v>
+        <v>2.588541514345134</v>
       </c>
       <c r="X7">
-        <v>0.05326882518181963</v>
+        <v>0.05321646323705448</v>
       </c>
       <c r="Y7">
-        <v>1.172685275338692</v>
+        <v>1.172694024453644</v>
       </c>
       <c r="Z7" t="s">
         <v>52</v>
       </c>
       <c r="AD7">
-        <v>1410.673868939362</v>
+        <v>1410.673868916109</v>
       </c>
       <c r="AE7">
-        <v>40.13698995293061</v>
+        <v>40.13701710380058</v>
       </c>
       <c r="AF7">
-        <v>0.5632527775292433</v>
+        <v>0.5632530031482178</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -1146,79 +1149,79 @@
         <v>46</v>
       </c>
       <c r="C8">
-        <v>102.7607937223599</v>
+        <v>102.760787536266</v>
       </c>
       <c r="F8">
-        <v>1286.675368720068</v>
+        <v>1286.67537639385</v>
       </c>
       <c r="H8">
-        <v>219.4473792660038</v>
+        <v>219.4474478349248</v>
       </c>
       <c r="I8">
-        <v>1286.675368720068</v>
+        <v>1286.67537639385</v>
       </c>
       <c r="J8">
-        <v>282.3563841015391</v>
+        <v>282.3569888682109</v>
       </c>
       <c r="K8">
-        <v>0.6043693188480909</v>
+        <v>0.6043690226795304</v>
       </c>
       <c r="L8">
-        <v>2.948801548404793</v>
+        <v>2.948797367900801</v>
       </c>
       <c r="M8">
-        <v>1.854432478515244E-05</v>
+        <v>2.573991473980852E-05</v>
       </c>
       <c r="N8">
-        <v>1.208738637696182</v>
+        <v>1.208738045359061</v>
       </c>
       <c r="O8" t="s">
         <v>52</v>
       </c>
       <c r="P8">
-        <v>1389.436162442428</v>
+        <v>1389.436163930116</v>
       </c>
       <c r="R8">
-        <v>347.8865527040284</v>
+        <v>347.8871805667172</v>
       </c>
       <c r="S8">
-        <v>1389.436162442428</v>
+        <v>1389.436163930116</v>
       </c>
       <c r="T8">
-        <v>437.7304132177886</v>
+        <v>437.7333322961238</v>
       </c>
       <c r="U8">
-        <v>0.5849249351624721</v>
+        <v>0.5849230651942121</v>
       </c>
       <c r="W8">
-        <v>2.908561674730605</v>
+        <v>2.908566136203752</v>
       </c>
       <c r="X8">
-        <v>0.03202677972510692</v>
+        <v>0.03205152865066385</v>
       </c>
       <c r="Y8">
-        <v>1.169849870324944</v>
+        <v>1.169846130388424</v>
       </c>
       <c r="Z8" t="s">
         <v>52</v>
       </c>
       <c r="AA8">
-        <v>1266.533833921617</v>
+        <v>1266.533833906227</v>
       </c>
       <c r="AB8">
-        <v>17.07577147722694</v>
+        <v>17.07576932718324</v>
       </c>
       <c r="AC8">
-        <v>0.3739635528525677</v>
+        <v>0.3739635671801887</v>
       </c>
       <c r="AD8">
-        <v>1410.546170643479</v>
+        <v>1410.546170629767</v>
       </c>
       <c r="AE8">
-        <v>35.32941041232148</v>
+        <v>35.32939876182051</v>
       </c>
       <c r="AF8">
-        <v>0.4978471266495869</v>
+        <v>0.4978470048001869</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -1229,79 +1232,79 @@
         <v>47</v>
       </c>
       <c r="C9">
-        <v>102.7593300316576</v>
+        <v>102.759339140453</v>
       </c>
       <c r="F9">
-        <v>1286.683794865585</v>
+        <v>1286.683841246617</v>
       </c>
       <c r="H9">
-        <v>183.6175335147471</v>
+        <v>183.6164527259793</v>
       </c>
       <c r="I9">
-        <v>1286.683844868085</v>
+        <v>1286.683841246617</v>
       </c>
       <c r="J9">
-        <v>240.5991201772796</v>
+        <v>240.6090760932128</v>
       </c>
       <c r="K9">
-        <v>0.6154970698288795</v>
+        <v>0.6155141153018872</v>
       </c>
       <c r="L9">
-        <v>3.126450881943961</v>
+        <v>3.07169820709617</v>
       </c>
       <c r="M9">
-        <v>4.731992575557342E-12</v>
+        <v>1.341361802575936E-06</v>
       </c>
       <c r="N9">
-        <v>1.230994139657759</v>
+        <v>1.231028230603774</v>
       </c>
       <c r="O9" t="s">
         <v>52</v>
       </c>
       <c r="P9">
-        <v>1389.443174899743</v>
+        <v>1389.44318038707</v>
       </c>
       <c r="R9">
-        <v>302.1488060286507</v>
+        <v>302.1487620445769</v>
       </c>
       <c r="S9">
-        <v>1389.443174899743</v>
+        <v>1389.44318038707</v>
       </c>
       <c r="T9">
-        <v>374.1898765344894</v>
+        <v>374.1899409801232</v>
       </c>
       <c r="U9">
-        <v>0.5817131713922268</v>
+        <v>0.5817132927133599</v>
       </c>
       <c r="W9">
-        <v>3.118935640652673</v>
+        <v>3.118956508404149</v>
       </c>
       <c r="X9">
-        <v>3.278903103476338E-07</v>
+        <v>6.667862646470013E-07</v>
       </c>
       <c r="Y9">
-        <v>1.163426342784454</v>
+        <v>1.16342658542672</v>
       </c>
       <c r="Z9" t="s">
         <v>52</v>
       </c>
       <c r="AA9">
-        <v>1266.530887983882</v>
+        <v>1266.373141341996</v>
       </c>
       <c r="AB9">
-        <v>21.77399805072411</v>
+        <v>19.20339793568952</v>
       </c>
       <c r="AC9">
-        <v>0.2059511781645531</v>
+        <v>0.5751141163809599</v>
       </c>
       <c r="AD9">
-        <v>1410.651513452937</v>
+        <v>1410.651508712812</v>
       </c>
       <c r="AE9">
-        <v>34.29471405931879</v>
+        <v>34.2937202628027</v>
       </c>
       <c r="AF9">
-        <v>0.5690206626720437</v>
+        <v>0.5690067392665132</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -1312,79 +1315,79 @@
         <v>48</v>
       </c>
       <c r="C10">
-        <v>102.7274142184758</v>
+        <v>102.7274352336294</v>
       </c>
       <c r="F10">
-        <v>1286.707970378455</v>
+        <v>1286.707956447115</v>
       </c>
       <c r="H10">
-        <v>156.339980188</v>
+        <v>156.3397980495265</v>
       </c>
       <c r="I10">
-        <v>1286.707970378455</v>
+        <v>1286.707956447115</v>
       </c>
       <c r="J10">
-        <v>206.2752964102588</v>
+        <v>206.275458025829</v>
       </c>
       <c r="K10">
-        <v>0.6197475637298344</v>
+        <v>0.6197489586579122</v>
       </c>
       <c r="L10">
-        <v>3.257320593953438</v>
+        <v>3.257016826506569</v>
       </c>
       <c r="M10">
-        <v>9.378072665655601E-07</v>
+        <v>5.551115123125783E-17</v>
       </c>
       <c r="N10">
-        <v>1.239495127459669</v>
+        <v>1.239497917315824</v>
       </c>
       <c r="O10" t="s">
         <v>52</v>
       </c>
       <c r="P10">
-        <v>1389.435384596931</v>
+        <v>1389.435391680745</v>
       </c>
       <c r="R10">
-        <v>263.9644489345742</v>
+        <v>263.9643198560204</v>
       </c>
       <c r="S10">
-        <v>1389.435384596931</v>
+        <v>1389.435391680745</v>
       </c>
       <c r="T10">
-        <v>320.7396948932011</v>
+        <v>320.7398046133422</v>
       </c>
       <c r="U10">
-        <v>0.5707486785020061</v>
+        <v>0.5707492115237606</v>
       </c>
       <c r="W10">
-        <v>2.859712937147247</v>
+        <v>2.859710756010758</v>
       </c>
       <c r="X10">
-        <v>1.068066719733807E-06</v>
+        <v>7.491157228423084E-07</v>
       </c>
       <c r="Y10">
-        <v>1.141497357004012</v>
+        <v>1.141498423047521</v>
       </c>
       <c r="Z10" t="s">
         <v>52</v>
       </c>
       <c r="AA10">
-        <v>1266.549672229989</v>
+        <v>1266.551359020218</v>
       </c>
       <c r="AB10">
-        <v>11.73720187126326</v>
+        <v>11.73594367537412</v>
       </c>
       <c r="AC10">
-        <v>0.5453610476135706</v>
+        <v>0.5452405583735599</v>
       </c>
       <c r="AD10">
-        <v>1410.700525422949</v>
+        <v>1410.700525424186</v>
       </c>
       <c r="AE10">
-        <v>22.17094726271633</v>
+        <v>22.17094744279638</v>
       </c>
       <c r="AF10">
-        <v>0.6027038539524981</v>
+        <v>0.6027039121659933</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -1395,82 +1398,82 @@
         <v>49</v>
       </c>
       <c r="C11">
-        <v>102.7298247865381</v>
+        <v>102.7298052377839</v>
       </c>
       <c r="F11">
-        <v>1286.713940153793</v>
+        <v>1286.713955849104</v>
       </c>
       <c r="H11">
-        <v>131.0455823627496</v>
+        <v>131.0450363498051</v>
       </c>
       <c r="I11">
-        <v>1286.713990156293</v>
+        <v>1286.714005851604</v>
       </c>
       <c r="J11">
-        <v>171.4691224452636</v>
+        <v>171.4739003427869</v>
       </c>
       <c r="K11">
-        <v>0.6146203943286545</v>
+        <v>0.6146321057309264</v>
       </c>
       <c r="L11">
-        <v>3.11817962546073</v>
+        <v>3.105422407102474</v>
       </c>
       <c r="M11">
-        <v>1.682542993819425E-12</v>
+        <v>5.813018177924789E-09</v>
       </c>
       <c r="N11">
-        <v>1.229240788657309</v>
+        <v>1.229264211461853</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P11">
-        <v>1389.443864945331</v>
+        <v>1389.443811089388</v>
       </c>
       <c r="Q11">
-        <v>0.01</v>
+        <v>0.00607</v>
       </c>
       <c r="R11">
-        <v>235.0861067535096</v>
+        <v>235.0956129133607</v>
       </c>
       <c r="S11">
-        <v>1389.443814942831</v>
+        <v>1389.443811089388</v>
       </c>
       <c r="T11">
-        <v>289.7772566989986</v>
+        <v>289.8139099591037</v>
       </c>
       <c r="U11">
-        <v>0.5165665719519708</v>
+        <v>0.5165366818131636</v>
       </c>
       <c r="W11">
-        <v>2.658620603178648</v>
+        <v>2.608018924124824</v>
       </c>
       <c r="X11">
-        <v>0.3345370648658349</v>
+        <v>0.3348989353482602</v>
       </c>
       <c r="Y11">
-        <v>1.033133143903942</v>
+        <v>1.033073363626327</v>
       </c>
       <c r="Z11" t="s">
         <v>52</v>
       </c>
       <c r="AA11">
-        <v>1266.552050644784</v>
+        <v>1266.571750547651</v>
       </c>
       <c r="AB11">
-        <v>70.26870997826367</v>
+        <v>26.24523377974807</v>
       </c>
       <c r="AC11">
-        <v>0.03089988779288692</v>
+        <v>0.1564675051017412</v>
       </c>
       <c r="AD11">
-        <v>1410.631491068112</v>
+        <v>1410.669148494898</v>
       </c>
       <c r="AE11">
-        <v>39.6424889674876</v>
+        <v>23.11251176129749</v>
       </c>
       <c r="AF11">
-        <v>0.1100313557434581</v>
+        <v>0.5396764877014472</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -1481,82 +1484,82 @@
         <v>50</v>
       </c>
       <c r="C12">
-        <v>102.7586842829789</v>
+        <v>102.758662634727</v>
       </c>
       <c r="F12">
-        <v>1286.687413588127</v>
+        <v>1286.687399168587</v>
       </c>
       <c r="H12">
-        <v>126.4544426487209</v>
+        <v>126.4546076807516</v>
       </c>
       <c r="I12">
-        <v>1286.687413588127</v>
+        <v>1286.687399168587</v>
       </c>
       <c r="J12">
-        <v>158.141908208756</v>
+        <v>158.1418998726617</v>
       </c>
       <c r="K12">
-        <v>0.5874225296167552</v>
+        <v>0.5874211668441253</v>
       </c>
       <c r="L12">
-        <v>2.955459024660582</v>
+        <v>2.955464845229159</v>
       </c>
       <c r="M12">
-        <v>5.426375718764476E-07</v>
+        <v>3.527499269129208E-06</v>
       </c>
       <c r="N12">
-        <v>1.17484505923351</v>
+        <v>1.174842333688251</v>
       </c>
       <c r="O12" t="s">
         <v>52</v>
       </c>
       <c r="P12">
-        <v>1389.446147873606</v>
+        <v>1389.446111805815</v>
       </c>
       <c r="Q12">
-        <v>0.00717</v>
+        <v>0.0071</v>
       </c>
       <c r="R12">
-        <v>211.8210346451874</v>
+        <v>211.8332408745676</v>
       </c>
       <c r="S12">
-        <v>1389.446097871106</v>
+        <v>1389.446061803314</v>
       </c>
       <c r="T12">
-        <v>265.3400653540119</v>
+        <v>265.4407204273799</v>
       </c>
       <c r="U12">
-        <v>0.5693032392071073</v>
+        <v>0.5692008961296939</v>
       </c>
       <c r="W12">
-        <v>2.335936843272801</v>
+        <v>2.332051626415651</v>
       </c>
       <c r="X12">
-        <v>0.1007603033655847</v>
+        <v>0.1022654607216857</v>
       </c>
       <c r="Y12">
-        <v>1.138606478414215</v>
+        <v>1.138401792259388</v>
       </c>
       <c r="Z12" t="s">
         <v>52</v>
       </c>
       <c r="AA12">
-        <v>1266.481495864615</v>
+        <v>1266.481609709411</v>
       </c>
       <c r="AB12">
-        <v>10.6190389298984</v>
+        <v>10.6160639919987</v>
       </c>
       <c r="AC12">
-        <v>0.5447740949038139</v>
+        <v>0.5446049395078415</v>
       </c>
       <c r="AD12">
-        <v>1409.46332494961</v>
+        <v>1409.462615013279</v>
       </c>
       <c r="AE12">
-        <v>268.9300517096462</v>
+        <v>268.5158073942789</v>
       </c>
       <c r="AF12">
-        <v>0.210743328147854</v>
+        <v>0.2114869063391098</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -1567,79 +1570,79 @@
         <v>51</v>
       </c>
       <c r="C13">
-        <v>102.7278406221137</v>
+        <v>102.7278459989996</v>
       </c>
       <c r="F13">
-        <v>1286.718187500889</v>
+        <v>1286.71813166911</v>
       </c>
       <c r="H13">
-        <v>118.6411321064989</v>
+        <v>118.6414921955403</v>
       </c>
       <c r="I13">
-        <v>1286.718187500889</v>
+        <v>1286.71818167161</v>
       </c>
       <c r="J13">
-        <v>150.6534495046155</v>
+        <v>150.6503697311584</v>
       </c>
       <c r="K13">
-        <v>0.596460294537823</v>
+        <v>0.5964519976875798</v>
       </c>
       <c r="L13">
-        <v>2.920535243513777</v>
+        <v>2.938489529290651</v>
       </c>
       <c r="M13">
-        <v>3.669147141116547E-07</v>
+        <v>4.173111856076162E-10</v>
       </c>
       <c r="N13">
-        <v>1.192920589075646</v>
+        <v>1.19290399537516</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P13">
-        <v>1389.446028123003</v>
+        <v>1389.446027670609</v>
       </c>
       <c r="R13">
-        <v>194.3177296967467</v>
+        <v>194.318971871589</v>
       </c>
       <c r="S13">
-        <v>1389.446028123003</v>
+        <v>1389.446027670609</v>
       </c>
       <c r="T13">
-        <v>237.7341668814346</v>
+        <v>237.7396916867584</v>
       </c>
       <c r="U13">
-        <v>0.5694497945062282</v>
+        <v>0.5694433866066606</v>
       </c>
       <c r="W13">
-        <v>1.948390380303758</v>
+        <v>1.948396685359428</v>
       </c>
       <c r="X13">
-        <v>0.02816992922487804</v>
+        <v>0.02825631022199204</v>
       </c>
       <c r="Y13">
-        <v>1.138899589012456</v>
+        <v>1.138886773213321</v>
       </c>
       <c r="Z13" t="s">
         <v>52</v>
       </c>
       <c r="AA13">
-        <v>1266.483529549702</v>
+        <v>1266.562765140663</v>
       </c>
       <c r="AB13">
-        <v>8.161176779257946</v>
+        <v>47.91626601438467</v>
       </c>
       <c r="AC13">
-        <v>0.4554502645993375</v>
+        <v>0.02986083828304443</v>
       </c>
       <c r="AD13">
-        <v>1410.625098483667</v>
+        <v>1410.625098543999</v>
       </c>
       <c r="AE13">
-        <v>17.47314026587179</v>
+        <v>17.47312431683904</v>
       </c>
       <c r="AF13">
-        <v>0.4267438307677288</v>
+        <v>0.4267433569605878</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Examples/Example1a_Gas_Cell_Calibration/Weak_Diads.xlsx
+++ b/docs/Examples/Example1a_Gas_Cell_Calibration/Weak_Diads.xlsx
@@ -175,7 +175,7 @@
     <t>Flagged Warnings:</t>
   </si>
   <si>
-    <t>Flagged Warnings: HB1_LowSigma HB1_HighAmp</t>
+    <t>Flagged Warnings: No Error</t>
   </si>
 </sst>
 </file>
@@ -669,79 +669,85 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>102.7595117983112</v>
+        <v>102.759488727824</v>
+      </c>
+      <c r="D2">
+        <v>0.01700636429314758</v>
+      </c>
+      <c r="E2">
+        <v>0.01203867778235281</v>
       </c>
       <c r="F2">
-        <v>1286.620737404319</v>
+        <v>1286.620747290223</v>
+      </c>
+      <c r="G2">
+        <v>0.008904149421854907</v>
       </c>
       <c r="H2">
-        <v>207.8817385152531</v>
+        <v>207.8816754167087</v>
       </c>
       <c r="I2">
-        <v>1286.620787406819</v>
+        <v>1286.620797292723</v>
       </c>
       <c r="J2">
-        <v>295.2300073768083</v>
+        <v>295.2300478297261</v>
       </c>
       <c r="K2">
-        <v>0.6427502192020158</v>
+        <v>0.6427506593354835</v>
       </c>
       <c r="L2">
-        <v>2.221891541468306</v>
+        <v>2.221880731969836</v>
       </c>
       <c r="M2">
-        <v>0.1132365231179749</v>
+        <v>0.1132357989236307</v>
       </c>
       <c r="N2">
-        <v>1.285500438404032</v>
+        <v>1.285501318670967</v>
       </c>
       <c r="O2" t="s">
         <v>52</v>
       </c>
       <c r="P2">
-        <v>1389.380299205131</v>
+        <v>1389.380286020547</v>
+      </c>
+      <c r="Q2">
+        <v>0.008102214871292668</v>
       </c>
       <c r="R2">
-        <v>322.5641439936211</v>
+        <v>323.3896035716401</v>
       </c>
       <c r="S2">
-        <v>1389.380299205131</v>
+        <v>1389.380286020547</v>
       </c>
       <c r="T2">
-        <v>429.3469543589114</v>
+        <v>434.7075866717806</v>
       </c>
       <c r="U2">
-        <v>0.5958784660681932</v>
+        <v>0.5937769230219699</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>2.612724748616351</v>
+        <v>2.92989190678327</v>
       </c>
       <c r="X2">
-        <v>0.1455728666524165</v>
+        <v>0.1810746596166614</v>
       </c>
       <c r="Y2">
-        <v>1.191756932136386</v>
+        <v>1.18755384604394</v>
       </c>
       <c r="Z2" t="s">
         <v>52</v>
       </c>
       <c r="AA2">
-        <v>1266.367680039435</v>
+        <v>1266.367679775528</v>
       </c>
       <c r="AB2">
-        <v>34.25027280367511</v>
+        <v>34.25026094330259</v>
       </c>
       <c r="AC2">
-        <v>1.001056463350513</v>
-      </c>
-      <c r="AD2">
-        <v>1410.654918898971</v>
-      </c>
-      <c r="AE2">
-        <v>33.18612783942956</v>
-      </c>
-      <c r="AF2">
-        <v>0.6152255662060914</v>
+        <v>1.001057766623396</v>
       </c>
     </row>
     <row r="3" spans="1:41">
@@ -752,70 +758,73 @@
         <v>41</v>
       </c>
       <c r="C3">
-        <v>102.7355567507564</v>
+        <v>102.7355562076571</v>
       </c>
       <c r="D3">
-        <v>0.0403</v>
+        <v>0.04182619887848488</v>
       </c>
       <c r="E3">
-        <v>0.03009800657850948</v>
+        <v>0.03145488787956938</v>
       </c>
       <c r="F3">
-        <v>1286.700136702308</v>
+        <v>1286.70013705244</v>
       </c>
       <c r="G3">
-        <v>0.027</v>
+        <v>0.02848589665047804</v>
       </c>
       <c r="H3">
-        <v>45.64281534333529</v>
+        <v>45.6428136072575</v>
       </c>
       <c r="I3">
-        <v>1286.700136702308</v>
+        <v>1286.70013705244</v>
       </c>
       <c r="J3">
-        <v>69.63412775329844</v>
+        <v>69.63413326385562</v>
       </c>
       <c r="K3">
-        <v>0.7153550342876247</v>
+        <v>0.7153551168605812</v>
       </c>
       <c r="L3">
-        <v>1.685106245352898</v>
+        <v>1.685106250405484</v>
       </c>
       <c r="M3">
-        <v>5.532336089242307E-09</v>
+        <v>5.774065670038908E-09</v>
       </c>
       <c r="N3">
-        <v>1.430710068575249</v>
+        <v>1.430710233721162</v>
       </c>
       <c r="O3" t="s">
         <v>52</v>
       </c>
       <c r="P3">
-        <v>1389.435693453064</v>
+        <v>1389.435693260097</v>
       </c>
       <c r="Q3">
-        <v>0.0133</v>
+        <v>0.01334030222800683</v>
       </c>
       <c r="R3">
-        <v>84.35581996409388</v>
+        <v>84.35585673405524</v>
       </c>
       <c r="S3">
-        <v>1389.435693453064</v>
+        <v>1389.435693260097</v>
       </c>
       <c r="T3">
-        <v>111.8629818339991</v>
+        <v>111.8630356430008</v>
       </c>
       <c r="U3">
-        <v>0.5650098694787026</v>
+        <v>0.5650093998242007</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1.582587198539529</v>
+        <v>1.582587096471116</v>
       </c>
       <c r="X3">
-        <v>0.2751524849878954</v>
+        <v>0.2751549582275368</v>
       </c>
       <c r="Y3">
-        <v>1.130019738957405</v>
+        <v>1.130018799648401</v>
       </c>
       <c r="Z3" t="s">
         <v>52</v>
@@ -829,79 +838,76 @@
         <v>42</v>
       </c>
       <c r="C4">
-        <v>102.6856267687576</v>
+        <v>102.6855992771655</v>
+      </c>
+      <c r="D4">
+        <v>0.0395863000794863</v>
+      </c>
+      <c r="E4">
+        <v>0.02817174898886629</v>
       </c>
       <c r="F4">
-        <v>1286.704097888686</v>
+        <v>1286.704213272012</v>
+      </c>
+      <c r="G4">
+        <v>0.02204146764409983</v>
       </c>
       <c r="H4">
-        <v>62.56098561358269</v>
+        <v>62.52395601237291</v>
       </c>
       <c r="I4">
-        <v>1286.704147891186</v>
+        <v>1286.704213272012</v>
       </c>
       <c r="J4">
-        <v>85.41037465316556</v>
+        <v>85.7830367856584</v>
       </c>
       <c r="K4">
-        <v>0.6413277855567757</v>
+        <v>0.6431807383925672</v>
       </c>
       <c r="L4">
-        <v>1.956687433815756</v>
+        <v>2.079424379651842</v>
       </c>
       <c r="M4">
-        <v>2.098151652418778E-10</v>
+        <v>6.398916319039216E-08</v>
       </c>
       <c r="N4">
-        <v>1.282655571113551</v>
+        <v>1.286361476785134</v>
       </c>
       <c r="O4" t="s">
         <v>52</v>
       </c>
       <c r="P4">
-        <v>1389.389774659943</v>
+        <v>1389.389812549177</v>
+      </c>
+      <c r="Q4">
+        <v>0.01754483243538646</v>
       </c>
       <c r="R4">
-        <v>96.67238581219877</v>
+        <v>96.52170514038116</v>
       </c>
       <c r="S4">
-        <v>1389.389774659943</v>
+        <v>1389.389812549177</v>
       </c>
       <c r="T4">
-        <v>126.5951554945817</v>
+        <v>127.8941887927423</v>
       </c>
       <c r="U4">
-        <v>0.6151095104881718</v>
+        <v>0.6194449365778671</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>2.194409495269464</v>
+        <v>2.142561708832046</v>
       </c>
       <c r="X4">
-        <v>1.281313943835016E-11</v>
+        <v>1.875747834834129E-09</v>
       </c>
       <c r="Y4">
-        <v>1.230219020976344</v>
+        <v>1.238889873155734</v>
       </c>
       <c r="Z4" t="s">
         <v>52</v>
-      </c>
-      <c r="AA4">
-        <v>1266.029835666482</v>
-      </c>
-      <c r="AB4">
-        <v>14.89011088232588</v>
-      </c>
-      <c r="AC4">
-        <v>0.4577251654776854</v>
-      </c>
-      <c r="AD4">
-        <v>1410.647184020592</v>
-      </c>
-      <c r="AE4">
-        <v>6.588675420074476</v>
-      </c>
-      <c r="AF4">
-        <v>0.2118069405260522</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -912,70 +918,73 @@
         <v>43</v>
       </c>
       <c r="C5">
-        <v>103.206810658724</v>
+        <v>103.2068065483809</v>
       </c>
       <c r="D5">
-        <v>0.0466</v>
+        <v>0.0472946170456274</v>
       </c>
       <c r="E5">
-        <v>0.03428644046850008</v>
+        <v>0.03488891649976827</v>
       </c>
       <c r="F5">
-        <v>1285.207328703511</v>
+        <v>1285.207333773021</v>
       </c>
       <c r="G5">
-        <v>0.03</v>
+        <v>0.03067746121608884</v>
       </c>
       <c r="H5">
-        <v>40.96466100919585</v>
+        <v>40.96476818598457</v>
       </c>
       <c r="I5">
-        <v>1285.207328703511</v>
+        <v>1285.207333773021</v>
       </c>
       <c r="J5">
-        <v>113.3229769841325</v>
+        <v>113.3230864492769</v>
       </c>
       <c r="K5">
-        <v>0.9399065423014198</v>
+        <v>0.9399007441921636</v>
       </c>
       <c r="L5">
-        <v>1.393692551179541</v>
+        <v>1.393693044088751</v>
       </c>
       <c r="M5">
-        <v>0.8645376077129181</v>
+        <v>0.8645476682774037</v>
       </c>
       <c r="N5">
-        <v>1.87981308460284</v>
+        <v>1.879801488384327</v>
       </c>
       <c r="O5" t="s">
         <v>52</v>
       </c>
       <c r="P5">
-        <v>1388.414139362235</v>
+        <v>1388.414140321402</v>
       </c>
       <c r="Q5">
-        <v>0.0166</v>
+        <v>0.01661715582953856</v>
       </c>
       <c r="R5">
-        <v>70.14314137756756</v>
+        <v>70.14300020930993</v>
       </c>
       <c r="S5">
-        <v>1388.414139362235</v>
+        <v>1388.414140321402</v>
       </c>
       <c r="T5">
-        <v>163.1216465373728</v>
+        <v>163.1214269701559</v>
       </c>
       <c r="U5">
-        <v>0.9312409235121601</v>
+        <v>0.9312448849758083</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>1.47903532518715</v>
+        <v>1.479035737403275</v>
       </c>
       <c r="X5">
-        <v>0.4534875390176374</v>
+        <v>0.4534780741459566</v>
       </c>
       <c r="Y5">
-        <v>1.86248184702432</v>
+        <v>1.862489769951617</v>
       </c>
       <c r="Z5" t="s">
         <v>52</v>
@@ -989,79 +998,85 @@
         <v>44</v>
       </c>
       <c r="C6">
-        <v>102.74028133866</v>
+        <v>102.7400535638137</v>
+      </c>
+      <c r="D6">
+        <v>0.012279461555679</v>
+      </c>
+      <c r="E6">
+        <v>0.008683886320934935</v>
       </c>
       <c r="F6">
-        <v>1286.697274484526</v>
+        <v>1286.697275506042</v>
+      </c>
+      <c r="G6">
+        <v>0.006046742643592262</v>
       </c>
       <c r="H6">
-        <v>179.7541085179101</v>
+        <v>179.7541288309286</v>
       </c>
       <c r="I6">
-        <v>1286.697274484526</v>
+        <v>1286.697275506042</v>
       </c>
       <c r="J6">
-        <v>235.0843298804039</v>
+        <v>235.0844764676349</v>
       </c>
       <c r="K6">
-        <v>0.6143021487950119</v>
+        <v>0.6143020373870589</v>
       </c>
       <c r="L6">
-        <v>3.138012664994625</v>
+        <v>3.138012966572981</v>
       </c>
       <c r="M6">
-        <v>4.381082892468413E-06</v>
+        <v>6.527587780913446E-06</v>
       </c>
       <c r="N6">
-        <v>1.228604297590024</v>
+        <v>1.228604074774118</v>
       </c>
       <c r="O6" t="s">
         <v>52</v>
       </c>
       <c r="P6">
-        <v>1389.437555823186</v>
+        <v>1389.437329069856</v>
+      </c>
+      <c r="Q6">
+        <v>0.006232718912086743</v>
       </c>
       <c r="R6">
-        <v>289.4246075102411</v>
+        <v>290.006191203727</v>
       </c>
       <c r="S6">
-        <v>1389.437555823186</v>
+        <v>1389.437329069856</v>
       </c>
       <c r="T6">
-        <v>375.413972933329</v>
+        <v>379.3411626090142</v>
       </c>
       <c r="U6">
-        <v>0.5832480321961968</v>
+        <v>0.5816713640334403</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>2.388080335394699</v>
+        <v>2.686882185178654</v>
       </c>
       <c r="X6">
-        <v>0.1325207501273606</v>
+        <v>0.1620861707008304</v>
       </c>
       <c r="Y6">
-        <v>1.166496064392394</v>
+        <v>1.163342728066881</v>
       </c>
       <c r="Z6" t="s">
         <v>52</v>
       </c>
       <c r="AA6">
-        <v>1266.354250392434</v>
+        <v>1266.354250388924</v>
       </c>
       <c r="AB6">
-        <v>15.73253961036479</v>
+        <v>15.73254021978991</v>
       </c>
       <c r="AC6">
-        <v>0.4902690788938933</v>
-      </c>
-      <c r="AD6">
-        <v>1410.662565471161</v>
-      </c>
-      <c r="AE6">
-        <v>27.73682632238576</v>
-      </c>
-      <c r="AF6">
-        <v>0.5231160349698125</v>
+        <v>0.4902690603456354</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1072,73 +1087,76 @@
         <v>45</v>
       </c>
       <c r="C7">
-        <v>102.7342501215824</v>
+        <v>102.7341841700854</v>
+      </c>
+      <c r="D7">
+        <v>0.01489178893835922</v>
+      </c>
+      <c r="E7">
+        <v>0.01069378376823456</v>
       </c>
       <c r="F7">
-        <v>1286.689829391017</v>
+        <v>1286.689828647406</v>
       </c>
       <c r="G7">
-        <v>0.008800000000000001</v>
+        <v>0.008763908579392018</v>
       </c>
       <c r="H7">
-        <v>244.7406157325909</v>
+        <v>244.7405949832576</v>
       </c>
       <c r="I7">
-        <v>1286.689829391017</v>
+        <v>1286.689828647406</v>
       </c>
       <c r="J7">
-        <v>311.318737851742</v>
+        <v>311.3188451094823</v>
       </c>
       <c r="K7">
-        <v>0.5960540565537429</v>
+        <v>0.5960543106132401</v>
       </c>
       <c r="L7">
-        <v>3.751446937461491</v>
+        <v>3.751446303086947</v>
       </c>
       <c r="M7">
-        <v>4.752461202350844E-10</v>
+        <v>1.754782930074583E-09</v>
       </c>
       <c r="N7">
-        <v>1.192108113107486</v>
+        <v>1.19210862122648</v>
       </c>
       <c r="O7" t="s">
         <v>52</v>
       </c>
       <c r="P7">
-        <v>1389.4240795126</v>
+        <v>1389.424012817491</v>
+      </c>
+      <c r="Q7">
+        <v>0.006127880358967198</v>
       </c>
       <c r="R7">
-        <v>384.6821077008112</v>
+        <v>385.1044144990192</v>
       </c>
       <c r="S7">
-        <v>1389.4240795126</v>
+        <v>1389.424012817491</v>
       </c>
       <c r="T7">
-        <v>488.5773488707997</v>
+        <v>491.3372303967248</v>
       </c>
       <c r="U7">
-        <v>0.5863470122268218</v>
+        <v>0.5854443127621647</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>2.588541514345134</v>
+        <v>3.092547136975868</v>
       </c>
       <c r="X7">
-        <v>0.05321646323705448</v>
+        <v>0.07013379742628134</v>
       </c>
       <c r="Y7">
-        <v>1.172694024453644</v>
+        <v>1.170888625524329</v>
       </c>
       <c r="Z7" t="s">
         <v>52</v>
-      </c>
-      <c r="AD7">
-        <v>1410.673868916109</v>
-      </c>
-      <c r="AE7">
-        <v>40.13701710380058</v>
-      </c>
-      <c r="AF7">
-        <v>0.5632530031482178</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -1149,79 +1167,85 @@
         <v>46</v>
       </c>
       <c r="C8">
-        <v>102.760787536266</v>
+        <v>102.7607765319449</v>
+      </c>
+      <c r="D8">
+        <v>0.002978303392156865</v>
+      </c>
+      <c r="E8">
+        <v>0.002978303392156865</v>
       </c>
       <c r="F8">
-        <v>1286.67537639385</v>
+        <v>1286.675380917213</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>219.4474478349248</v>
+        <v>219.9336749782716</v>
       </c>
       <c r="I8">
-        <v>1286.67537639385</v>
+        <v>1286.675380917213</v>
       </c>
       <c r="J8">
-        <v>282.3569888682109</v>
+        <v>287.0962389048356</v>
       </c>
       <c r="K8">
-        <v>0.6043690226795304</v>
+        <v>0.6033008331943694</v>
       </c>
       <c r="L8">
-        <v>2.948797367900801</v>
+        <v>3.065414054505084</v>
       </c>
       <c r="M8">
-        <v>2.573991473980852E-05</v>
+        <v>0.04203610722108919</v>
       </c>
       <c r="N8">
-        <v>1.208738045359061</v>
+        <v>1.206601666388739</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8">
-        <v>1389.436163930116</v>
+        <v>1389.436157449158</v>
+      </c>
+      <c r="Q8">
+        <v>0.002978303392156865</v>
       </c>
       <c r="R8">
-        <v>347.8871805667172</v>
+        <v>347.8887883033174</v>
       </c>
       <c r="S8">
-        <v>1389.436163930116</v>
+        <v>1389.436157449158</v>
       </c>
       <c r="T8">
-        <v>437.7333322961238</v>
+        <v>437.7398423560691</v>
       </c>
       <c r="U8">
-        <v>0.5849230651942121</v>
+        <v>0.5849182516501219</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>2.908566136203752</v>
+        <v>2.908524365767789</v>
       </c>
       <c r="X8">
-        <v>0.03205152865066385</v>
+        <v>0.03210826693627733</v>
       </c>
       <c r="Y8">
-        <v>1.169846130388424</v>
+        <v>1.169836503300244</v>
       </c>
       <c r="Z8" t="s">
         <v>52</v>
       </c>
-      <c r="AA8">
-        <v>1266.533833906227</v>
-      </c>
-      <c r="AB8">
-        <v>17.07576932718324</v>
-      </c>
-      <c r="AC8">
-        <v>0.3739635671801887</v>
-      </c>
       <c r="AD8">
-        <v>1410.546170629767</v>
+        <v>1410.546170618303</v>
       </c>
       <c r="AE8">
-        <v>35.32939876182051</v>
+        <v>35.329373001608</v>
       </c>
       <c r="AF8">
-        <v>0.4978470048001869</v>
+        <v>0.4978467489414233</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -1232,79 +1256,94 @@
         <v>47</v>
       </c>
       <c r="C9">
-        <v>102.759339140453</v>
+        <v>102.759339824592</v>
+      </c>
+      <c r="D9">
+        <v>0.01132346262347602</v>
+      </c>
+      <c r="E9">
+        <v>0.008765006006579866</v>
       </c>
       <c r="F9">
-        <v>1286.683841246617</v>
+        <v>1286.683837432701</v>
+      </c>
+      <c r="G9">
+        <v>0.008183132450267132</v>
       </c>
       <c r="H9">
-        <v>183.6164527259793</v>
+        <v>183.6164970473465</v>
       </c>
       <c r="I9">
-        <v>1286.683841246617</v>
+        <v>1286.683837432701</v>
       </c>
       <c r="J9">
-        <v>240.6090760932128</v>
+        <v>240.6091196850258</v>
       </c>
       <c r="K9">
-        <v>0.6155141153018872</v>
+        <v>0.6155138442406235</v>
       </c>
       <c r="L9">
-        <v>3.07169820709617</v>
+        <v>3.071700865154769</v>
       </c>
       <c r="M9">
-        <v>1.341361802575936E-06</v>
+        <v>2.520785401971537E-06</v>
       </c>
       <c r="N9">
-        <v>1.231028230603774</v>
+        <v>1.231027688481247</v>
       </c>
       <c r="O9" t="s">
         <v>52</v>
       </c>
       <c r="P9">
-        <v>1389.44318038707</v>
+        <v>1389.443227259793</v>
+      </c>
+      <c r="Q9">
+        <v>0.003140330173208889</v>
       </c>
       <c r="R9">
-        <v>302.1487620445769</v>
+        <v>302.1507598415413</v>
       </c>
       <c r="S9">
-        <v>1389.44318038707</v>
+        <v>1389.443177257293</v>
       </c>
       <c r="T9">
-        <v>374.1899409801232</v>
+        <v>374.1738743289091</v>
       </c>
       <c r="U9">
-        <v>0.5817132927133599</v>
+        <v>0.5816960636650494</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>3.118956508404149</v>
+        <v>3.196005289867535</v>
       </c>
       <c r="X9">
-        <v>6.667862646470013E-07</v>
+        <v>1.28774279017918E-08</v>
       </c>
       <c r="Y9">
-        <v>1.16342658542672</v>
+        <v>1.163392127330099</v>
       </c>
       <c r="Z9" t="s">
         <v>52</v>
       </c>
       <c r="AA9">
-        <v>1266.373141341996</v>
+        <v>1266.373141335894</v>
       </c>
       <c r="AB9">
-        <v>19.20339793568952</v>
+        <v>19.20339722595636</v>
       </c>
       <c r="AC9">
-        <v>0.5751141163809599</v>
+        <v>0.5751140545496863</v>
       </c>
       <c r="AD9">
-        <v>1410.651508712812</v>
+        <v>1410.627181908422</v>
       </c>
       <c r="AE9">
-        <v>34.2937202628027</v>
+        <v>42.16060873693058</v>
       </c>
       <c r="AF9">
-        <v>0.5690067392665132</v>
+        <v>0.1992712256593459</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -1315,79 +1354,76 @@
         <v>48</v>
       </c>
       <c r="C10">
-        <v>102.7274352336294</v>
+        <v>102.7278206848084</v>
+      </c>
+      <c r="D10">
+        <v>0.01951959861319457</v>
+      </c>
+      <c r="E10">
+        <v>0.01435175972674143</v>
       </c>
       <c r="F10">
-        <v>1286.707956447115</v>
+        <v>1286.707651143</v>
+      </c>
+      <c r="G10">
+        <v>0.01254059435873648</v>
       </c>
       <c r="H10">
-        <v>156.3397980495265</v>
+        <v>156.0745342173684</v>
       </c>
       <c r="I10">
-        <v>1286.707956447115</v>
+        <v>1286.707651143</v>
       </c>
       <c r="J10">
-        <v>206.275458025829</v>
+        <v>208.5880239143283</v>
       </c>
       <c r="K10">
-        <v>0.6197489586579122</v>
+        <v>0.6245138943869486</v>
       </c>
       <c r="L10">
-        <v>3.257016826506569</v>
+        <v>3.075344287110709</v>
       </c>
       <c r="M10">
-        <v>5.551115123125783E-17</v>
+        <v>2.533084852984757E-12</v>
       </c>
       <c r="N10">
-        <v>1.239497917315824</v>
+        <v>1.249027788773897</v>
       </c>
       <c r="O10" t="s">
         <v>52</v>
       </c>
       <c r="P10">
-        <v>1389.435391680745</v>
+        <v>1389.435471827808</v>
+      </c>
+      <c r="Q10">
+        <v>0.00697900425445809</v>
       </c>
       <c r="R10">
-        <v>263.9643198560204</v>
+        <v>263.7608375111804</v>
       </c>
       <c r="S10">
-        <v>1389.435391680745</v>
+        <v>1389.435471827808</v>
       </c>
       <c r="T10">
-        <v>320.7398046133422</v>
+        <v>322.3103659786261</v>
       </c>
       <c r="U10">
-        <v>0.5707492115237606</v>
+        <v>0.5726887961043112</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>2.859710756010758</v>
+        <v>2.942496238938431</v>
       </c>
       <c r="X10">
-        <v>7.491157228423084E-07</v>
+        <v>6.568381893945485E-08</v>
       </c>
       <c r="Y10">
-        <v>1.141498423047521</v>
+        <v>1.145377592208622</v>
       </c>
       <c r="Z10" t="s">
         <v>52</v>
-      </c>
-      <c r="AA10">
-        <v>1266.551359020218</v>
-      </c>
-      <c r="AB10">
-        <v>11.73594367537412</v>
-      </c>
-      <c r="AC10">
-        <v>0.5452405583735599</v>
-      </c>
-      <c r="AD10">
-        <v>1410.700525424186</v>
-      </c>
-      <c r="AE10">
-        <v>22.17094744279638</v>
-      </c>
-      <c r="AF10">
-        <v>0.6027039121659933</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -1398,82 +1434,85 @@
         <v>49</v>
       </c>
       <c r="C11">
-        <v>102.7298052377839</v>
+        <v>102.7296626981142</v>
+      </c>
+      <c r="D11">
+        <v>0.01891010925144206</v>
+      </c>
+      <c r="E11">
+        <v>0.01559057432361063</v>
       </c>
       <c r="F11">
-        <v>1286.713955849104</v>
+        <v>1286.714117859994</v>
+      </c>
+      <c r="G11">
+        <v>0.01512382397141193</v>
       </c>
       <c r="H11">
-        <v>131.0450363498051</v>
+        <v>130.8125811186033</v>
       </c>
       <c r="I11">
-        <v>1286.714005851604</v>
+        <v>1286.714117859994</v>
       </c>
       <c r="J11">
-        <v>171.4739003427869</v>
+        <v>173.7138312181267</v>
       </c>
       <c r="K11">
-        <v>0.6146321057309264</v>
+        <v>0.6199414396133358</v>
       </c>
       <c r="L11">
-        <v>3.105422407102474</v>
+        <v>2.919465740733076</v>
       </c>
       <c r="M11">
-        <v>5.813018177924789E-09</v>
+        <v>6.42167985454023E-11</v>
       </c>
       <c r="N11">
-        <v>1.229264211461853</v>
+        <v>1.239882879226672</v>
       </c>
       <c r="O11" t="s">
         <v>52</v>
       </c>
       <c r="P11">
-        <v>1389.443811089388</v>
+        <v>1389.443780558108</v>
       </c>
       <c r="Q11">
-        <v>0.00607</v>
+        <v>0.003786285280030128</v>
       </c>
       <c r="R11">
-        <v>235.0956129133607</v>
+        <v>235.099830632959</v>
       </c>
       <c r="S11">
-        <v>1389.443811089388</v>
+        <v>1389.443780558108</v>
       </c>
       <c r="T11">
-        <v>289.8139099591037</v>
+        <v>289.8211297001717</v>
       </c>
       <c r="U11">
-        <v>0.5165366818131636</v>
+        <v>0.5165213034276208</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>2.608018924124824</v>
+        <v>2.608060848345964</v>
       </c>
       <c r="X11">
-        <v>0.3348989353482602</v>
+        <v>0.3350006185512883</v>
       </c>
       <c r="Y11">
-        <v>1.033073363626327</v>
+        <v>1.033042606855242</v>
       </c>
       <c r="Z11" t="s">
         <v>52</v>
       </c>
-      <c r="AA11">
-        <v>1266.571750547651</v>
-      </c>
-      <c r="AB11">
-        <v>26.24523377974807</v>
-      </c>
-      <c r="AC11">
-        <v>0.1564675051017412</v>
-      </c>
       <c r="AD11">
-        <v>1410.669148494898</v>
+        <v>1410.669144030468</v>
       </c>
       <c r="AE11">
-        <v>23.11251176129749</v>
+        <v>23.11247378456391</v>
       </c>
       <c r="AF11">
-        <v>0.5396764877014472</v>
+        <v>0.539675702924542</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -1484,82 +1523,85 @@
         <v>50</v>
       </c>
       <c r="C12">
-        <v>102.758662634727</v>
+        <v>102.7583746593305</v>
+      </c>
+      <c r="D12">
+        <v>0.01958960327781861</v>
+      </c>
+      <c r="E12">
+        <v>0.01435943676881631</v>
       </c>
       <c r="F12">
-        <v>1286.687399168587</v>
+        <v>1286.687722802019</v>
+      </c>
+      <c r="G12">
+        <v>0.01247035261267834</v>
       </c>
       <c r="H12">
-        <v>126.4546076807516</v>
+        <v>126.1765636384594</v>
       </c>
       <c r="I12">
-        <v>1286.687399168587</v>
+        <v>1286.687722802019</v>
       </c>
       <c r="J12">
-        <v>158.1418998726617</v>
+        <v>160.3687132009049</v>
       </c>
       <c r="K12">
-        <v>0.5874211668441253</v>
+        <v>0.5931448825945722</v>
       </c>
       <c r="L12">
-        <v>2.955464845229159</v>
+        <v>2.640592896090385</v>
       </c>
       <c r="M12">
-        <v>3.527499269129208E-06</v>
+        <v>3.702593787124897E-14</v>
       </c>
       <c r="N12">
-        <v>1.174842333688251</v>
+        <v>1.186289765189144</v>
       </c>
       <c r="O12" t="s">
         <v>52</v>
       </c>
       <c r="P12">
-        <v>1389.446111805815</v>
+        <v>1389.44614746385</v>
       </c>
       <c r="Q12">
-        <v>0.0071</v>
+        <v>0.007119250665140266</v>
       </c>
       <c r="R12">
-        <v>211.8332408745676</v>
+        <v>211.8219846285743</v>
       </c>
       <c r="S12">
-        <v>1389.446061803314</v>
+        <v>1389.44609746135</v>
       </c>
       <c r="T12">
-        <v>265.4407204273799</v>
+        <v>265.3448276973129</v>
       </c>
       <c r="U12">
-        <v>0.5692008961296939</v>
+        <v>0.5692989110669842</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>2.332051626415651</v>
+        <v>2.331539725587954</v>
       </c>
       <c r="X12">
-        <v>0.1022654607216857</v>
+        <v>0.1008219568759909</v>
       </c>
       <c r="Y12">
-        <v>1.138401792259388</v>
+        <v>1.138597822133968</v>
       </c>
       <c r="Z12" t="s">
         <v>52</v>
       </c>
-      <c r="AA12">
-        <v>1266.481609709411</v>
-      </c>
-      <c r="AB12">
-        <v>10.6160639919987</v>
-      </c>
-      <c r="AC12">
-        <v>0.5446049395078415</v>
-      </c>
       <c r="AD12">
-        <v>1409.462615013279</v>
+        <v>1409.463237821099</v>
       </c>
       <c r="AE12">
-        <v>268.5158073942789</v>
+        <v>268.9485272698817</v>
       </c>
       <c r="AF12">
-        <v>0.2114869063391098</v>
+        <v>0.2108563242014863</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -1570,79 +1612,76 @@
         <v>51</v>
       </c>
       <c r="C13">
-        <v>102.7278459989996</v>
+        <v>102.7274980038515</v>
+      </c>
+      <c r="D13">
+        <v>0.01935201509201873</v>
+      </c>
+      <c r="E13">
+        <v>0.01414613921773145</v>
       </c>
       <c r="F13">
-        <v>1286.71813166911</v>
+        <v>1286.718261236902</v>
+      </c>
+      <c r="G13">
+        <v>0.01221204882195297</v>
       </c>
       <c r="H13">
-        <v>118.6414921955403</v>
+        <v>118.3712069097287</v>
       </c>
       <c r="I13">
-        <v>1286.71818167161</v>
+        <v>1286.718261236902</v>
       </c>
       <c r="J13">
-        <v>150.6503697311584</v>
+        <v>152.9912346300638</v>
       </c>
       <c r="K13">
-        <v>0.5964519976875798</v>
+        <v>0.6027299408373412</v>
       </c>
       <c r="L13">
-        <v>2.938489529290651</v>
+        <v>2.535498106193613</v>
       </c>
       <c r="M13">
-        <v>4.173111856076162E-10</v>
+        <v>1.589177123229035E-10</v>
       </c>
       <c r="N13">
-        <v>1.19290399537516</v>
+        <v>1.205459881674682</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P13">
-        <v>1389.446027670609</v>
+        <v>1389.445759240753</v>
+      </c>
+      <c r="Q13">
+        <v>0.00713996627006576</v>
       </c>
       <c r="R13">
-        <v>194.318971871589</v>
+        <v>194.7497236108655</v>
       </c>
       <c r="S13">
-        <v>1389.446027670609</v>
+        <v>1389.445759240753</v>
       </c>
       <c r="T13">
-        <v>237.7396916867584</v>
+        <v>240.7648242427668</v>
       </c>
       <c r="U13">
-        <v>0.5694433866066606</v>
+        <v>0.5678424365943296</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>1.948396685359428</v>
+        <v>2.139305002554165</v>
       </c>
       <c r="X13">
-        <v>0.02825631022199204</v>
+        <v>0.06464257500490034</v>
       </c>
       <c r="Y13">
-        <v>1.138886773213321</v>
+        <v>1.135684873188659</v>
       </c>
       <c r="Z13" t="s">
         <v>52</v>
-      </c>
-      <c r="AA13">
-        <v>1266.562765140663</v>
-      </c>
-      <c r="AB13">
-        <v>47.91626601438467</v>
-      </c>
-      <c r="AC13">
-        <v>0.02986083828304443</v>
-      </c>
-      <c r="AD13">
-        <v>1410.625098543999</v>
-      </c>
-      <c r="AE13">
-        <v>17.47312431683904</v>
-      </c>
-      <c r="AF13">
-        <v>0.4267433569605878</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Examples/Example1a_Gas_Cell_Calibration/Weak_Diads.xlsx
+++ b/docs/Examples/Example1a_Gas_Cell_Calibration/Weak_Diads.xlsx
@@ -637,37 +637,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>102.7595241845302</v>
+        <v>102.7594808462761</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008826804458035955</v>
+        <v>0.008673831767419442</v>
       </c>
       <c r="D2" t="n">
-        <v>1286.620737359085</v>
+        <v>1286.620737363184</v>
       </c>
       <c r="E2" t="n">
-        <v>0.007260426976409239</v>
+        <v>0.007257952396796707</v>
       </c>
       <c r="F2" t="n">
-        <v>208.3704907236617</v>
+        <v>208.3704909491026</v>
       </c>
       <c r="G2" t="n">
-        <v>1286.620787361585</v>
+        <v>1286.620787365684</v>
       </c>
       <c r="H2" t="n">
-        <v>297.7329688797369</v>
+        <v>297.7329693527096</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6417943654531248</v>
+        <v>0.6417943640969922</v>
       </c>
       <c r="J2" t="n">
-        <v>2.23701979493043</v>
+        <v>2.237019788992571</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1359218504170594</v>
+        <v>0.1359218581861414</v>
       </c>
       <c r="L2" t="n">
-        <v>1.28358873090625</v>
+        <v>1.283588728193984</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -675,34 +675,34 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1389.380311546115</v>
+        <v>1389.38026821196</v>
       </c>
       <c r="O2" t="n">
-        <v>0.005019828389559986</v>
+        <v>0.004749472027007594</v>
       </c>
       <c r="P2" t="n">
-        <v>322.5639854760909</v>
+        <v>325.2409629884548</v>
       </c>
       <c r="Q2" t="n">
-        <v>1389.380311546115</v>
+        <v>1389.38026821196</v>
       </c>
       <c r="R2" t="n">
-        <v>429.3466242049781</v>
+        <v>440.8067873555844</v>
       </c>
       <c r="S2" t="n">
-        <v>0.5958793098611179</v>
+        <v>0.5919619435721128</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>2.612781327808421</v>
+        <v>2.347907136407623</v>
       </c>
       <c r="V2" t="n">
-        <v>0.14556785913933</v>
+        <v>0.2176274228362649</v>
       </c>
       <c r="W2" t="n">
-        <v>1.191758619722236</v>
+        <v>1.183923887144226</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -710,22 +710,22 @@
         </is>
       </c>
       <c r="Y2" t="n">
-        <v>1266.356778572706</v>
+        <v>1266.356778571172</v>
       </c>
       <c r="Z2" t="n">
-        <v>37.96074308477395</v>
+        <v>37.96074301652008</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.9915372010193245</v>
+        <v>0.9915372027842866</v>
       </c>
       <c r="AB2" t="n">
-        <v>1410.654919038889</v>
+        <v>1410.65184480932</v>
       </c>
       <c r="AC2" t="n">
-        <v>33.1861204104875</v>
+        <v>35.88447035105674</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.6152253105641803</v>
+        <v>0.6478640395355464</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
@@ -744,37 +744,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>102.7356633256356</v>
+        <v>102.7347502321236</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0298496738478032</v>
+        <v>0.02972553094261455</v>
       </c>
       <c r="D3" t="n">
-        <v>1286.700031151571</v>
+        <v>1286.700031152446</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02667966014811718</v>
+        <v>0.02669081347557163</v>
       </c>
       <c r="F3" t="n">
-        <v>45.91830652590025</v>
+        <v>45.91830652560628</v>
       </c>
       <c r="G3" t="n">
-        <v>1286.700031151571</v>
+        <v>1286.700031152446</v>
       </c>
       <c r="H3" t="n">
-        <v>70.13178758188353</v>
+        <v>70.13178758154736</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7188213001240852</v>
+        <v>0.7188213001260244</v>
       </c>
       <c r="J3" t="n">
-        <v>1.637558954919789</v>
+        <v>1.637558954943577</v>
       </c>
       <c r="K3" t="n">
-        <v>3.41686310911804e-08</v>
+        <v>3.416778288078959e-08</v>
       </c>
       <c r="L3" t="n">
-        <v>1.43764260024817</v>
+        <v>1.437642600252049</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -782,34 +782,34 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1389.435694477206</v>
+        <v>1389.43478138457</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01338651422892434</v>
+        <v>0.0130846347229328</v>
       </c>
       <c r="P3" t="n">
-        <v>84.3559828214682</v>
+        <v>85.31485005214881</v>
       </c>
       <c r="Q3" t="n">
-        <v>1389.435694477206</v>
+        <v>1389.43478138457</v>
       </c>
       <c r="R3" t="n">
-        <v>111.8632295389448</v>
+        <v>115.1575625934487</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5650077520318207</v>
+        <v>0.5611303764462943</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.582586825878277</v>
+        <v>1.540676911661818</v>
       </c>
       <c r="V3" t="n">
-        <v>0.2751638609221689</v>
+        <v>0.349118493215884</v>
       </c>
       <c r="W3" t="n">
-        <v>1.130015504063641</v>
+        <v>1.122260752892589</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -839,37 +839,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102.6854582702895</v>
+        <v>102.6855253911642</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09537633957593346</v>
+        <v>0.09574787642562921</v>
       </c>
       <c r="D4" t="n">
-        <v>1286.704264997816</v>
+        <v>1286.70426493836</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0941698646346614</v>
+        <v>0.09461259649833714</v>
       </c>
       <c r="F4" t="n">
-        <v>62.78057298517268</v>
+        <v>62.78057930965304</v>
       </c>
       <c r="G4" t="n">
-        <v>1286.704315000316</v>
+        <v>1286.70431494086</v>
       </c>
       <c r="H4" t="n">
-        <v>86.29423509304044</v>
+        <v>86.29426355772931</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6457165498035624</v>
+        <v>0.6457164491048631</v>
       </c>
       <c r="J4" t="n">
-        <v>1.902287261267666</v>
+        <v>1.902287291333111</v>
       </c>
       <c r="K4" t="n">
-        <v>3.198969066936508e-05</v>
+        <v>3.318383901962374e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>1.291433099607125</v>
+        <v>1.291432898209726</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -877,34 +877,34 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1389.389773270606</v>
+        <v>1389.389840332024</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01512225993670653</v>
+        <v>0.01470076269655433</v>
       </c>
       <c r="P4" t="n">
-        <v>96.6723832490878</v>
+        <v>97.09992024159112</v>
       </c>
       <c r="Q4" t="n">
-        <v>1389.389773270606</v>
+        <v>1389.389840332024</v>
       </c>
       <c r="R4" t="n">
-        <v>126.5951606214477</v>
+        <v>128.4015007079574</v>
       </c>
       <c r="S4" t="n">
-        <v>0.6151095339219828</v>
+        <v>0.6211374078059109</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>2.194367500921177</v>
+        <v>2.02205285156341</v>
       </c>
       <c r="V4" t="n">
-        <v>8.971227372089885e-08</v>
+        <v>9.524923347437042e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>1.230219067843966</v>
+        <v>1.242274815611822</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -912,22 +912,22 @@
         </is>
       </c>
       <c r="Y4" t="n">
-        <v>1266.035702779966</v>
+        <v>1266.035702734515</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.41091785731451</v>
+        <v>17.41091352726907</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.5809020827044092</v>
+        <v>0.5809015995364261</v>
       </c>
       <c r="AB4" t="n">
-        <v>1410.64845231882</v>
+        <v>1410.722196828349</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.407400962889377</v>
+        <v>6.587720984963402</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.2172493735188911</v>
+        <v>0.4130670567503184</v>
       </c>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
@@ -946,37 +946,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>103.2067858723308</v>
+        <v>103.2075017534864</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03434864472141182</v>
+        <v>0.03439777878984171</v>
       </c>
       <c r="D5" t="n">
-        <v>1285.207349697462</v>
+        <v>1285.207349698284</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03015064344208126</v>
+        <v>0.03015252796900907</v>
       </c>
       <c r="F5" t="n">
-        <v>40.99858361932584</v>
+        <v>40.9985836736492</v>
       </c>
       <c r="G5" t="n">
-        <v>1285.207349697462</v>
+        <v>1285.207349698284</v>
       </c>
       <c r="H5" t="n">
-        <v>113.5257141821481</v>
+        <v>113.5257142150502</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9397555775512139</v>
+        <v>0.9397555746498404</v>
       </c>
       <c r="J5" t="n">
-        <v>1.430178555727045</v>
+        <v>1.430178556014117</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8676898474048504</v>
+        <v>0.8676898519728335</v>
       </c>
       <c r="L5" t="n">
-        <v>1.879511155102428</v>
+        <v>1.879511149299681</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -984,34 +984,34 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1388.414135569793</v>
+        <v>1388.41485145177</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01645503248937097</v>
+        <v>0.01655391925656913</v>
       </c>
       <c r="P5" t="n">
-        <v>70.14325653528749</v>
+        <v>70.94450545370704</v>
       </c>
       <c r="Q5" t="n">
-        <v>1388.414135569793</v>
+        <v>1388.41485145177</v>
       </c>
       <c r="R5" t="n">
-        <v>163.121833194516</v>
+        <v>168.6951810618252</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9312376943083365</v>
+        <v>0.9282502278353231</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1.479036296694072</v>
+        <v>1.443074009233422</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4534953730738264</v>
+        <v>0.5261317402238691</v>
       </c>
       <c r="W5" t="n">
-        <v>1.862475388616673</v>
+        <v>1.856500455670646</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -1041,37 +1041,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>102.7403991037697</v>
+        <v>102.7400873315912</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01058341183682232</v>
+        <v>0.01052392523621827</v>
       </c>
       <c r="D6" t="n">
-        <v>1286.697193018655</v>
+        <v>1286.697192129254</v>
       </c>
       <c r="E6" t="n">
-        <v>0.009199551824638426</v>
+        <v>0.009198402227478556</v>
       </c>
       <c r="F6" t="n">
-        <v>180.7465283795699</v>
+        <v>180.7485103533924</v>
       </c>
       <c r="G6" t="n">
-        <v>1286.697193018655</v>
+        <v>1286.697192129254</v>
       </c>
       <c r="H6" t="n">
-        <v>239.5585624954203</v>
+        <v>239.5670530805427</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6145977045993183</v>
+        <v>0.6145856547569643</v>
       </c>
       <c r="J6" t="n">
-        <v>2.696706321463835</v>
+        <v>2.696706334719345</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03966556217105743</v>
+        <v>0.03980056973730983</v>
       </c>
       <c r="L6" t="n">
-        <v>1.229195409198637</v>
+        <v>1.229171309513929</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -1079,34 +1079,34 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1389.437592122425</v>
+        <v>1389.437279460845</v>
       </c>
       <c r="O6" t="n">
-        <v>0.005232289396964072</v>
+        <v>0.005112963801850079</v>
       </c>
       <c r="P6" t="n">
-        <v>289.4220463134934</v>
+        <v>290.5821226603054</v>
       </c>
       <c r="Q6" t="n">
-        <v>1389.437592122425</v>
+        <v>1389.437279460845</v>
       </c>
       <c r="R6" t="n">
-        <v>375.407242543808</v>
+        <v>380.4540324941534</v>
       </c>
       <c r="S6" t="n">
-        <v>0.5832574345723724</v>
+        <v>0.5815233668402462</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>2.38804924924086</v>
+        <v>2.267308927272528</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1324459121250107</v>
+        <v>0.1688431934629158</v>
       </c>
       <c r="W6" t="n">
-        <v>1.166514869144745</v>
+        <v>1.163046733680492</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -1114,22 +1114,22 @@
         </is>
       </c>
       <c r="Y6" t="n">
-        <v>1266.356929590266</v>
+        <v>1266.356929465766</v>
       </c>
       <c r="Z6" t="n">
-        <v>17.06766096374387</v>
+        <v>17.06762839923292</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.5086733554918242</v>
+        <v>0.5086728955604747</v>
       </c>
       <c r="AB6" t="n">
-        <v>1410.662531221668</v>
+        <v>1410.660760825882</v>
       </c>
       <c r="AC6" t="n">
-        <v>27.7376273726993</v>
+        <v>28.79124129022891</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.523139642837571</v>
+        <v>0.5369713786839317</v>
       </c>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
@@ -1148,37 +1148,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>102.7344142412881</v>
+        <v>102.7343799051109</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009432847777967952</v>
+        <v>0.009421381486711745</v>
       </c>
       <c r="D7" t="n">
-        <v>1286.689691951833</v>
+        <v>1286.689691950592</v>
       </c>
       <c r="E7" t="n">
-        <v>0.008328505167785638</v>
+        <v>0.008328196922827887</v>
       </c>
       <c r="F7" t="n">
-        <v>245.5383467416085</v>
+        <v>245.538346382038</v>
       </c>
       <c r="G7" t="n">
-        <v>1286.689691951833</v>
+        <v>1286.689691950592</v>
       </c>
       <c r="H7" t="n">
-        <v>313.4940117606503</v>
+        <v>313.4940110144948</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5954814265005399</v>
+        <v>0.5954814281347325</v>
       </c>
       <c r="J7" t="n">
-        <v>3.724453271180668</v>
+        <v>3.724453268200949</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01800773112516263</v>
+        <v>0.01800771988683136</v>
       </c>
       <c r="L7" t="n">
-        <v>1.19096285300108</v>
+        <v>1.190962856269465</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1186,34 +1186,34 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1389.424106193121</v>
+        <v>1389.424071855703</v>
       </c>
       <c r="O7" t="n">
-        <v>0.004428839449842684</v>
+        <v>0.004404947801365522</v>
       </c>
       <c r="P7" t="n">
-        <v>384.6843101157987</v>
+        <v>384.9545908414252</v>
       </c>
       <c r="Q7" t="n">
-        <v>1389.424106193121</v>
+        <v>1389.424071855703</v>
       </c>
       <c r="R7" t="n">
-        <v>488.5897555219859</v>
+        <v>489.7869612888341</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5863416690009904</v>
+        <v>0.5860467757929895</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>2.588569835453367</v>
+        <v>2.562618799162227</v>
       </c>
       <c r="V7" t="n">
-        <v>0.05330421707982042</v>
+        <v>0.06015082778456926</v>
       </c>
       <c r="W7" t="n">
-        <v>1.172683338001981</v>
+        <v>1.172093551585979</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1224,13 +1224,13 @@
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="n">
-        <v>1410.673868964393</v>
+        <v>1410.673822884274</v>
       </c>
       <c r="AC7" t="n">
-        <v>40.13695978950503</v>
+        <v>40.38698022459704</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.5632523428579416</v>
+        <v>0.5653830022262984</v>
       </c>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr"/>
@@ -1249,37 +1249,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>102.7608008682489</v>
+        <v>102.7605575790656</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005165670453636475</v>
+        <v>0.009697572470062511</v>
       </c>
       <c r="D8" t="n">
-        <v>1286.675345870551</v>
+        <v>1286.67539749693</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.008268376418352232</v>
       </c>
       <c r="F8" t="n">
-        <v>219.8399770538002</v>
+        <v>219.8585704258131</v>
       </c>
       <c r="G8" t="n">
-        <v>1286.675395873051</v>
+        <v>1286.67539749693</v>
       </c>
       <c r="H8" t="n">
-        <v>284.0973024331751</v>
+        <v>284.179327065569</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6049001767428298</v>
+        <v>0.6048100210890376</v>
       </c>
       <c r="J8" t="n">
-        <v>2.925835110525371</v>
+        <v>2.925836900023067</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0107999232372647</v>
+        <v>0.01189152781356639</v>
       </c>
       <c r="L8" t="n">
-        <v>1.20980035348566</v>
+        <v>1.209620042178075</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1287,34 +1287,34 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1389.4361967413</v>
+        <v>1389.435955075996</v>
       </c>
       <c r="O8" t="n">
-        <v>0.005165670453636475</v>
+        <v>0.005067234276856661</v>
       </c>
       <c r="P8" t="n">
-        <v>347.8885586910387</v>
+        <v>349.2009453662986</v>
       </c>
       <c r="Q8" t="n">
-        <v>1389.4361967413</v>
+        <v>1389.435955075996</v>
       </c>
       <c r="R8" t="n">
-        <v>437.7427872581077</v>
+        <v>443.5609752303363</v>
       </c>
       <c r="S8" t="n">
-        <v>0.584919474561965</v>
+        <v>0.5833430574830138</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>2.908730316572899</v>
+        <v>2.812360444833855</v>
       </c>
       <c r="V8" t="n">
-        <v>0.03212452911096009</v>
+        <v>0.06916286075730077</v>
       </c>
       <c r="W8" t="n">
-        <v>1.16983894912393</v>
+        <v>1.166686114966028</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
@@ -1322,22 +1322,22 @@
         </is>
       </c>
       <c r="Y8" t="n">
-        <v>1266.52572041953</v>
+        <v>1266.525720210282</v>
       </c>
       <c r="Z8" t="n">
-        <v>17.73412589834794</v>
+        <v>17.73414649279681</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.3937261336975556</v>
+        <v>0.3937266662915651</v>
       </c>
       <c r="AB8" t="n">
-        <v>1410.546170623601</v>
+        <v>1410.547503214572</v>
       </c>
       <c r="AC8" t="n">
-        <v>35.32936729723519</v>
+        <v>36.5262278730731</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.4978467180760432</v>
+        <v>0.5103431408778019</v>
       </c>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
@@ -1356,37 +1356,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>102.759255506282</v>
+        <v>102.7592616029256</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01218725261513349</v>
+        <v>0.01201948674739982</v>
       </c>
       <c r="D9" t="n">
-        <v>1286.683864064722</v>
+        <v>1286.683864055311</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01047001775486506</v>
+        <v>0.01039847409769717</v>
       </c>
       <c r="F9" t="n">
-        <v>183.8696587361193</v>
+        <v>183.8696600401607</v>
       </c>
       <c r="G9" t="n">
-        <v>1286.683914067222</v>
+        <v>1286.683914057811</v>
       </c>
       <c r="H9" t="n">
-        <v>241.6532823112857</v>
+        <v>241.6532890349104</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6173340950850569</v>
+        <v>0.6173340879703259</v>
       </c>
       <c r="J9" t="n">
-        <v>2.79640053705319</v>
+        <v>2.796396314490431</v>
       </c>
       <c r="K9" t="n">
-        <v>1.122129593245091e-06</v>
+        <v>1.222190618710428e-06</v>
       </c>
       <c r="L9" t="n">
-        <v>1.234668190170114</v>
+        <v>1.234668175940652</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1394,34 +1394,34 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>1389.443169573504</v>
+        <v>1389.443175660736</v>
       </c>
       <c r="O9" t="n">
-        <v>0.006237616092537955</v>
+        <v>0.006028250003976349</v>
       </c>
       <c r="P9" t="n">
-        <v>302.1489205876021</v>
+        <v>302.8358804930641</v>
       </c>
       <c r="Q9" t="n">
-        <v>1389.443169573504</v>
+        <v>1389.443175660736</v>
       </c>
       <c r="R9" t="n">
-        <v>374.1900771275344</v>
+        <v>377.0693078144344</v>
       </c>
       <c r="S9" t="n">
-        <v>0.5817127393191279</v>
+        <v>0.5831842428334675</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>3.118913318321181</v>
+        <v>2.938232028760764</v>
       </c>
       <c r="V9" t="n">
-        <v>3.119001421525436e-06</v>
+        <v>0.008886906168314501</v>
       </c>
       <c r="W9" t="n">
-        <v>1.163425478638256</v>
+        <v>1.166368485666935</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
@@ -1429,22 +1429,22 @@
         </is>
       </c>
       <c r="Y9" t="n">
-        <v>1266.369564464477</v>
+        <v>1266.369575353019</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.10183744750792</v>
+        <v>20.10162673629478</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.5940064785274973</v>
+        <v>0.5939973982604733</v>
       </c>
       <c r="AB9" t="n">
-        <v>1410.651508705584</v>
+        <v>1410.65194720458</v>
       </c>
       <c r="AC9" t="n">
-        <v>34.29371261193687</v>
+        <v>36.06517912038149</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.5690064814730823</v>
+        <v>0.5871121471428896</v>
       </c>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
@@ -1463,37 +1463,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>102.7276854139081</v>
+        <v>102.7278245663626</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01422610741717144</v>
+        <v>0.01409559447231296</v>
       </c>
       <c r="D10" t="n">
-        <v>1286.707695618373</v>
+        <v>1286.707695664839</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01257838724900071</v>
+        <v>0.01258156862252119</v>
       </c>
       <c r="F10" t="n">
-        <v>156.7943852663069</v>
+        <v>156.7943855963875</v>
       </c>
       <c r="G10" t="n">
-        <v>1286.707695618373</v>
+        <v>1286.707695664839</v>
       </c>
       <c r="H10" t="n">
-        <v>208.1959572938675</v>
+        <v>208.1959571482267</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6237055056285363</v>
+        <v>0.6237055038799911</v>
       </c>
       <c r="J10" t="n">
-        <v>2.929958767283341</v>
+        <v>2.929875092867141</v>
       </c>
       <c r="K10" t="n">
-        <v>1.00919828049939e-11</v>
+        <v>5.884237541664561e-12</v>
       </c>
       <c r="L10" t="n">
-        <v>1.247411011257073</v>
+        <v>1.247411007759982</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1501,34 +1501,34 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>1389.435381032282</v>
+        <v>1389.435520231202</v>
       </c>
       <c r="O10" t="n">
-        <v>0.00664577357867966</v>
+        <v>0.006355306013457571</v>
       </c>
       <c r="P10" t="n">
-        <v>263.9644842976184</v>
+        <v>264.6191933761941</v>
       </c>
       <c r="Q10" t="n">
-        <v>1389.435381032282</v>
+        <v>1389.435520231202</v>
       </c>
       <c r="R10" t="n">
-        <v>320.7395523929744</v>
+        <v>323.3679325636863</v>
       </c>
       <c r="S10" t="n">
-        <v>0.5707485216182682</v>
+        <v>0.5737029232535138</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>2.859666228506983</v>
+        <v>2.535920988164556</v>
       </c>
       <c r="V10" t="n">
-        <v>1.26879239947808e-07</v>
+        <v>0.001616391252128369</v>
       </c>
       <c r="W10" t="n">
-        <v>1.141497043236536</v>
+        <v>1.147405846507028</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
@@ -1536,22 +1536,22 @@
         </is>
       </c>
       <c r="Y10" t="n">
-        <v>1266.549170926113</v>
+        <v>1266.549567293226</v>
       </c>
       <c r="Z10" t="n">
-        <v>13.17581275801975</v>
+        <v>13.1756534626135</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.5754217114868733</v>
+        <v>0.5754084728361842</v>
       </c>
       <c r="AB10" t="n">
-        <v>1410.700270700984</v>
+        <v>1410.704649817094</v>
       </c>
       <c r="AC10" t="n">
-        <v>22.17036383855471</v>
+        <v>24.50251033969256</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.6026739835046486</v>
+        <v>0.638000843922773</v>
       </c>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr"/>
@@ -1570,37 +1570,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>102.7297419903255</v>
+        <v>102.7294259396213</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04820267935166224</v>
+        <v>0.04800015971659472</v>
       </c>
       <c r="D11" t="n">
-        <v>1286.714019942992</v>
+        <v>1286.714019947986</v>
       </c>
       <c r="E11" t="n">
-        <v>0.04767081388761352</v>
+        <v>0.04748445795712648</v>
       </c>
       <c r="F11" t="n">
-        <v>131.4216157468837</v>
+        <v>131.4216156543121</v>
       </c>
       <c r="G11" t="n">
-        <v>1286.714069945492</v>
+        <v>1286.714069950486</v>
       </c>
       <c r="H11" t="n">
-        <v>172.9356944959311</v>
+        <v>172.9356945473643</v>
       </c>
       <c r="I11" t="n">
-        <v>0.618095571906721</v>
+        <v>0.6180955725259268</v>
       </c>
       <c r="J11" t="n">
-        <v>2.891785950647217</v>
+        <v>2.891785962833695</v>
       </c>
       <c r="K11" t="n">
-        <v>1.529976145775436e-11</v>
+        <v>1.530070514732529e-11</v>
       </c>
       <c r="L11" t="n">
-        <v>1.236191143813442</v>
+        <v>1.236191145051854</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1608,34 +1608,34 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>1389.443811935818</v>
+        <v>1389.443495890108</v>
       </c>
       <c r="O11" t="n">
-        <v>0.007140854288646405</v>
+        <v>0.007017234878247257</v>
       </c>
       <c r="P11" t="n">
-        <v>235.094257530875</v>
+        <v>236.0877690716932</v>
       </c>
       <c r="Q11" t="n">
-        <v>1389.443811935818</v>
+        <v>1389.443495890108</v>
       </c>
       <c r="R11" t="n">
-        <v>289.8112820035619</v>
+        <v>292.9244580731312</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5165420653734228</v>
+        <v>0.5145392454258744</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.608023345618191</v>
+        <v>2.497906898984151</v>
       </c>
       <c r="V11" t="n">
-        <v>0.3348609525389235</v>
+        <v>0.3633635233506215</v>
       </c>
       <c r="W11" t="n">
-        <v>1.033084130746846</v>
+        <v>1.029078490851749</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
@@ -1643,22 +1643,22 @@
         </is>
       </c>
       <c r="Y11" t="n">
-        <v>1266.452674746146</v>
+        <v>1266.452674739252</v>
       </c>
       <c r="Z11" t="n">
-        <v>13.33110864633278</v>
+        <v>13.33110867165744</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.4625606678429056</v>
+        <v>0.4625606697048273</v>
       </c>
       <c r="AB11" t="n">
-        <v>1410.669143362391</v>
+        <v>1410.669449494156</v>
       </c>
       <c r="AC11" t="n">
-        <v>23.11168281474391</v>
+        <v>23.77743774132506</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.5396627667390721</v>
+        <v>0.5485350945953414</v>
       </c>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
@@ -1677,37 +1677,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>102.7584415535446</v>
+        <v>102.7582784869578</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01410613282397238</v>
+        <v>0.01413199416886573</v>
       </c>
       <c r="D12" t="n">
-        <v>1286.687656320805</v>
+        <v>1286.68760632283</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01226697506649055</v>
+        <v>0.01232505978559159</v>
       </c>
       <c r="F12" t="n">
-        <v>126.8987731471865</v>
+        <v>126.898779242797</v>
       </c>
       <c r="G12" t="n">
-        <v>1286.687656320805</v>
+        <v>1286.68765632533</v>
       </c>
       <c r="H12" t="n">
-        <v>159.9582814237192</v>
+        <v>159.9583008038312</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5920889354537209</v>
+        <v>0.5920889022492344</v>
       </c>
       <c r="J12" t="n">
-        <v>2.47835582131944</v>
+        <v>2.478356036124245</v>
       </c>
       <c r="K12" t="n">
-        <v>1.091230448502234e-06</v>
+        <v>1.492079678644398e-06</v>
       </c>
       <c r="L12" t="n">
-        <v>1.184177870907442</v>
+        <v>1.184177804498469</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1715,34 +1715,34 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>1389.44614787685</v>
+        <v>1389.445984814788</v>
       </c>
       <c r="O12" t="n">
-        <v>0.006964503282047479</v>
+        <v>0.006914199915423897</v>
       </c>
       <c r="P12" t="n">
-        <v>211.8212534217154</v>
+        <v>212.2516109114213</v>
       </c>
       <c r="Q12" t="n">
-        <v>1389.44609787435</v>
+        <v>1389.445934812288</v>
       </c>
       <c r="R12" t="n">
-        <v>265.3412471877135</v>
+        <v>267.206393605246</v>
       </c>
       <c r="S12" t="n">
-        <v>0.5693023016191101</v>
+        <v>0.5684992634604514</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>2.330797207221011</v>
+        <v>2.293832820169711</v>
       </c>
       <c r="V12" t="n">
-        <v>0.1007750017080149</v>
+        <v>0.1198901368560362</v>
       </c>
       <c r="W12" t="n">
-        <v>1.13860460323822</v>
+        <v>1.136998526920903</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
@@ -1750,22 +1750,22 @@
         </is>
       </c>
       <c r="Y12" t="n">
-        <v>1266.47495345587</v>
+        <v>1266.474953441454</v>
       </c>
       <c r="Z12" t="n">
-        <v>12.07160746036175</v>
+        <v>12.07160581221282</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.579301771215634</v>
+        <v>0.5793017446692971</v>
       </c>
       <c r="AB12" t="n">
-        <v>1409.463066326124</v>
+        <v>1409.463721096148</v>
       </c>
       <c r="AC12" t="n">
-        <v>268.9524405087885</v>
+        <v>270.7851900636309</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.2110649257661163</v>
+        <v>0.2099204983966532</v>
       </c>
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr"/>
@@ -1784,37 +1784,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>102.7278350748563</v>
+        <v>102.7275298964139</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01443464471668137</v>
+        <v>0.0146648807681626</v>
       </c>
       <c r="D13" t="n">
-        <v>1286.718228185809</v>
+        <v>1286.718228166044</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01293111300880475</v>
+        <v>0.01323853712940477</v>
       </c>
       <c r="F13" t="n">
-        <v>119.0579008623566</v>
+        <v>119.0579015543576</v>
       </c>
       <c r="G13" t="n">
-        <v>1286.718228185809</v>
+        <v>1286.718228166044</v>
       </c>
       <c r="H13" t="n">
-        <v>152.3053865636758</v>
+        <v>152.305389050949</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6008897444354347</v>
+        <v>0.6008897403606874</v>
       </c>
       <c r="J13" t="n">
-        <v>2.446943115768882</v>
+        <v>2.446943290140414</v>
       </c>
       <c r="K13" t="n">
-        <v>3.025457245842134e-07</v>
+        <v>3.562127176004459e-07</v>
       </c>
       <c r="L13" t="n">
-        <v>1.201779488870869</v>
+        <v>1.201779480721375</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1822,34 +1822,34 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>1389.446063260666</v>
+        <v>1389.445808064958</v>
       </c>
       <c r="O13" t="n">
-        <v>0.006414459014627642</v>
+        <v>0.00630871322995398</v>
       </c>
       <c r="P13" t="n">
-        <v>194.3188965361462</v>
+        <v>195.0648562799549</v>
       </c>
       <c r="Q13" t="n">
-        <v>1389.446063260666</v>
+        <v>1389.445758062458</v>
       </c>
       <c r="R13" t="n">
-        <v>237.7417497237303</v>
+        <v>240.9851796739947</v>
       </c>
       <c r="S13" t="n">
-        <v>0.5694443143020003</v>
+        <v>0.5679474955937192</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.948390932408664</v>
+        <v>1.894308729341686</v>
       </c>
       <c r="V13" t="n">
-        <v>0.02827910498201208</v>
+        <v>0.066034316700816</v>
       </c>
       <c r="W13" t="n">
-        <v>1.138888628604001</v>
+        <v>1.135894991187438</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -1857,22 +1857,22 @@
         </is>
       </c>
       <c r="Y13" t="n">
-        <v>1266.471691084857</v>
+        <v>1266.471691872275</v>
       </c>
       <c r="Z13" t="n">
-        <v>9.436139322442738</v>
+        <v>9.436123098566934</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.503212285111565</v>
+        <v>0.5032110159557439</v>
       </c>
       <c r="AB13" t="n">
-        <v>1410.625098829294</v>
+        <v>1410.625508583173</v>
       </c>
       <c r="AC13" t="n">
-        <v>17.47311035388224</v>
+        <v>241.2270809629844</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.4267428086901371</v>
+        <v>0.09895986642880628</v>
       </c>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
